--- a/JupyterNotebooks/AvgHW/SA-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/SA-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,37 +82,37 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
     <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,37 +653,37 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.9878035448605915</v>
+      </c>
+      <c r="D3">
+        <v>1.001958245795573</v>
+      </c>
+      <c r="E3">
+        <v>0.9919204901982271</v>
+      </c>
+      <c r="F3">
+        <v>1.001770504484922</v>
+      </c>
+      <c r="G3">
         <v>1.020481371255482</v>
       </c>
-      <c r="D3">
-        <v>0.9706869353493264</v>
-      </c>
-      <c r="E3">
-        <v>0.991255536480642</v>
-      </c>
-      <c r="F3">
+      <c r="H3">
         <v>1.020481371255482</v>
-      </c>
-      <c r="G3">
-        <v>0.9919204901982274</v>
-      </c>
-      <c r="H3">
-        <v>1.001770504484922</v>
       </c>
       <c r="I3">
         <v>1.020481371255482</v>
       </c>
       <c r="J3">
+        <v>0.991255536480642</v>
+      </c>
+      <c r="K3">
         <v>0.9706869353493264</v>
       </c>
-      <c r="K3">
-        <v>1.006667279864836</v>
-      </c>
       <c r="L3">
-        <v>1.001958245795573</v>
+        <v>0.9706869353493264</v>
       </c>
       <c r="M3">
-        <v>0.9878035448605915</v>
+        <v>1.006667279864835</v>
       </c>
       <c r="N3">
         <v>1.020481371255482</v>
@@ -743,7 +695,7 @@
         <v>0.9809712359149843</v>
       </c>
       <c r="Q3">
-        <v>0.9915880133394347</v>
+        <v>0.9915880133394346</v>
       </c>
       <c r="R3">
         <v>0.9941412810284834</v>
@@ -764,7 +716,7 @@
         <v>0.9965679885361999</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,37 +724,37 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.9762117737015955</v>
+      </c>
+      <c r="D4">
+        <v>1.004086679286821</v>
+      </c>
+      <c r="E4">
+        <v>0.9852569518642905</v>
+      </c>
+      <c r="F4">
+        <v>1.004304202202002</v>
+      </c>
+      <c r="G4">
         <v>1.039481712045323</v>
       </c>
-      <c r="D4">
-        <v>0.9459411958895237</v>
-      </c>
-      <c r="E4">
-        <v>0.9835731654808404</v>
-      </c>
-      <c r="F4">
+      <c r="H4">
         <v>1.039481712045323</v>
-      </c>
-      <c r="G4">
-        <v>0.9852569518642905</v>
-      </c>
-      <c r="H4">
-        <v>1.004304202202002</v>
       </c>
       <c r="I4">
         <v>1.039481712045323</v>
       </c>
       <c r="J4">
+        <v>0.9835731654808404</v>
+      </c>
+      <c r="K4">
         <v>0.9459411958895237</v>
       </c>
-      <c r="K4">
+      <c r="L4">
+        <v>0.9459411958895237</v>
+      </c>
+      <c r="M4">
         <v>1.012129349894452</v>
-      </c>
-      <c r="L4">
-        <v>1.004086679286821</v>
-      </c>
-      <c r="M4">
-        <v>0.9762117737015955</v>
       </c>
       <c r="N4">
         <v>1.039481712045323</v>
@@ -835,7 +787,7 @@
         <v>0.993873128795606</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,70 +795,70 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>0.9568517604856231</v>
+      </c>
+      <c r="D5">
+        <v>1.011829343864778</v>
+      </c>
+      <c r="E5">
+        <v>0.9676767214019562</v>
+      </c>
+      <c r="F5">
+        <v>1.010629090303007</v>
+      </c>
+      <c r="G5">
         <v>1.085276925172486</v>
       </c>
-      <c r="D5">
-        <v>0.8946516282389415</v>
-      </c>
-      <c r="E5">
-        <v>0.9609525071649285</v>
-      </c>
-      <c r="F5">
+      <c r="H5">
         <v>1.085276925172486</v>
-      </c>
-      <c r="G5">
-        <v>0.9676767214019562</v>
-      </c>
-      <c r="H5">
-        <v>1.010629090303007</v>
       </c>
       <c r="I5">
         <v>1.085276925172486</v>
       </c>
       <c r="J5">
-        <v>0.8946516282389415</v>
+        <v>0.9609525071649287</v>
       </c>
       <c r="K5">
+        <v>0.8946516282389418</v>
+      </c>
+      <c r="L5">
+        <v>0.8946516282389418</v>
+      </c>
+      <c r="M5">
         <v>1.023510537357923</v>
-      </c>
-      <c r="L5">
-        <v>1.011829343864778</v>
-      </c>
-      <c r="M5">
-        <v>0.9568517604856231</v>
       </c>
       <c r="N5">
         <v>1.085276925172486</v>
       </c>
       <c r="O5">
-        <v>0.9609525071649285</v>
+        <v>0.9609525071649287</v>
       </c>
       <c r="P5">
-        <v>0.927802067701935</v>
+        <v>0.9278020677019353</v>
       </c>
       <c r="Q5">
-        <v>0.9643146142834423</v>
+        <v>0.9643146142834425</v>
       </c>
       <c r="R5">
-        <v>0.9802936868587855</v>
+        <v>0.9802936868587856</v>
       </c>
       <c r="S5">
-        <v>0.9410936189352753</v>
+        <v>0.9410936189352755</v>
       </c>
       <c r="T5">
-        <v>0.9802936868587855</v>
+        <v>0.9802936868587856</v>
       </c>
       <c r="U5">
-        <v>0.9771394454945781</v>
+        <v>0.9771394454945783</v>
       </c>
       <c r="V5">
-        <v>0.9987669414301598</v>
+        <v>0.99876694143016</v>
       </c>
       <c r="W5">
         <v>0.9889223142487054</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,37 +866,37 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.9316966986679429</v>
+      </c>
+      <c r="D6">
+        <v>0.9995986271332172</v>
+      </c>
+      <c r="E6">
+        <v>0.9341534426428333</v>
+      </c>
+      <c r="F6">
+        <v>1.01534499189854</v>
+      </c>
+      <c r="G6">
         <v>1.119204081327401</v>
       </c>
-      <c r="D6">
-        <v>0.8226523040099086</v>
-      </c>
-      <c r="E6">
-        <v>0.9232522349261728</v>
-      </c>
-      <c r="F6">
+      <c r="H6">
         <v>1.119204081327401</v>
-      </c>
-      <c r="G6">
-        <v>0.9341534426428336</v>
-      </c>
-      <c r="H6">
-        <v>1.01534499189854</v>
       </c>
       <c r="I6">
         <v>1.119204081327401</v>
       </c>
       <c r="J6">
+        <v>0.9232522349261728</v>
+      </c>
+      <c r="K6">
         <v>0.8226523040099086</v>
       </c>
-      <c r="K6">
+      <c r="L6">
+        <v>0.8226523040099086</v>
+      </c>
+      <c r="M6">
         <v>1.047519252819834</v>
-      </c>
-      <c r="L6">
-        <v>0.9995986271332172</v>
-      </c>
-      <c r="M6">
-        <v>0.931696698667943</v>
       </c>
       <c r="N6">
         <v>1.119204081327401</v>
@@ -956,28 +908,28 @@
         <v>0.8729522694680407</v>
       </c>
       <c r="Q6">
-        <v>0.9287028387845032</v>
+        <v>0.9287028387845031</v>
       </c>
       <c r="R6">
         <v>0.9550362067544942</v>
       </c>
       <c r="S6">
-        <v>0.893352660526305</v>
+        <v>0.8933526605263049</v>
       </c>
       <c r="T6">
-        <v>0.9550362067544943</v>
+        <v>0.9550362067544942</v>
       </c>
       <c r="U6">
-        <v>0.9498155157265792</v>
+        <v>0.949815515726579</v>
       </c>
       <c r="V6">
-        <v>0.9836932288467436</v>
+        <v>0.9836932288467434</v>
       </c>
       <c r="W6">
-        <v>0.9741777041782314</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>0.9741777041782312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,70 +937,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9996071731922058</v>
+        <v>0.9988593874806513</v>
       </c>
       <c r="D7">
-        <v>0.9989176873743073</v>
+        <v>1.001037727721596</v>
       </c>
       <c r="E7">
-        <v>0.9994586936355397</v>
+        <v>0.9998273519485337</v>
       </c>
       <c r="F7">
-        <v>0.9996071731922058</v>
+        <v>1.000605996354655</v>
       </c>
       <c r="G7">
-        <v>0.9998273519485338</v>
+        <v>0.999607173192205</v>
       </c>
       <c r="H7">
-        <v>1.000605996354654</v>
+        <v>0.999607173192205</v>
       </c>
       <c r="I7">
-        <v>0.9996071731922058</v>
+        <v>0.999607173192205</v>
       </c>
       <c r="J7">
-        <v>0.9989176873743073</v>
+        <v>0.9994586936355389</v>
       </c>
       <c r="K7">
-        <v>0.9993668025214674</v>
+        <v>0.9989176873743071</v>
       </c>
       <c r="L7">
-        <v>1.001037727721597</v>
+        <v>0.9989176873743071</v>
       </c>
       <c r="M7">
-        <v>0.998859387480651</v>
+        <v>0.9993668025214661</v>
       </c>
       <c r="N7">
-        <v>0.9996071731922058</v>
+        <v>0.999607173192205</v>
       </c>
       <c r="O7">
-        <v>0.9994586936355397</v>
+        <v>0.9994586936355389</v>
       </c>
       <c r="P7">
-        <v>0.9991881905049236</v>
+        <v>0.9991881905049229</v>
       </c>
       <c r="Q7">
-        <v>0.9996430227920368</v>
+        <v>0.9996430227920363</v>
       </c>
       <c r="R7">
-        <v>0.9993278514006843</v>
+        <v>0.9993278514006837</v>
       </c>
       <c r="S7">
-        <v>0.9994012443194603</v>
+        <v>0.9994012443194599</v>
       </c>
       <c r="T7">
-        <v>0.9993278514006843</v>
+        <v>0.9993278514006837</v>
       </c>
       <c r="U7">
-        <v>0.9994527265376466</v>
+        <v>0.9994527265376462</v>
       </c>
       <c r="V7">
-        <v>0.9994836158685585</v>
+        <v>0.9994836158685579</v>
       </c>
       <c r="W7">
-        <v>0.9997101025286195</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>0.999710102528619</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,37 +1008,37 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>0.9970346581216269</v>
+      </c>
+      <c r="D8">
+        <v>1.002601104782952</v>
+      </c>
+      <c r="E8">
+        <v>0.9993433324860577</v>
+      </c>
+      <c r="F8">
+        <v>1.001483698478692</v>
+      </c>
+      <c r="G8">
         <v>1.000146606255431</v>
       </c>
-      <c r="D8">
-        <v>0.995848875245664</v>
-      </c>
-      <c r="E8">
-        <v>0.9991190920980851</v>
-      </c>
-      <c r="F8">
+      <c r="H8">
         <v>1.000146606255431</v>
-      </c>
-      <c r="G8">
-        <v>0.9993433324860573</v>
-      </c>
-      <c r="H8">
-        <v>1.001483698478693</v>
       </c>
       <c r="I8">
         <v>1.000146606255431</v>
       </c>
       <c r="J8">
-        <v>0.995848875245664</v>
+        <v>0.9991190920980851</v>
       </c>
       <c r="K8">
-        <v>0.9985468099014437</v>
+        <v>0.9958488752456628</v>
       </c>
       <c r="L8">
-        <v>1.002601104782953</v>
+        <v>0.9958488752456628</v>
       </c>
       <c r="M8">
-        <v>0.9970346581216267</v>
+        <v>0.9985468099014432</v>
       </c>
       <c r="N8">
         <v>1.000146606255431</v>
@@ -1095,31 +1047,31 @@
         <v>0.9991190920980851</v>
       </c>
       <c r="P8">
-        <v>0.9974839836718745</v>
+        <v>0.997483983671874</v>
       </c>
       <c r="Q8">
-        <v>0.9992312122920712</v>
+        <v>0.9992312122920715</v>
       </c>
       <c r="R8">
-        <v>0.9983715245330599</v>
+        <v>0.9983715245330597</v>
       </c>
       <c r="S8">
-        <v>0.9981037666099355</v>
+        <v>0.9981037666099352</v>
       </c>
       <c r="T8">
-        <v>0.9983715245330599</v>
+        <v>0.9983715245330597</v>
       </c>
       <c r="U8">
-        <v>0.9986144765213093</v>
+        <v>0.9986144765213092</v>
       </c>
       <c r="V8">
-        <v>0.9989209024681335</v>
+        <v>0.9989209024681337</v>
       </c>
       <c r="W8">
-        <v>0.9992655221712441</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>0.9992655221712439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,40 +1079,40 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000029374116374</v>
+        <v>0.9955911518579821</v>
       </c>
       <c r="D9">
+        <v>1.004682550500775</v>
+      </c>
+      <c r="E9">
+        <v>0.9993239128274384</v>
+      </c>
+      <c r="F9">
+        <v>1.002078071486484</v>
+      </c>
+      <c r="G9">
+        <v>1.000029374116373</v>
+      </c>
+      <c r="H9">
+        <v>1.000029374116373</v>
+      </c>
+      <c r="I9">
+        <v>1.000029374116373</v>
+      </c>
+      <c r="J9">
+        <v>0.998490560422026</v>
+      </c>
+      <c r="K9">
         <v>0.9950885905874326</v>
       </c>
-      <c r="E9">
-        <v>0.998490560422026</v>
-      </c>
-      <c r="F9">
-        <v>1.000029374116374</v>
-      </c>
-      <c r="G9">
-        <v>0.9993239128274384</v>
-      </c>
-      <c r="H9">
-        <v>1.002078071486484</v>
-      </c>
-      <c r="I9">
-        <v>1.000029374116374</v>
-      </c>
-      <c r="J9">
+      <c r="L9">
         <v>0.9950885905874326</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>0.9973045130064412</v>
       </c>
-      <c r="L9">
-        <v>1.004682550500775</v>
-      </c>
-      <c r="M9">
-        <v>0.9955911518579821</v>
-      </c>
       <c r="N9">
-        <v>1.000029374116374</v>
+        <v>1.000029374116373</v>
       </c>
       <c r="O9">
         <v>0.998490560422026</v>
@@ -1172,7 +1124,7 @@
         <v>0.9989072366247322</v>
       </c>
       <c r="R9">
-        <v>0.9978695083752775</v>
+        <v>0.9978695083752774</v>
       </c>
       <c r="S9">
         <v>0.9976343546122991</v>
@@ -1190,7 +1142,7 @@
         <v>0.9990735906006191</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,37 +1150,37 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>0.9908596635928061</v>
+      </c>
+      <c r="D10">
+        <v>1.009509173543154</v>
+      </c>
+      <c r="E10">
+        <v>0.9985756407280207</v>
+      </c>
+      <c r="F10">
+        <v>1.004835334776959</v>
+      </c>
+      <c r="G10">
         <v>0.998925491571431</v>
       </c>
-      <c r="D10">
-        <v>0.9893611458068259</v>
-      </c>
-      <c r="E10">
-        <v>0.9959608235326651</v>
-      </c>
-      <c r="F10">
+      <c r="H10">
         <v>0.998925491571431</v>
-      </c>
-      <c r="G10">
-        <v>0.9985756407280207</v>
-      </c>
-      <c r="H10">
-        <v>1.004835334776959</v>
       </c>
       <c r="I10">
         <v>0.998925491571431</v>
       </c>
       <c r="J10">
-        <v>0.9893611458068259</v>
+        <v>0.9959608235326651</v>
       </c>
       <c r="K10">
-        <v>0.9943334248431432</v>
+        <v>0.9893611458068257</v>
       </c>
       <c r="L10">
-        <v>1.009509173543154</v>
+        <v>0.9893611458068257</v>
       </c>
       <c r="M10">
-        <v>0.9908596635928061</v>
+        <v>0.9943334248431435</v>
       </c>
       <c r="N10">
         <v>0.998925491571431</v>
@@ -1237,7 +1189,7 @@
         <v>0.9959608235326651</v>
       </c>
       <c r="P10">
-        <v>0.9926609846697455</v>
+        <v>0.9926609846697454</v>
       </c>
       <c r="Q10">
         <v>0.997268232130343</v>
@@ -1246,7 +1198,7 @@
         <v>0.9947491536369739</v>
       </c>
       <c r="S10">
-        <v>0.9946325366891706</v>
+        <v>0.9946325366891705</v>
       </c>
       <c r="T10">
         <v>0.9947491536369739</v>
@@ -1261,7 +1213,7 @@
         <v>0.9977950872993757</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,37 +1221,37 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>0.9850913296183565</v>
+      </c>
+      <c r="D11">
+        <v>1.01587242702753</v>
+      </c>
+      <c r="E11">
+        <v>0.997061356069826</v>
+      </c>
+      <c r="F11">
+        <v>1.006758502835688</v>
+      </c>
+      <c r="G11">
         <v>1.002414040706886</v>
       </c>
-      <c r="D11">
-        <v>0.9801532350455295</v>
-      </c>
-      <c r="E11">
-        <v>0.9923039820888037</v>
-      </c>
-      <c r="F11">
+      <c r="H11">
         <v>1.002414040706886</v>
-      </c>
-      <c r="G11">
-        <v>0.997061356069826</v>
-      </c>
-      <c r="H11">
-        <v>1.006758502835687</v>
       </c>
       <c r="I11">
         <v>1.002414040706886</v>
       </c>
       <c r="J11">
+        <v>0.9923039820888037</v>
+      </c>
+      <c r="K11">
         <v>0.9801532350455295</v>
       </c>
-      <c r="K11">
+      <c r="L11">
+        <v>0.9801532350455295</v>
+      </c>
+      <c r="M11">
         <v>0.9909757470973372</v>
-      </c>
-      <c r="L11">
-        <v>1.01587242702753</v>
-      </c>
-      <c r="M11">
-        <v>0.9850913296183565</v>
       </c>
       <c r="N11">
         <v>1.002414040706886</v>
@@ -1329,10 +1281,10 @@
         <v>0.9948693309235861</v>
       </c>
       <c r="W11">
-        <v>0.9963288275612445</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+        <v>0.9963288275612446</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,52 +1292,52 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.116990804664011</v>
+        <v>1.242818300640022</v>
       </c>
       <c r="D12">
-        <v>1.526267584329737</v>
+        <v>1.086102743082858</v>
       </c>
       <c r="E12">
-        <v>0.6904590665431409</v>
+        <v>1.035393312944749</v>
       </c>
       <c r="F12">
-        <v>1.116990804664011</v>
+        <v>0.8421911193373977</v>
       </c>
       <c r="G12">
-        <v>1.035393312944749</v>
+        <v>1.11699080466401</v>
       </c>
       <c r="H12">
-        <v>0.8421911193373977</v>
+        <v>1.11699080466401</v>
       </c>
       <c r="I12">
-        <v>1.116990804664011</v>
+        <v>1.11699080466401</v>
       </c>
       <c r="J12">
-        <v>1.526267584329737</v>
+        <v>0.6904590665431408</v>
       </c>
       <c r="K12">
+        <v>1.526267584329738</v>
+      </c>
+      <c r="L12">
+        <v>1.526267584329738</v>
+      </c>
+      <c r="M12">
         <v>0.8507554068194179</v>
       </c>
-      <c r="L12">
-        <v>1.086102743082858</v>
-      </c>
-      <c r="M12">
-        <v>1.242818300640022</v>
-      </c>
       <c r="N12">
-        <v>1.116990804664011</v>
+        <v>1.11699080466401</v>
       </c>
       <c r="O12">
-        <v>0.6904590665431409</v>
+        <v>0.6904590665431408</v>
       </c>
       <c r="P12">
         <v>1.108363325436439</v>
       </c>
       <c r="Q12">
-        <v>0.8629261897439447</v>
+        <v>0.8629261897439446</v>
       </c>
       <c r="R12">
-        <v>1.11123915184563</v>
+        <v>1.111239151845629</v>
       </c>
       <c r="S12">
         <v>1.084039987939209</v>
@@ -1403,7 +1355,7 @@
         <v>1.048872292295167</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,37 +1363,37 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>1.010484817529409</v>
+      </c>
+      <c r="D13">
+        <v>0.8480083243235578</v>
+      </c>
+      <c r="E13">
+        <v>1.010380707912029</v>
+      </c>
+      <c r="F13">
+        <v>0.9351409646023666</v>
+      </c>
+      <c r="G13">
         <v>1.003569769547607</v>
       </c>
-      <c r="D13">
-        <v>0.8074113510347648</v>
-      </c>
-      <c r="E13">
-        <v>1.053270246613401</v>
-      </c>
-      <c r="F13">
+      <c r="H13">
         <v>1.003569769547607</v>
-      </c>
-      <c r="G13">
-        <v>1.010380707912029</v>
-      </c>
-      <c r="H13">
-        <v>0.9351409646023666</v>
       </c>
       <c r="I13">
         <v>1.003569769547607</v>
       </c>
       <c r="J13">
-        <v>0.8074113510347648</v>
+        <v>1.053270246613401</v>
       </c>
       <c r="K13">
+        <v>0.8074113510347647</v>
+      </c>
+      <c r="L13">
+        <v>0.8074113510347647</v>
+      </c>
+      <c r="M13">
         <v>1.217295016323791</v>
-      </c>
-      <c r="L13">
-        <v>0.848008324323558</v>
-      </c>
-      <c r="M13">
-        <v>1.010484817529409</v>
       </c>
       <c r="N13">
         <v>1.003569769547607</v>
@@ -1450,7 +1402,7 @@
         <v>1.053270246613401</v>
       </c>
       <c r="P13">
-        <v>0.930340798824083</v>
+        <v>0.9303407988240829</v>
       </c>
       <c r="Q13">
         <v>1.031825477262715</v>
@@ -1459,7 +1411,7 @@
         <v>0.9547504557319243</v>
       </c>
       <c r="S13">
-        <v>0.957020768520065</v>
+        <v>0.9570207685200649</v>
       </c>
       <c r="T13">
         <v>0.9547504557319243</v>
@@ -1468,13 +1420,13 @@
         <v>0.9686580187769505</v>
       </c>
       <c r="V13">
-        <v>0.9756403689310817</v>
+        <v>0.9756403689310819</v>
       </c>
       <c r="W13">
         <v>0.9856951497358659</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,40 +1434,40 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.09994839146864856</v>
+        <v>0.7630427675592577</v>
       </c>
       <c r="D14">
-        <v>0.2443275000598941</v>
+        <v>0.683104443778473</v>
       </c>
       <c r="E14">
+        <v>0.9464104146673036</v>
+      </c>
+      <c r="F14">
+        <v>1.289716805531327</v>
+      </c>
+      <c r="G14">
+        <v>0.09994839146864848</v>
+      </c>
+      <c r="H14">
+        <v>0.09994839146864848</v>
+      </c>
+      <c r="I14">
+        <v>0.09994839146864848</v>
+      </c>
+      <c r="J14">
         <v>1.976323055206932</v>
       </c>
-      <c r="F14">
-        <v>0.09994839146864856</v>
-      </c>
-      <c r="G14">
-        <v>0.9464104146673036</v>
-      </c>
-      <c r="H14">
-        <v>1.289716805531327</v>
-      </c>
-      <c r="I14">
-        <v>0.09994839146864856</v>
-      </c>
-      <c r="J14">
-        <v>0.2443275000598941</v>
-      </c>
       <c r="K14">
+        <v>0.244327500059894</v>
+      </c>
+      <c r="L14">
+        <v>0.244327500059894</v>
+      </c>
+      <c r="M14">
         <v>1.407947286107057</v>
       </c>
-      <c r="L14">
-        <v>0.6831044437784731</v>
-      </c>
-      <c r="M14">
-        <v>0.7630427675592578</v>
-      </c>
       <c r="N14">
-        <v>0.09994839146864856</v>
+        <v>0.09994839146864848</v>
       </c>
       <c r="O14">
         <v>1.976323055206932</v>
@@ -1545,7 +1497,7 @@
         <v>0.9263525830473616</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,37 +1505,37 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>1.126208870142665</v>
+      </c>
+      <c r="D15">
+        <v>1.199641628230355</v>
+      </c>
+      <c r="E15">
+        <v>1.059127154540698</v>
+      </c>
+      <c r="F15">
+        <v>0.9653365473281356</v>
+      </c>
+      <c r="G15">
         <v>1.154819413131847</v>
       </c>
-      <c r="D15">
-        <v>1.487078587347189</v>
-      </c>
-      <c r="E15">
-        <v>0.6158226443872522</v>
-      </c>
-      <c r="F15">
+      <c r="H15">
         <v>1.154819413131847</v>
-      </c>
-      <c r="G15">
-        <v>1.059127154540698</v>
-      </c>
-      <c r="H15">
-        <v>0.9653365473281352</v>
       </c>
       <c r="I15">
         <v>1.154819413131847</v>
       </c>
       <c r="J15">
+        <v>0.6158226443872522</v>
+      </c>
+      <c r="K15">
         <v>1.487078587347189</v>
       </c>
-      <c r="K15">
+      <c r="L15">
+        <v>1.487078587347189</v>
+      </c>
+      <c r="M15">
         <v>0.6774639121706539</v>
-      </c>
-      <c r="L15">
-        <v>1.199641628230355</v>
-      </c>
-      <c r="M15">
-        <v>1.126208870142665</v>
       </c>
       <c r="N15">
         <v>1.154819413131847</v>
@@ -1616,7 +1568,7 @@
         <v>1.035687344659849</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9992588261041182</v>
+        <v>0.7688534204060185</v>
       </c>
       <c r="D16">
-        <v>1.002198325930833</v>
+        <v>1.060876706103352</v>
       </c>
       <c r="E16">
-        <v>0.9981353631734204</v>
+        <v>0.8679283559147891</v>
       </c>
       <c r="F16">
-        <v>0.9992588261041182</v>
+        <v>1.045064971380019</v>
       </c>
       <c r="G16">
-        <v>0.9994224461877745</v>
+        <v>1.379060273475447</v>
       </c>
       <c r="H16">
-        <v>1.001990753279147</v>
+        <v>1.379060273475447</v>
       </c>
       <c r="I16">
-        <v>0.9992588261041182</v>
+        <v>1.379060273475447</v>
       </c>
       <c r="J16">
-        <v>1.002198325930833</v>
+        <v>0.8725296461500199</v>
       </c>
       <c r="K16">
-        <v>0.9975379354828977</v>
+        <v>0.4697179898472294</v>
       </c>
       <c r="L16">
-        <v>1.000210237578318</v>
+        <v>0.4697179898472294</v>
       </c>
       <c r="M16">
-        <v>1.00088426873687</v>
+        <v>1.088090306317381</v>
       </c>
       <c r="N16">
-        <v>0.9992588261041182</v>
+        <v>1.379060273475447</v>
       </c>
       <c r="O16">
-        <v>0.9981353631734204</v>
+        <v>0.8725296461500199</v>
       </c>
       <c r="P16">
-        <v>1.000166844552127</v>
+        <v>0.6711238179986246</v>
       </c>
       <c r="Q16">
-        <v>0.9987789046805975</v>
+        <v>0.8702290010324045</v>
       </c>
       <c r="R16">
-        <v>0.9998641717361237</v>
+        <v>0.9071026364908988</v>
       </c>
       <c r="S16">
-        <v>0.9999187117640093</v>
+        <v>0.7367253306373461</v>
       </c>
       <c r="T16">
-        <v>0.999864171736124</v>
+        <v>0.9071026364908988</v>
       </c>
       <c r="U16">
-        <v>0.9997537403490366</v>
+        <v>0.8973090663468715</v>
       </c>
       <c r="V16">
-        <v>0.9996547575000531</v>
+        <v>0.9936593077725867</v>
       </c>
       <c r="W16">
-        <v>0.9999547695591724</v>
+        <v>0.944015208699282</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000253679510076</v>
+        <v>0.80830631434609</v>
       </c>
       <c r="D17">
-        <v>0.9992657272407298</v>
+        <v>1.064087394845117</v>
       </c>
       <c r="E17">
-        <v>1.001837648753831</v>
+        <v>0.9054251794984125</v>
       </c>
       <c r="F17">
-        <v>1.000253679510076</v>
+        <v>1.053988966034557</v>
       </c>
       <c r="G17">
-        <v>1.000946005549058</v>
+        <v>1.254913292999348</v>
       </c>
       <c r="H17">
-        <v>0.9976659926894589</v>
+        <v>1.254913292999348</v>
       </c>
       <c r="I17">
-        <v>1.000253679510076</v>
+        <v>1.254913292999348</v>
       </c>
       <c r="J17">
-        <v>0.9992657272407298</v>
+        <v>0.9158683622681849</v>
       </c>
       <c r="K17">
-        <v>1.003217031350375</v>
+        <v>0.5932617517690402</v>
       </c>
       <c r="L17">
-        <v>1.001487231456272</v>
+        <v>0.5932617517690402</v>
       </c>
       <c r="M17">
-        <v>0.9965388071352881</v>
+        <v>1.044291749521878</v>
       </c>
       <c r="N17">
-        <v>1.000253679510076</v>
+        <v>1.254913292999348</v>
       </c>
       <c r="O17">
-        <v>1.001837648753831</v>
+        <v>0.9158683622681849</v>
       </c>
       <c r="P17">
-        <v>1.00055168799728</v>
+        <v>0.7545650570186125</v>
       </c>
       <c r="Q17">
-        <v>1.001391827151445</v>
+        <v>0.9106467708832987</v>
       </c>
       <c r="R17">
-        <v>1.000452351834879</v>
+        <v>0.9213478023455243</v>
       </c>
       <c r="S17">
-        <v>1.000683127181206</v>
+        <v>0.8048517645118792</v>
       </c>
       <c r="T17">
-        <v>1.000452351834879</v>
+        <v>0.9213478023455243</v>
       </c>
       <c r="U17">
-        <v>1.000575765263424</v>
+        <v>0.9173671466337463</v>
       </c>
       <c r="V17">
-        <v>1.000511348112754</v>
+        <v>0.9848763759068666</v>
       </c>
       <c r="W17">
-        <v>1.000151515460636</v>
+        <v>0.9550178764103284</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9990847043601551</v>
+        <v>0.8874801000617758</v>
       </c>
       <c r="D18">
-        <v>0.9967843329357243</v>
+        <v>1.070661171504165</v>
       </c>
       <c r="E18">
-        <v>0.9847741267352748</v>
+        <v>0.9802203103668924</v>
       </c>
       <c r="F18">
-        <v>0.9990847043601551</v>
+        <v>1.071004878792491</v>
       </c>
       <c r="G18">
-        <v>0.9926907265026598</v>
+        <v>1.008827172944511</v>
       </c>
       <c r="H18">
-        <v>1.011728947147985</v>
+        <v>1.008827172944511</v>
       </c>
       <c r="I18">
-        <v>0.9990847043601551</v>
+        <v>1.008827172944511</v>
       </c>
       <c r="J18">
-        <v>0.9967843329357243</v>
+        <v>1.002275536094071</v>
       </c>
       <c r="K18">
-        <v>0.9992120641584725</v>
+        <v>0.8401318503350216</v>
       </c>
       <c r="L18">
-        <v>1.001104863965695</v>
+        <v>0.8401318503350216</v>
       </c>
       <c r="M18">
-        <v>1.000090008602676</v>
+        <v>0.9570984763094539</v>
       </c>
       <c r="N18">
-        <v>0.9990847043601551</v>
+        <v>1.008827172944511</v>
       </c>
       <c r="O18">
-        <v>0.9847741267352748</v>
+        <v>1.002275536094071</v>
       </c>
       <c r="P18">
-        <v>0.9907792298354996</v>
+        <v>0.9212036932145464</v>
       </c>
       <c r="Q18">
-        <v>0.9887324266189672</v>
+        <v>0.9912479232304818</v>
       </c>
       <c r="R18">
-        <v>0.993547721343718</v>
+        <v>0.9504115197912014</v>
       </c>
       <c r="S18">
-        <v>0.9914163953912197</v>
+        <v>0.9408758989319951</v>
       </c>
       <c r="T18">
-        <v>0.993547721343718</v>
+        <v>0.9504115197912014</v>
       </c>
       <c r="U18">
-        <v>0.9933334726334535</v>
+        <v>0.9578637174351241</v>
       </c>
       <c r="V18">
-        <v>0.9944837189787938</v>
+        <v>0.9680564085370016</v>
       </c>
       <c r="W18">
-        <v>0.9981837218010803</v>
+        <v>0.9772124370510478</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.8703477159863489</v>
+      </c>
+      <c r="D19">
+        <v>1.082996063748899</v>
+      </c>
+      <c r="E19">
+        <v>0.9886709233068063</v>
+      </c>
+      <c r="F19">
+        <v>1.075684623064066</v>
+      </c>
+      <c r="G19">
+        <v>0.9791711687009572</v>
+      </c>
+      <c r="H19">
+        <v>0.9791711687009572</v>
+      </c>
+      <c r="I19">
+        <v>0.9791711687009572</v>
+      </c>
+      <c r="J19">
+        <v>0.9922729712615428</v>
+      </c>
+      <c r="K19">
+        <v>0.8014692232269311</v>
+      </c>
+      <c r="L19">
+        <v>0.8014692232269311</v>
+      </c>
+      <c r="M19">
+        <v>0.9633693131619252</v>
+      </c>
+      <c r="N19">
+        <v>0.9791711687009572</v>
+      </c>
+      <c r="O19">
+        <v>0.9922729712615428</v>
+      </c>
+      <c r="P19">
+        <v>0.896871097244237</v>
+      </c>
+      <c r="Q19">
+        <v>0.9904719472841745</v>
+      </c>
+      <c r="R19">
+        <v>0.9243044543964771</v>
+      </c>
+      <c r="S19">
+        <v>0.9274710392650934</v>
+      </c>
+      <c r="T19">
+        <v>0.9243044543964771</v>
+      </c>
+      <c r="U19">
+        <v>0.9403960716240594</v>
+      </c>
+      <c r="V19">
+        <v>0.948151091039439</v>
+      </c>
+      <c r="W19">
+        <v>0.9692477503071846</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000884268736871</v>
+      </c>
+      <c r="D20">
+        <v>1.000210237578318</v>
+      </c>
+      <c r="E20">
+        <v>0.9994224461877745</v>
+      </c>
+      <c r="F20">
+        <v>1.001990753279146</v>
+      </c>
+      <c r="G20">
+        <v>0.9992588261041188</v>
+      </c>
+      <c r="H20">
+        <v>0.9992588261041188</v>
+      </c>
+      <c r="I20">
+        <v>0.9992588261041188</v>
+      </c>
+      <c r="J20">
+        <v>0.9981353631734204</v>
+      </c>
+      <c r="K20">
+        <v>1.002198325930833</v>
+      </c>
+      <c r="L20">
+        <v>1.002198325930833</v>
+      </c>
+      <c r="M20">
+        <v>0.9975379354828979</v>
+      </c>
+      <c r="N20">
+        <v>0.9992588261041188</v>
+      </c>
+      <c r="O20">
+        <v>0.9981353631734204</v>
+      </c>
+      <c r="P20">
+        <v>1.000166844552127</v>
+      </c>
+      <c r="Q20">
+        <v>0.9987789046805975</v>
+      </c>
+      <c r="R20">
+        <v>0.999864171736124</v>
+      </c>
+      <c r="S20">
+        <v>0.9999187117640093</v>
+      </c>
+      <c r="T20">
+        <v>0.999864171736124</v>
+      </c>
+      <c r="U20">
+        <v>0.9997537403490366</v>
+      </c>
+      <c r="V20">
+        <v>0.9996547575000531</v>
+      </c>
+      <c r="W20">
+        <v>0.9999547695591724</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9965388071352881</v>
+      </c>
+      <c r="D21">
+        <v>1.001487231456273</v>
+      </c>
+      <c r="E21">
+        <v>1.000946005549058</v>
+      </c>
+      <c r="F21">
+        <v>0.9976659926894591</v>
+      </c>
+      <c r="G21">
+        <v>1.000253679510076</v>
+      </c>
+      <c r="H21">
+        <v>1.000253679510076</v>
+      </c>
+      <c r="I21">
+        <v>1.000253679510076</v>
+      </c>
+      <c r="J21">
+        <v>1.001837648753831</v>
+      </c>
+      <c r="K21">
+        <v>0.9992657272407295</v>
+      </c>
+      <c r="L21">
+        <v>0.9992657272407295</v>
+      </c>
+      <c r="M21">
+        <v>1.003217031350375</v>
+      </c>
+      <c r="N21">
+        <v>1.000253679510076</v>
+      </c>
+      <c r="O21">
+        <v>1.001837648753831</v>
+      </c>
+      <c r="P21">
+        <v>1.00055168799728</v>
+      </c>
+      <c r="Q21">
+        <v>1.001391827151445</v>
+      </c>
+      <c r="R21">
+        <v>1.000452351834879</v>
+      </c>
+      <c r="S21">
+        <v>1.000683127181206</v>
+      </c>
+      <c r="T21">
+        <v>1.000452351834879</v>
+      </c>
+      <c r="U21">
+        <v>1.000575765263424</v>
+      </c>
+      <c r="V21">
+        <v>1.000511348112754</v>
+      </c>
+      <c r="W21">
+        <v>1.000151515460636</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000090008602676</v>
+      </c>
+      <c r="D22">
+        <v>1.001104863965695</v>
+      </c>
+      <c r="E22">
+        <v>0.99269072650266</v>
+      </c>
+      <c r="F22">
+        <v>1.011728947147985</v>
+      </c>
+      <c r="G22">
+        <v>0.9990847043601557</v>
+      </c>
+      <c r="H22">
+        <v>0.9990847043601557</v>
+      </c>
+      <c r="I22">
+        <v>0.9990847043601557</v>
+      </c>
+      <c r="J22">
+        <v>0.9847741267352749</v>
+      </c>
+      <c r="K22">
+        <v>0.9967843329357241</v>
+      </c>
+      <c r="L22">
+        <v>0.9967843329357241</v>
+      </c>
+      <c r="M22">
+        <v>0.9992120641584722</v>
+      </c>
+      <c r="N22">
+        <v>0.9990847043601557</v>
+      </c>
+      <c r="O22">
+        <v>0.9847741267352749</v>
+      </c>
+      <c r="P22">
+        <v>0.9907792298354995</v>
+      </c>
+      <c r="Q22">
+        <v>0.9887324266189674</v>
+      </c>
+      <c r="R22">
+        <v>0.9935477213437182</v>
+      </c>
+      <c r="S22">
+        <v>0.9914163953912197</v>
+      </c>
+      <c r="T22">
+        <v>0.9935477213437182</v>
+      </c>
+      <c r="U22">
+        <v>0.9933334726334536</v>
+      </c>
+      <c r="V22">
+        <v>0.994483718978794</v>
+      </c>
+      <c r="W22">
+        <v>0.9981837218010804</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.010410375806888</v>
+      </c>
+      <c r="D23">
+        <v>1.00078474619661</v>
+      </c>
+      <c r="E23">
+        <v>0.9891460468304499</v>
+      </c>
+      <c r="F23">
+        <v>1.029926990888284</v>
+      </c>
+      <c r="G23">
         <v>1.029085727762356</v>
       </c>
-      <c r="D19">
+      <c r="H23">
+        <v>1.029085727762356</v>
+      </c>
+      <c r="I23">
+        <v>1.029085727762356</v>
+      </c>
+      <c r="J23">
+        <v>0.9735234609267821</v>
+      </c>
+      <c r="K23">
         <v>0.9950780644770008</v>
       </c>
-      <c r="E19">
+      <c r="L23">
+        <v>0.9950780644770008</v>
+      </c>
+      <c r="M23">
+        <v>0.9755807529683199</v>
+      </c>
+      <c r="N23">
+        <v>1.029085727762356</v>
+      </c>
+      <c r="O23">
         <v>0.9735234609267821</v>
       </c>
-      <c r="F19">
-        <v>1.029085727762356</v>
-      </c>
-      <c r="G19">
-        <v>0.9891460468304499</v>
-      </c>
-      <c r="H19">
-        <v>1.029926990888284</v>
-      </c>
-      <c r="I19">
-        <v>1.029085727762356</v>
-      </c>
-      <c r="J19">
-        <v>0.9950780644770008</v>
-      </c>
-      <c r="K19">
-        <v>0.9755807529683199</v>
-      </c>
-      <c r="L19">
-        <v>1.00078474619661</v>
-      </c>
-      <c r="M19">
-        <v>1.010410375806888</v>
-      </c>
-      <c r="N19">
-        <v>1.029085727762356</v>
-      </c>
-      <c r="O19">
-        <v>0.9735234609267821</v>
-      </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9843007627018914</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.981334753878616</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9992290843887129</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.985915857411411</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9992290843887129</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>0.9967083249991472</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>1.003183805551789</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>1.000442020732086</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/SA-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/SA-HW10.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[5, 1, 1]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9878035448605915</v>
+        <v>0.8616585779099439</v>
       </c>
       <c r="D3">
-        <v>1.001958245795573</v>
+        <v>1.082349973393372</v>
       </c>
       <c r="E3">
-        <v>0.9919204901982271</v>
+        <v>0.9699575335230537</v>
       </c>
       <c r="F3">
-        <v>1.001770504484922</v>
+        <v>1.087822276700288</v>
       </c>
       <c r="G3">
-        <v>1.020481371255482</v>
+        <v>1.00716922834863</v>
       </c>
       <c r="H3">
-        <v>1.020481371255482</v>
+        <v>1.00716922834863</v>
       </c>
       <c r="I3">
-        <v>1.020481371255482</v>
+        <v>1.00716922834863</v>
       </c>
       <c r="J3">
-        <v>0.991255536480642</v>
+        <v>0.9909400529488483</v>
       </c>
       <c r="K3">
-        <v>0.9706869353493264</v>
+        <v>0.8009174915544769</v>
       </c>
       <c r="L3">
-        <v>0.9706869353493264</v>
+        <v>0.8009174915544769</v>
       </c>
       <c r="M3">
-        <v>1.006667279864835</v>
+        <v>0.9521607082146945</v>
       </c>
       <c r="N3">
-        <v>1.020481371255482</v>
+        <v>1.00716922834863</v>
       </c>
       <c r="O3">
-        <v>0.991255536480642</v>
+        <v>0.9909400529488483</v>
       </c>
       <c r="P3">
-        <v>0.9809712359149843</v>
+        <v>0.8959287722516627</v>
       </c>
       <c r="Q3">
-        <v>0.9915880133394346</v>
+        <v>0.980448793235951</v>
       </c>
       <c r="R3">
-        <v>0.9941412810284834</v>
+        <v>0.9330089242839851</v>
       </c>
       <c r="S3">
-        <v>0.984620987342732</v>
+        <v>0.920605026008793</v>
       </c>
       <c r="T3">
-        <v>0.9941412810284834</v>
+        <v>0.9330089242839851</v>
       </c>
       <c r="U3">
-        <v>0.9935860833209194</v>
+        <v>0.9422460765937523</v>
       </c>
       <c r="V3">
-        <v>0.9989651409078318</v>
+        <v>0.9552307069447277</v>
       </c>
       <c r="W3">
-        <v>0.9965679885361999</v>
+        <v>0.9691219803241634</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9762117737015955</v>
+        <v>0.8760082053178285</v>
       </c>
       <c r="D4">
-        <v>1.004086679286821</v>
+        <v>1.074636669439061</v>
       </c>
       <c r="E4">
-        <v>0.9852569518642905</v>
+        <v>0.97561495444372</v>
       </c>
       <c r="F4">
-        <v>1.004304202202002</v>
+        <v>1.079283300082927</v>
       </c>
       <c r="G4">
-        <v>1.039481712045323</v>
+        <v>1.006629839299813</v>
       </c>
       <c r="H4">
-        <v>1.039481712045323</v>
+        <v>1.006629839299813</v>
       </c>
       <c r="I4">
-        <v>1.039481712045323</v>
+        <v>1.006629839299813</v>
       </c>
       <c r="J4">
-        <v>0.9835731654808404</v>
+        <v>0.9980114028341399</v>
       </c>
       <c r="K4">
-        <v>0.9459411958895237</v>
+        <v>0.8226896665181606</v>
       </c>
       <c r="L4">
-        <v>0.9459411958895237</v>
+        <v>0.8226896665181606</v>
       </c>
       <c r="M4">
-        <v>1.012129349894452</v>
+        <v>0.9552726966474034</v>
       </c>
       <c r="N4">
-        <v>1.039481712045323</v>
+        <v>1.006629839299813</v>
       </c>
       <c r="O4">
-        <v>0.9835731654808404</v>
+        <v>0.9980114028341399</v>
       </c>
       <c r="P4">
-        <v>0.964757180685182</v>
+        <v>0.9103505346761502</v>
       </c>
       <c r="Q4">
-        <v>0.9844150586725655</v>
+        <v>0.98681317863893</v>
       </c>
       <c r="R4">
-        <v>0.9896653578052289</v>
+        <v>0.942443636217371</v>
       </c>
       <c r="S4">
-        <v>0.9715904377448848</v>
+        <v>0.9321053412653401</v>
       </c>
       <c r="T4">
-        <v>0.9896653578052289</v>
+        <v>0.942443636217371</v>
       </c>
       <c r="U4">
-        <v>0.9885632563199943</v>
+        <v>0.9507364657739583</v>
       </c>
       <c r="V4">
-        <v>0.9987469474650599</v>
+        <v>0.9619151404791293</v>
       </c>
       <c r="W4">
-        <v>0.993873128795606</v>
+        <v>0.9735183418228817</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9568517604856231</v>
+        <v>0.8341943225229119</v>
       </c>
       <c r="D5">
-        <v>1.011829343864778</v>
+        <v>1.098099451509434</v>
       </c>
       <c r="E5">
-        <v>0.9676767214019562</v>
+        <v>0.959439296199462</v>
       </c>
       <c r="F5">
-        <v>1.010629090303007</v>
+        <v>1.10402127760108</v>
       </c>
       <c r="G5">
-        <v>1.085276925172486</v>
+        <v>1.007639868563882</v>
       </c>
       <c r="H5">
-        <v>1.085276925172486</v>
+        <v>1.007639868563882</v>
       </c>
       <c r="I5">
-        <v>1.085276925172486</v>
+        <v>1.007639868563882</v>
       </c>
       <c r="J5">
-        <v>0.9609525071649287</v>
+        <v>0.9771158666037735</v>
       </c>
       <c r="K5">
-        <v>0.8946516282389418</v>
+        <v>0.7599383619789756</v>
       </c>
       <c r="L5">
-        <v>0.8946516282389418</v>
+        <v>0.7599383619789756</v>
       </c>
       <c r="M5">
-        <v>1.023510537357923</v>
+        <v>0.9454316406576823</v>
       </c>
       <c r="N5">
-        <v>1.085276925172486</v>
+        <v>1.007639868563882</v>
       </c>
       <c r="O5">
-        <v>0.9609525071649287</v>
+        <v>0.9771158666037735</v>
       </c>
       <c r="P5">
-        <v>0.9278020677019353</v>
+        <v>0.8685271142913745</v>
       </c>
       <c r="Q5">
-        <v>0.9643146142834425</v>
+        <v>0.9682775814016178</v>
       </c>
       <c r="R5">
-        <v>0.9802936868587856</v>
+        <v>0.9148980323822103</v>
       </c>
       <c r="S5">
-        <v>0.9410936189352755</v>
+        <v>0.8988311749274036</v>
       </c>
       <c r="T5">
-        <v>0.9802936868587856</v>
+        <v>0.9148980323822103</v>
       </c>
       <c r="U5">
-        <v>0.9771394454945783</v>
+        <v>0.9260333483365233</v>
       </c>
       <c r="V5">
-        <v>0.99876694143016</v>
+        <v>0.9423546523819951</v>
       </c>
       <c r="W5">
-        <v>0.9889223142487054</v>
+        <v>0.9607350107046502</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9316966986679429</v>
+        <v>0.8080784373579538</v>
       </c>
       <c r="D6">
-        <v>0.9995986271332172</v>
+        <v>1.114009974147727</v>
       </c>
       <c r="E6">
-        <v>0.9341534426428333</v>
+        <v>0.9497792723295453</v>
       </c>
       <c r="F6">
-        <v>1.01534499189854</v>
+        <v>1.119072967613636</v>
       </c>
       <c r="G6">
-        <v>1.119204081327401</v>
+        <v>1.007484305993182</v>
       </c>
       <c r="H6">
-        <v>1.119204081327401</v>
+        <v>1.007484305993182</v>
       </c>
       <c r="I6">
-        <v>1.119204081327401</v>
+        <v>1.007484305993182</v>
       </c>
       <c r="J6">
-        <v>0.9232522349261728</v>
+        <v>0.963259582073864</v>
       </c>
       <c r="K6">
-        <v>0.8226523040099086</v>
+        <v>0.7220032507028407</v>
       </c>
       <c r="L6">
-        <v>0.8226523040099086</v>
+        <v>0.7220032507028407</v>
       </c>
       <c r="M6">
-        <v>1.047519252819834</v>
+        <v>0.9382035952499997</v>
       </c>
       <c r="N6">
-        <v>1.119204081327401</v>
+        <v>1.007484305993182</v>
       </c>
       <c r="O6">
-        <v>0.9232522349261728</v>
+        <v>0.963259582073864</v>
       </c>
       <c r="P6">
-        <v>0.8729522694680407</v>
+        <v>0.8426314163883524</v>
       </c>
       <c r="Q6">
-        <v>0.9287028387845031</v>
+        <v>0.9565194272017046</v>
       </c>
       <c r="R6">
-        <v>0.9550362067544942</v>
+        <v>0.8975823795899621</v>
       </c>
       <c r="S6">
-        <v>0.8933526605263049</v>
+        <v>0.87834736836875</v>
       </c>
       <c r="T6">
-        <v>0.9550362067544942</v>
+        <v>0.8975823795899621</v>
       </c>
       <c r="U6">
-        <v>0.949815515726579</v>
+        <v>0.910631602774858</v>
       </c>
       <c r="V6">
-        <v>0.9836932288467434</v>
+        <v>0.9300021434185227</v>
       </c>
       <c r="W6">
-        <v>0.9741777041782312</v>
+        <v>0.9527364231835935</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9988593874806513</v>
+        <v>0.6094137160705276</v>
       </c>
       <c r="D7">
-        <v>1.001037727721596</v>
+        <v>0.8823826129918755</v>
       </c>
       <c r="E7">
-        <v>0.9998273519485337</v>
+        <v>0.6735766225967255</v>
       </c>
       <c r="F7">
-        <v>1.000605996354655</v>
+        <v>1.327165546797293</v>
       </c>
       <c r="G7">
-        <v>0.999607173192205</v>
+        <v>1.454068848578343</v>
       </c>
       <c r="H7">
-        <v>0.999607173192205</v>
+        <v>1.454068848578343</v>
       </c>
       <c r="I7">
-        <v>0.999607173192205</v>
+        <v>1.454068848578343</v>
       </c>
       <c r="J7">
-        <v>0.9994586936355389</v>
+        <v>1.149605035646249</v>
       </c>
       <c r="K7">
-        <v>0.9989176873743071</v>
+        <v>0.2066153181449549</v>
       </c>
       <c r="L7">
-        <v>0.9989176873743071</v>
+        <v>0.2066153181449549</v>
       </c>
       <c r="M7">
-        <v>0.9993668025214661</v>
+        <v>1.119058984114686</v>
       </c>
       <c r="N7">
-        <v>0.999607173192205</v>
+        <v>1.454068848578343</v>
       </c>
       <c r="O7">
-        <v>0.9994586936355389</v>
+        <v>1.149605035646249</v>
       </c>
       <c r="P7">
-        <v>0.9991881905049229</v>
+        <v>0.6781101768956018</v>
       </c>
       <c r="Q7">
-        <v>0.9996430227920363</v>
+        <v>0.9115908291214871</v>
       </c>
       <c r="R7">
-        <v>0.9993278514006837</v>
+        <v>0.9367630674565155</v>
       </c>
       <c r="S7">
-        <v>0.9994012443194599</v>
+        <v>0.6765989921293096</v>
       </c>
       <c r="T7">
-        <v>0.9993278514006837</v>
+        <v>0.9367630674565155</v>
       </c>
       <c r="U7">
-        <v>0.9994527265376462</v>
+        <v>0.870966456241568</v>
       </c>
       <c r="V7">
-        <v>0.9994836158685579</v>
+        <v>0.987586934708923</v>
       </c>
       <c r="W7">
-        <v>0.999710102528619</v>
+        <v>0.9277358356175818</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9970346581216269</v>
+        <v>0.6063303622464423</v>
       </c>
       <c r="D8">
-        <v>1.002601104782952</v>
+        <v>0.8890131037890022</v>
       </c>
       <c r="E8">
-        <v>0.9993433324860577</v>
+        <v>0.6743465203917202</v>
       </c>
       <c r="F8">
-        <v>1.001483698478692</v>
+        <v>1.328028182804382</v>
       </c>
       <c r="G8">
-        <v>1.000146606255431</v>
+        <v>1.449636481447839</v>
       </c>
       <c r="H8">
-        <v>1.000146606255431</v>
+        <v>1.449636481447839</v>
       </c>
       <c r="I8">
-        <v>1.000146606255431</v>
+        <v>1.449636481447839</v>
       </c>
       <c r="J8">
-        <v>0.9991190920980851</v>
+        <v>1.146176879462884</v>
       </c>
       <c r="K8">
-        <v>0.9958488752456628</v>
+        <v>0.2053338392415246</v>
       </c>
       <c r="L8">
-        <v>0.9958488752456628</v>
+        <v>0.2053338392415246</v>
       </c>
       <c r="M8">
-        <v>0.9985468099014432</v>
+        <v>1.11490885669172</v>
       </c>
       <c r="N8">
-        <v>1.000146606255431</v>
+        <v>1.449636481447839</v>
       </c>
       <c r="O8">
-        <v>0.9991190920980851</v>
+        <v>1.146176879462884</v>
       </c>
       <c r="P8">
-        <v>0.997483983671874</v>
+        <v>0.6757553593522042</v>
       </c>
       <c r="Q8">
-        <v>0.9992312122920715</v>
+        <v>0.9102616999273019</v>
       </c>
       <c r="R8">
-        <v>0.9983715245330597</v>
+        <v>0.9337157333840823</v>
       </c>
       <c r="S8">
-        <v>0.9981037666099352</v>
+        <v>0.6752857463653762</v>
       </c>
       <c r="T8">
-        <v>0.9983715245330597</v>
+        <v>0.9337157333840823</v>
       </c>
       <c r="U8">
-        <v>0.9986144765213092</v>
+        <v>0.8688734301359918</v>
       </c>
       <c r="V8">
-        <v>0.9989209024681337</v>
+        <v>0.9850260403983612</v>
       </c>
       <c r="W8">
-        <v>0.9992655221712439</v>
+        <v>0.9267217782594392</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9955911518579821</v>
+        <v>0.6036423348864345</v>
       </c>
       <c r="D9">
-        <v>1.004682550500775</v>
+        <v>0.8932979433899849</v>
       </c>
       <c r="E9">
-        <v>0.9993239128274384</v>
+        <v>0.6750772617076365</v>
       </c>
       <c r="F9">
-        <v>1.002078071486484</v>
+        <v>1.33047164934033</v>
       </c>
       <c r="G9">
-        <v>1.000029374116373</v>
+        <v>1.441676472653558</v>
       </c>
       <c r="H9">
-        <v>1.000029374116373</v>
+        <v>1.441676472653558</v>
       </c>
       <c r="I9">
-        <v>1.000029374116373</v>
+        <v>1.441676472653558</v>
       </c>
       <c r="J9">
-        <v>0.998490560422026</v>
+        <v>1.145344517104637</v>
       </c>
       <c r="K9">
-        <v>0.9950885905874326</v>
+        <v>0.2042280797642137</v>
       </c>
       <c r="L9">
-        <v>0.9950885905874326</v>
+        <v>0.2042280797642137</v>
       </c>
       <c r="M9">
-        <v>0.9973045130064412</v>
+        <v>1.111597454051875</v>
       </c>
       <c r="N9">
-        <v>1.000029374116373</v>
+        <v>1.441676472653558</v>
       </c>
       <c r="O9">
-        <v>0.998490560422026</v>
+        <v>1.145344517104637</v>
       </c>
       <c r="P9">
-        <v>0.9967895755047294</v>
+        <v>0.6747862984344252</v>
       </c>
       <c r="Q9">
-        <v>0.9989072366247322</v>
+        <v>0.9102108894061365</v>
       </c>
       <c r="R9">
-        <v>0.9978695083752774</v>
+        <v>0.9304163565074696</v>
       </c>
       <c r="S9">
-        <v>0.9976343546122991</v>
+        <v>0.6748832861921623</v>
       </c>
       <c r="T9">
-        <v>0.9978695083752774</v>
+        <v>0.9304163565074696</v>
       </c>
       <c r="U9">
-        <v>0.9982331094883177</v>
+        <v>0.8665815828075113</v>
       </c>
       <c r="V9">
-        <v>0.9985923624139289</v>
+        <v>0.9816005607767208</v>
       </c>
       <c r="W9">
-        <v>0.9990735906006191</v>
+        <v>0.9256669641123336</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9908596635928061</v>
+        <v>0.5944519128706423</v>
       </c>
       <c r="D10">
-        <v>1.009509173543154</v>
+        <v>0.9179594466867673</v>
       </c>
       <c r="E10">
-        <v>0.9985756407280207</v>
+        <v>0.6775100450475668</v>
       </c>
       <c r="F10">
-        <v>1.004835334776959</v>
+        <v>1.332592252209039</v>
       </c>
       <c r="G10">
-        <v>0.998925491571431</v>
+        <v>1.430030272137359</v>
       </c>
       <c r="H10">
-        <v>0.998925491571431</v>
+        <v>1.430030272137359</v>
       </c>
       <c r="I10">
-        <v>0.998925491571431</v>
+        <v>1.430030272137359</v>
       </c>
       <c r="J10">
-        <v>0.9959608235326651</v>
+        <v>1.135303908059015</v>
       </c>
       <c r="K10">
-        <v>0.9893611458068257</v>
+        <v>0.2006648859904082</v>
       </c>
       <c r="L10">
-        <v>0.9893611458068257</v>
+        <v>0.2006648859904082</v>
       </c>
       <c r="M10">
-        <v>0.9943334248431435</v>
+        <v>1.09608579395813</v>
       </c>
       <c r="N10">
-        <v>0.998925491571431</v>
+        <v>1.430030272137359</v>
       </c>
       <c r="O10">
-        <v>0.9959608235326651</v>
+        <v>1.135303908059015</v>
       </c>
       <c r="P10">
-        <v>0.9926609846697454</v>
+        <v>0.6679843970247114</v>
       </c>
       <c r="Q10">
-        <v>0.997268232130343</v>
+        <v>0.9064069765532907</v>
       </c>
       <c r="R10">
-        <v>0.9947491536369739</v>
+        <v>0.9219996887289272</v>
       </c>
       <c r="S10">
-        <v>0.9946325366891705</v>
+        <v>0.6711596130323297</v>
       </c>
       <c r="T10">
-        <v>0.9947491536369739</v>
+        <v>0.9219996887289272</v>
       </c>
       <c r="U10">
-        <v>0.9957057754097356</v>
+        <v>0.8608772778085871</v>
       </c>
       <c r="V10">
-        <v>0.9963497186420746</v>
+        <v>0.9747078766743416</v>
       </c>
       <c r="W10">
-        <v>0.9977950872993757</v>
+        <v>0.9230748146198658</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9850913296183565</v>
+        <v>0.9872895600799918</v>
       </c>
       <c r="D11">
-        <v>1.01587242702753</v>
+        <v>1.002793800868001</v>
       </c>
       <c r="E11">
-        <v>0.997061356069826</v>
+        <v>0.9914925118934795</v>
       </c>
       <c r="F11">
-        <v>1.006758502835688</v>
+        <v>1.002065120720584</v>
       </c>
       <c r="G11">
-        <v>1.002414040706886</v>
+        <v>1.029595654090568</v>
       </c>
       <c r="H11">
-        <v>1.002414040706886</v>
+        <v>1.029595654090568</v>
       </c>
       <c r="I11">
-        <v>1.002414040706886</v>
+        <v>1.029595654090568</v>
       </c>
       <c r="J11">
-        <v>0.9923039820888037</v>
+        <v>0.9898540267451656</v>
       </c>
       <c r="K11">
-        <v>0.9801532350455295</v>
+        <v>0.9683125544788916</v>
       </c>
       <c r="L11">
-        <v>0.9801532350455295</v>
+        <v>0.9683125544788916</v>
       </c>
       <c r="M11">
-        <v>0.9909757470973372</v>
+        <v>1.004991481674402</v>
       </c>
       <c r="N11">
-        <v>1.002414040706886</v>
+        <v>1.029595654090568</v>
       </c>
       <c r="O11">
-        <v>0.9923039820888037</v>
+        <v>0.9898540267451656</v>
       </c>
       <c r="P11">
-        <v>0.9862286085671665</v>
+        <v>0.9790832906120286</v>
       </c>
       <c r="Q11">
-        <v>0.9946826690793149</v>
+        <v>0.9906732693193225</v>
       </c>
       <c r="R11">
-        <v>0.9916237526137396</v>
+        <v>0.9959207451048749</v>
       </c>
       <c r="S11">
-        <v>0.9898395244013863</v>
+        <v>0.9832196977058456</v>
       </c>
       <c r="T11">
-        <v>0.9916237526137396</v>
+        <v>0.9959207451048749</v>
       </c>
       <c r="U11">
-        <v>0.9929831534777612</v>
+        <v>0.9948136868020261</v>
       </c>
       <c r="V11">
-        <v>0.9948693309235861</v>
+        <v>1.001770080259734</v>
       </c>
       <c r="W11">
-        <v>0.9963288275612446</v>
+        <v>0.9970493388188854</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.242818300640022</v>
+        <v>0.9915115455600951</v>
       </c>
       <c r="D12">
-        <v>1.086102743082858</v>
+        <v>1.001138586181411</v>
       </c>
       <c r="E12">
-        <v>1.035393312944749</v>
+        <v>0.9947037972770202</v>
       </c>
       <c r="F12">
-        <v>0.8421911193373977</v>
+        <v>1.003439854844148</v>
       </c>
       <c r="G12">
-        <v>1.11699080466401</v>
+        <v>1.009869504229545</v>
       </c>
       <c r="H12">
-        <v>1.11699080466401</v>
+        <v>1.009869504229545</v>
       </c>
       <c r="I12">
-        <v>1.11699080466401</v>
+        <v>1.009869504229545</v>
       </c>
       <c r="J12">
-        <v>0.6904590665431408</v>
+        <v>0.9978711521952265</v>
       </c>
       <c r="K12">
-        <v>1.526267584329738</v>
+        <v>0.9818881607095636</v>
       </c>
       <c r="L12">
-        <v>1.526267584329738</v>
+        <v>0.9818881607095636</v>
       </c>
       <c r="M12">
-        <v>0.8507554068194179</v>
+        <v>1.003249082516349</v>
       </c>
       <c r="N12">
-        <v>1.11699080466401</v>
+        <v>1.009869504229545</v>
       </c>
       <c r="O12">
-        <v>0.6904590665431408</v>
+        <v>0.9978711521952265</v>
       </c>
       <c r="P12">
-        <v>1.108363325436439</v>
+        <v>0.9898796564523951</v>
       </c>
       <c r="Q12">
-        <v>0.8629261897439446</v>
+        <v>0.9962874747361233</v>
       </c>
       <c r="R12">
-        <v>1.111239151845629</v>
+        <v>0.9965429390447783</v>
       </c>
       <c r="S12">
-        <v>1.084039987939209</v>
+        <v>0.9914877033939368</v>
       </c>
       <c r="T12">
-        <v>1.111239151845629</v>
+        <v>0.9965429390447785</v>
       </c>
       <c r="U12">
-        <v>1.092277692120409</v>
+        <v>0.9960831536028389</v>
       </c>
       <c r="V12">
-        <v>1.09722031462913</v>
+        <v>0.9988404237281803</v>
       </c>
       <c r="W12">
-        <v>1.048872292295167</v>
+        <v>0.9979589604391698</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.010484817529409</v>
+        <v>0.9677939400304204</v>
       </c>
       <c r="D13">
-        <v>0.8480083243235578</v>
+        <v>1.005185604512066</v>
       </c>
       <c r="E13">
-        <v>1.010380707912029</v>
+        <v>0.9805194576671927</v>
       </c>
       <c r="F13">
-        <v>0.9351409646023666</v>
+        <v>1.016109978969217</v>
       </c>
       <c r="G13">
-        <v>1.003569769547607</v>
+        <v>1.029035468482866</v>
       </c>
       <c r="H13">
-        <v>1.003569769547607</v>
+        <v>1.029035468482866</v>
       </c>
       <c r="I13">
-        <v>1.003569769547607</v>
+        <v>1.029035468482866</v>
       </c>
       <c r="J13">
-        <v>1.053270246613401</v>
+        <v>0.9941806768594</v>
       </c>
       <c r="K13">
-        <v>0.8074113510347647</v>
+        <v>0.9353406268854959</v>
       </c>
       <c r="L13">
-        <v>0.8074113510347647</v>
+        <v>0.9353406268854959</v>
       </c>
       <c r="M13">
-        <v>1.217295016323791</v>
+        <v>1.010642912964703</v>
       </c>
       <c r="N13">
-        <v>1.003569769547607</v>
+        <v>1.029035468482866</v>
       </c>
       <c r="O13">
-        <v>1.053270246613401</v>
+        <v>0.9941806768594</v>
       </c>
       <c r="P13">
-        <v>0.9303407988240829</v>
+        <v>0.964760651872448</v>
       </c>
       <c r="Q13">
-        <v>1.031825477262715</v>
+        <v>0.9873500672632964</v>
       </c>
       <c r="R13">
-        <v>0.9547504557319243</v>
+        <v>0.9861855907425875</v>
       </c>
       <c r="S13">
-        <v>0.9570207685200649</v>
+        <v>0.9700135871373629</v>
       </c>
       <c r="T13">
-        <v>0.9547504557319243</v>
+        <v>0.9861855907425875</v>
       </c>
       <c r="U13">
-        <v>0.9686580187769505</v>
+        <v>0.9847690574737388</v>
       </c>
       <c r="V13">
-        <v>0.9756403689310819</v>
+        <v>0.9936223396755643</v>
       </c>
       <c r="W13">
-        <v>0.9856951497358659</v>
+        <v>0.9923510832964202</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.7630427675592577</v>
+        <v>0.9661966935495139</v>
       </c>
       <c r="D14">
-        <v>0.683104443778473</v>
+        <v>1.008979439922921</v>
       </c>
       <c r="E14">
-        <v>0.9464104146673036</v>
+        <v>0.9793683479042541</v>
       </c>
       <c r="F14">
-        <v>1.289716805531327</v>
+        <v>1.009875040191817</v>
       </c>
       <c r="G14">
-        <v>0.09994839146864848</v>
+        <v>1.054297518267938</v>
       </c>
       <c r="H14">
-        <v>0.09994839146864848</v>
+        <v>1.054297518267938</v>
       </c>
       <c r="I14">
-        <v>0.09994839146864848</v>
+        <v>1.054297518267938</v>
       </c>
       <c r="J14">
-        <v>1.976323055206932</v>
+        <v>0.9763413814423499</v>
       </c>
       <c r="K14">
-        <v>0.244327500059894</v>
+        <v>0.923617560871428</v>
       </c>
       <c r="L14">
-        <v>0.244327500059894</v>
+        <v>0.923617560871428</v>
       </c>
       <c r="M14">
-        <v>1.407947286107057</v>
+        <v>1.01357694642106</v>
       </c>
       <c r="N14">
-        <v>0.09994839146864848</v>
+        <v>1.054297518267938</v>
       </c>
       <c r="O14">
-        <v>1.976323055206932</v>
+        <v>0.9763413814423499</v>
       </c>
       <c r="P14">
-        <v>1.110325277633413</v>
+        <v>0.949979471156889</v>
       </c>
       <c r="Q14">
-        <v>1.461366734937118</v>
+        <v>0.9778548646733021</v>
       </c>
       <c r="R14">
-        <v>0.7735329822451581</v>
+        <v>0.9847521535272387</v>
       </c>
       <c r="S14">
-        <v>1.055686989978043</v>
+        <v>0.9597757634060106</v>
       </c>
       <c r="T14">
-        <v>0.7735329822451581</v>
+        <v>0.9847521535272387</v>
       </c>
       <c r="U14">
-        <v>0.8167523403506944</v>
+        <v>0.9834062021214924</v>
       </c>
       <c r="V14">
-        <v>0.6733915505742852</v>
+        <v>0.9975844653507815</v>
       </c>
       <c r="W14">
-        <v>0.9263525830473616</v>
+        <v>0.9915316160714103</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.126208870142665</v>
+        <v>0.9878035448605915</v>
       </c>
       <c r="D15">
-        <v>1.199641628230355</v>
+        <v>1.001958245795573</v>
       </c>
       <c r="E15">
-        <v>1.059127154540698</v>
+        <v>0.9919204901982271</v>
       </c>
       <c r="F15">
-        <v>0.9653365473281356</v>
+        <v>1.001770504484922</v>
       </c>
       <c r="G15">
-        <v>1.154819413131847</v>
+        <v>1.020481371255482</v>
       </c>
       <c r="H15">
-        <v>1.154819413131847</v>
+        <v>1.020481371255482</v>
       </c>
       <c r="I15">
-        <v>1.154819413131847</v>
+        <v>1.020481371255482</v>
       </c>
       <c r="J15">
-        <v>0.6158226443872522</v>
+        <v>0.991255536480642</v>
       </c>
       <c r="K15">
-        <v>1.487078587347189</v>
+        <v>0.9706869353493264</v>
       </c>
       <c r="L15">
-        <v>1.487078587347189</v>
+        <v>0.9706869353493264</v>
       </c>
       <c r="M15">
-        <v>0.6774639121706539</v>
+        <v>1.006667279864835</v>
       </c>
       <c r="N15">
-        <v>1.154819413131847</v>
+        <v>1.020481371255482</v>
       </c>
       <c r="O15">
-        <v>0.6158226443872522</v>
+        <v>0.991255536480642</v>
       </c>
       <c r="P15">
-        <v>1.051450615867221</v>
+        <v>0.9809712359149843</v>
       </c>
       <c r="Q15">
-        <v>0.8374748994639749</v>
+        <v>0.9915880133394346</v>
       </c>
       <c r="R15">
-        <v>1.085906881622096</v>
+        <v>0.9941412810284834</v>
       </c>
       <c r="S15">
-        <v>1.054009462091713</v>
+        <v>0.984620987342732</v>
       </c>
       <c r="T15">
-        <v>1.085906881622096</v>
+        <v>0.9941412810284834</v>
       </c>
       <c r="U15">
-        <v>1.079211949851747</v>
+        <v>0.9935860833209194</v>
       </c>
       <c r="V15">
-        <v>1.094333442507767</v>
+        <v>0.9989651409078318</v>
       </c>
       <c r="W15">
-        <v>1.035687344659849</v>
+        <v>0.9965679885361999</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.7688534204060185</v>
+        <v>0.9762117737015955</v>
       </c>
       <c r="D16">
-        <v>1.060876706103352</v>
+        <v>1.004086679286821</v>
       </c>
       <c r="E16">
-        <v>0.8679283559147891</v>
+        <v>0.9852569518642905</v>
       </c>
       <c r="F16">
-        <v>1.045064971380019</v>
+        <v>1.004304202202002</v>
       </c>
       <c r="G16">
-        <v>1.379060273475447</v>
+        <v>1.039481712045323</v>
       </c>
       <c r="H16">
-        <v>1.379060273475447</v>
+        <v>1.039481712045323</v>
       </c>
       <c r="I16">
-        <v>1.379060273475447</v>
+        <v>1.039481712045323</v>
       </c>
       <c r="J16">
-        <v>0.8725296461500199</v>
+        <v>0.9835731654808404</v>
       </c>
       <c r="K16">
-        <v>0.4697179898472294</v>
+        <v>0.9459411958895237</v>
       </c>
       <c r="L16">
-        <v>0.4697179898472294</v>
+        <v>0.9459411958895237</v>
       </c>
       <c r="M16">
-        <v>1.088090306317381</v>
+        <v>1.012129349894452</v>
       </c>
       <c r="N16">
-        <v>1.379060273475447</v>
+        <v>1.039481712045323</v>
       </c>
       <c r="O16">
-        <v>0.8725296461500199</v>
+        <v>0.9835731654808404</v>
       </c>
       <c r="P16">
-        <v>0.6711238179986246</v>
+        <v>0.964757180685182</v>
       </c>
       <c r="Q16">
-        <v>0.8702290010324045</v>
+        <v>0.9844150586725655</v>
       </c>
       <c r="R16">
-        <v>0.9071026364908988</v>
+        <v>0.9896653578052289</v>
       </c>
       <c r="S16">
-        <v>0.7367253306373461</v>
+        <v>0.9715904377448848</v>
       </c>
       <c r="T16">
-        <v>0.9071026364908988</v>
+        <v>0.9896653578052289</v>
       </c>
       <c r="U16">
-        <v>0.8973090663468715</v>
+        <v>0.9885632563199943</v>
       </c>
       <c r="V16">
-        <v>0.9936593077725867</v>
+        <v>0.9987469474650599</v>
       </c>
       <c r="W16">
-        <v>0.944015208699282</v>
+        <v>0.993873128795606</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.80830631434609</v>
+        <v>0.9568517604856231</v>
       </c>
       <c r="D17">
-        <v>1.064087394845117</v>
+        <v>1.011829343864778</v>
       </c>
       <c r="E17">
-        <v>0.9054251794984125</v>
+        <v>0.9676767214019562</v>
       </c>
       <c r="F17">
-        <v>1.053988966034557</v>
+        <v>1.010629090303007</v>
       </c>
       <c r="G17">
-        <v>1.254913292999348</v>
+        <v>1.085276925172486</v>
       </c>
       <c r="H17">
-        <v>1.254913292999348</v>
+        <v>1.085276925172486</v>
       </c>
       <c r="I17">
-        <v>1.254913292999348</v>
+        <v>1.085276925172486</v>
       </c>
       <c r="J17">
-        <v>0.9158683622681849</v>
+        <v>0.9609525071649287</v>
       </c>
       <c r="K17">
-        <v>0.5932617517690402</v>
+        <v>0.8946516282389418</v>
       </c>
       <c r="L17">
-        <v>0.5932617517690402</v>
+        <v>0.8946516282389418</v>
       </c>
       <c r="M17">
-        <v>1.044291749521878</v>
+        <v>1.023510537357923</v>
       </c>
       <c r="N17">
-        <v>1.254913292999348</v>
+        <v>1.085276925172486</v>
       </c>
       <c r="O17">
-        <v>0.9158683622681849</v>
+        <v>0.9609525071649287</v>
       </c>
       <c r="P17">
-        <v>0.7545650570186125</v>
+        <v>0.9278020677019353</v>
       </c>
       <c r="Q17">
-        <v>0.9106467708832987</v>
+        <v>0.9643146142834425</v>
       </c>
       <c r="R17">
-        <v>0.9213478023455243</v>
+        <v>0.9802936868587856</v>
       </c>
       <c r="S17">
-        <v>0.8048517645118792</v>
+        <v>0.9410936189352755</v>
       </c>
       <c r="T17">
-        <v>0.9213478023455243</v>
+        <v>0.9802936868587856</v>
       </c>
       <c r="U17">
-        <v>0.9173671466337463</v>
+        <v>0.9771394454945783</v>
       </c>
       <c r="V17">
-        <v>0.9848763759068666</v>
+        <v>0.99876694143016</v>
       </c>
       <c r="W17">
-        <v>0.9550178764103284</v>
+        <v>0.9889223142487054</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8874801000617758</v>
+        <v>0.9316966986679429</v>
       </c>
       <c r="D18">
-        <v>1.070661171504165</v>
+        <v>0.9995986271332172</v>
       </c>
       <c r="E18">
-        <v>0.9802203103668924</v>
+        <v>0.9341534426428333</v>
       </c>
       <c r="F18">
-        <v>1.071004878792491</v>
+        <v>1.01534499189854</v>
       </c>
       <c r="G18">
-        <v>1.008827172944511</v>
+        <v>1.119204081327401</v>
       </c>
       <c r="H18">
-        <v>1.008827172944511</v>
+        <v>1.119204081327401</v>
       </c>
       <c r="I18">
-        <v>1.008827172944511</v>
+        <v>1.119204081327401</v>
       </c>
       <c r="J18">
-        <v>1.002275536094071</v>
+        <v>0.9232522349261728</v>
       </c>
       <c r="K18">
-        <v>0.8401318503350216</v>
+        <v>0.8226523040099086</v>
       </c>
       <c r="L18">
-        <v>0.8401318503350216</v>
+        <v>0.8226523040099086</v>
       </c>
       <c r="M18">
-        <v>0.9570984763094539</v>
+        <v>1.047519252819834</v>
       </c>
       <c r="N18">
-        <v>1.008827172944511</v>
+        <v>1.119204081327401</v>
       </c>
       <c r="O18">
-        <v>1.002275536094071</v>
+        <v>0.9232522349261728</v>
       </c>
       <c r="P18">
-        <v>0.9212036932145464</v>
+        <v>0.8729522694680407</v>
       </c>
       <c r="Q18">
-        <v>0.9912479232304818</v>
+        <v>0.9287028387845031</v>
       </c>
       <c r="R18">
-        <v>0.9504115197912014</v>
+        <v>0.9550362067544942</v>
       </c>
       <c r="S18">
-        <v>0.9408758989319951</v>
+        <v>0.8933526605263049</v>
       </c>
       <c r="T18">
-        <v>0.9504115197912014</v>
+        <v>0.9550362067544942</v>
       </c>
       <c r="U18">
-        <v>0.9578637174351241</v>
+        <v>0.949815515726579</v>
       </c>
       <c r="V18">
-        <v>0.9680564085370016</v>
+        <v>0.9836932288467434</v>
       </c>
       <c r="W18">
-        <v>0.9772124370510478</v>
+        <v>0.9741777041782312</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8703477159863489</v>
+        <v>0.9988593874806513</v>
       </c>
       <c r="D19">
-        <v>1.082996063748899</v>
+        <v>1.001037727721596</v>
       </c>
       <c r="E19">
-        <v>0.9886709233068063</v>
+        <v>0.9998273519485337</v>
       </c>
       <c r="F19">
-        <v>1.075684623064066</v>
+        <v>1.000605996354655</v>
       </c>
       <c r="G19">
-        <v>0.9791711687009572</v>
+        <v>0.999607173192205</v>
       </c>
       <c r="H19">
-        <v>0.9791711687009572</v>
+        <v>0.999607173192205</v>
       </c>
       <c r="I19">
-        <v>0.9791711687009572</v>
+        <v>0.999607173192205</v>
       </c>
       <c r="J19">
-        <v>0.9922729712615428</v>
+        <v>0.9994586936355389</v>
       </c>
       <c r="K19">
-        <v>0.8014692232269311</v>
+        <v>0.9989176873743071</v>
       </c>
       <c r="L19">
-        <v>0.8014692232269311</v>
+        <v>0.9989176873743071</v>
       </c>
       <c r="M19">
-        <v>0.9633693131619252</v>
+        <v>0.9993668025214661</v>
       </c>
       <c r="N19">
-        <v>0.9791711687009572</v>
+        <v>0.999607173192205</v>
       </c>
       <c r="O19">
-        <v>0.9922729712615428</v>
+        <v>0.9994586936355389</v>
       </c>
       <c r="P19">
-        <v>0.896871097244237</v>
+        <v>0.9991881905049229</v>
       </c>
       <c r="Q19">
-        <v>0.9904719472841745</v>
+        <v>0.9996430227920363</v>
       </c>
       <c r="R19">
-        <v>0.9243044543964771</v>
+        <v>0.9993278514006837</v>
       </c>
       <c r="S19">
-        <v>0.9274710392650934</v>
+        <v>0.9994012443194599</v>
       </c>
       <c r="T19">
-        <v>0.9243044543964771</v>
+        <v>0.9993278514006837</v>
       </c>
       <c r="U19">
-        <v>0.9403960716240594</v>
+        <v>0.9994527265376462</v>
       </c>
       <c r="V19">
-        <v>0.948151091039439</v>
+        <v>0.9994836158685579</v>
       </c>
       <c r="W19">
-        <v>0.9692477503071846</v>
+        <v>0.999710102528619</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000884268736871</v>
+        <v>0.9970346581216269</v>
       </c>
       <c r="D20">
-        <v>1.000210237578318</v>
+        <v>1.002601104782952</v>
       </c>
       <c r="E20">
-        <v>0.9994224461877745</v>
+        <v>0.9993433324860577</v>
       </c>
       <c r="F20">
-        <v>1.001990753279146</v>
+        <v>1.001483698478692</v>
       </c>
       <c r="G20">
-        <v>0.9992588261041188</v>
+        <v>1.000146606255431</v>
       </c>
       <c r="H20">
-        <v>0.9992588261041188</v>
+        <v>1.000146606255431</v>
       </c>
       <c r="I20">
-        <v>0.9992588261041188</v>
+        <v>1.000146606255431</v>
       </c>
       <c r="J20">
-        <v>0.9981353631734204</v>
+        <v>0.9991190920980851</v>
       </c>
       <c r="K20">
-        <v>1.002198325930833</v>
+        <v>0.9958488752456628</v>
       </c>
       <c r="L20">
-        <v>1.002198325930833</v>
+        <v>0.9958488752456628</v>
       </c>
       <c r="M20">
-        <v>0.9975379354828979</v>
+        <v>0.9985468099014432</v>
       </c>
       <c r="N20">
-        <v>0.9992588261041188</v>
+        <v>1.000146606255431</v>
       </c>
       <c r="O20">
-        <v>0.9981353631734204</v>
+        <v>0.9991190920980851</v>
       </c>
       <c r="P20">
-        <v>1.000166844552127</v>
+        <v>0.997483983671874</v>
       </c>
       <c r="Q20">
-        <v>0.9987789046805975</v>
+        <v>0.9992312122920715</v>
       </c>
       <c r="R20">
-        <v>0.999864171736124</v>
+        <v>0.9983715245330597</v>
       </c>
       <c r="S20">
-        <v>0.9999187117640093</v>
+        <v>0.9981037666099352</v>
       </c>
       <c r="T20">
-        <v>0.999864171736124</v>
+        <v>0.9983715245330597</v>
       </c>
       <c r="U20">
-        <v>0.9997537403490366</v>
+        <v>0.9986144765213092</v>
       </c>
       <c r="V20">
-        <v>0.9996547575000531</v>
+        <v>0.9989209024681337</v>
       </c>
       <c r="W20">
-        <v>0.9999547695591724</v>
+        <v>0.9992655221712439</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9965388071352881</v>
+        <v>0.9955911518579821</v>
       </c>
       <c r="D21">
-        <v>1.001487231456273</v>
+        <v>1.004682550500775</v>
       </c>
       <c r="E21">
-        <v>1.000946005549058</v>
+        <v>0.9993239128274384</v>
       </c>
       <c r="F21">
-        <v>0.9976659926894591</v>
+        <v>1.002078071486484</v>
       </c>
       <c r="G21">
-        <v>1.000253679510076</v>
+        <v>1.000029374116373</v>
       </c>
       <c r="H21">
-        <v>1.000253679510076</v>
+        <v>1.000029374116373</v>
       </c>
       <c r="I21">
-        <v>1.000253679510076</v>
+        <v>1.000029374116373</v>
       </c>
       <c r="J21">
-        <v>1.001837648753831</v>
+        <v>0.998490560422026</v>
       </c>
       <c r="K21">
-        <v>0.9992657272407295</v>
+        <v>0.9950885905874326</v>
       </c>
       <c r="L21">
-        <v>0.9992657272407295</v>
+        <v>0.9950885905874326</v>
       </c>
       <c r="M21">
-        <v>1.003217031350375</v>
+        <v>0.9973045130064412</v>
       </c>
       <c r="N21">
-        <v>1.000253679510076</v>
+        <v>1.000029374116373</v>
       </c>
       <c r="O21">
-        <v>1.001837648753831</v>
+        <v>0.998490560422026</v>
       </c>
       <c r="P21">
-        <v>1.00055168799728</v>
+        <v>0.9967895755047294</v>
       </c>
       <c r="Q21">
-        <v>1.001391827151445</v>
+        <v>0.9989072366247322</v>
       </c>
       <c r="R21">
-        <v>1.000452351834879</v>
+        <v>0.9978695083752774</v>
       </c>
       <c r="S21">
-        <v>1.000683127181206</v>
+        <v>0.9976343546122991</v>
       </c>
       <c r="T21">
-        <v>1.000452351834879</v>
+        <v>0.9978695083752774</v>
       </c>
       <c r="U21">
-        <v>1.000575765263424</v>
+        <v>0.9982331094883177</v>
       </c>
       <c r="V21">
-        <v>1.000511348112754</v>
+        <v>0.9985923624139289</v>
       </c>
       <c r="W21">
-        <v>1.000151515460636</v>
+        <v>0.9990735906006191</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000090008602676</v>
+        <v>0.9908596635928061</v>
       </c>
       <c r="D22">
-        <v>1.001104863965695</v>
+        <v>1.009509173543154</v>
       </c>
       <c r="E22">
-        <v>0.99269072650266</v>
+        <v>0.9985756407280207</v>
       </c>
       <c r="F22">
-        <v>1.011728947147985</v>
+        <v>1.004835334776959</v>
       </c>
       <c r="G22">
-        <v>0.9990847043601557</v>
+        <v>0.998925491571431</v>
       </c>
       <c r="H22">
-        <v>0.9990847043601557</v>
+        <v>0.998925491571431</v>
       </c>
       <c r="I22">
-        <v>0.9990847043601557</v>
+        <v>0.998925491571431</v>
       </c>
       <c r="J22">
-        <v>0.9847741267352749</v>
+        <v>0.9959608235326651</v>
       </c>
       <c r="K22">
-        <v>0.9967843329357241</v>
+        <v>0.9893611458068257</v>
       </c>
       <c r="L22">
-        <v>0.9967843329357241</v>
+        <v>0.9893611458068257</v>
       </c>
       <c r="M22">
-        <v>0.9992120641584722</v>
+        <v>0.9943334248431435</v>
       </c>
       <c r="N22">
-        <v>0.9990847043601557</v>
+        <v>0.998925491571431</v>
       </c>
       <c r="O22">
-        <v>0.9847741267352749</v>
+        <v>0.9959608235326651</v>
       </c>
       <c r="P22">
-        <v>0.9907792298354995</v>
+        <v>0.9926609846697454</v>
       </c>
       <c r="Q22">
-        <v>0.9887324266189674</v>
+        <v>0.997268232130343</v>
       </c>
       <c r="R22">
-        <v>0.9935477213437182</v>
+        <v>0.9947491536369739</v>
       </c>
       <c r="S22">
-        <v>0.9914163953912197</v>
+        <v>0.9946325366891705</v>
       </c>
       <c r="T22">
-        <v>0.9935477213437182</v>
+        <v>0.9947491536369739</v>
       </c>
       <c r="U22">
-        <v>0.9933334726334536</v>
+        <v>0.9957057754097356</v>
       </c>
       <c r="V22">
-        <v>0.994483718978794</v>
+        <v>0.9963497186420746</v>
       </c>
       <c r="W22">
-        <v>0.9981837218010804</v>
+        <v>0.9977950872993757</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9850913296183565</v>
+      </c>
+      <c r="D23">
+        <v>1.01587242702753</v>
+      </c>
+      <c r="E23">
+        <v>0.997061356069826</v>
+      </c>
+      <c r="F23">
+        <v>1.006758502835688</v>
+      </c>
+      <c r="G23">
+        <v>1.002414040706886</v>
+      </c>
+      <c r="H23">
+        <v>1.002414040706886</v>
+      </c>
+      <c r="I23">
+        <v>1.002414040706886</v>
+      </c>
+      <c r="J23">
+        <v>0.9923039820888037</v>
+      </c>
+      <c r="K23">
+        <v>0.9801532350455295</v>
+      </c>
+      <c r="L23">
+        <v>0.9801532350455295</v>
+      </c>
+      <c r="M23">
+        <v>0.9909757470973372</v>
+      </c>
+      <c r="N23">
+        <v>1.002414040706886</v>
+      </c>
+      <c r="O23">
+        <v>0.9923039820888037</v>
+      </c>
+      <c r="P23">
+        <v>0.9862286085671665</v>
+      </c>
+      <c r="Q23">
+        <v>0.9946826690793149</v>
+      </c>
+      <c r="R23">
+        <v>0.9916237526137396</v>
+      </c>
+      <c r="S23">
+        <v>0.9898395244013863</v>
+      </c>
+      <c r="T23">
+        <v>0.9916237526137396</v>
+      </c>
+      <c r="U23">
+        <v>0.9929831534777612</v>
+      </c>
+      <c r="V23">
+        <v>0.9948693309235861</v>
+      </c>
+      <c r="W23">
+        <v>0.9963288275612446</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.242818300640022</v>
+      </c>
+      <c r="D24">
+        <v>1.086102743082858</v>
+      </c>
+      <c r="E24">
+        <v>1.035393312944749</v>
+      </c>
+      <c r="F24">
+        <v>0.8421911193373977</v>
+      </c>
+      <c r="G24">
+        <v>1.11699080466401</v>
+      </c>
+      <c r="H24">
+        <v>1.11699080466401</v>
+      </c>
+      <c r="I24">
+        <v>1.11699080466401</v>
+      </c>
+      <c r="J24">
+        <v>0.6904590665431408</v>
+      </c>
+      <c r="K24">
+        <v>1.526267584329738</v>
+      </c>
+      <c r="L24">
+        <v>1.526267584329738</v>
+      </c>
+      <c r="M24">
+        <v>0.8507554068194179</v>
+      </c>
+      <c r="N24">
+        <v>1.11699080466401</v>
+      </c>
+      <c r="O24">
+        <v>0.6904590665431408</v>
+      </c>
+      <c r="P24">
+        <v>1.108363325436439</v>
+      </c>
+      <c r="Q24">
+        <v>0.8629261897439446</v>
+      </c>
+      <c r="R24">
+        <v>1.111239151845629</v>
+      </c>
+      <c r="S24">
+        <v>1.084039987939209</v>
+      </c>
+      <c r="T24">
+        <v>1.111239151845629</v>
+      </c>
+      <c r="U24">
+        <v>1.092277692120409</v>
+      </c>
+      <c r="V24">
+        <v>1.09722031462913</v>
+      </c>
+      <c r="W24">
+        <v>1.048872292295167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.010484817529409</v>
+      </c>
+      <c r="D25">
+        <v>0.8480083243235578</v>
+      </c>
+      <c r="E25">
+        <v>1.010380707912029</v>
+      </c>
+      <c r="F25">
+        <v>0.9351409646023666</v>
+      </c>
+      <c r="G25">
+        <v>1.003569769547607</v>
+      </c>
+      <c r="H25">
+        <v>1.003569769547607</v>
+      </c>
+      <c r="I25">
+        <v>1.003569769547607</v>
+      </c>
+      <c r="J25">
+        <v>1.053270246613401</v>
+      </c>
+      <c r="K25">
+        <v>0.8074113510347647</v>
+      </c>
+      <c r="L25">
+        <v>0.8074113510347647</v>
+      </c>
+      <c r="M25">
+        <v>1.217295016323791</v>
+      </c>
+      <c r="N25">
+        <v>1.003569769547607</v>
+      </c>
+      <c r="O25">
+        <v>1.053270246613401</v>
+      </c>
+      <c r="P25">
+        <v>0.9303407988240829</v>
+      </c>
+      <c r="Q25">
+        <v>1.031825477262715</v>
+      </c>
+      <c r="R25">
+        <v>0.9547504557319243</v>
+      </c>
+      <c r="S25">
+        <v>0.9570207685200649</v>
+      </c>
+      <c r="T25">
+        <v>0.9547504557319243</v>
+      </c>
+      <c r="U25">
+        <v>0.9686580187769505</v>
+      </c>
+      <c r="V25">
+        <v>0.9756403689310819</v>
+      </c>
+      <c r="W25">
+        <v>0.9856951497358659</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.7630427675592577</v>
+      </c>
+      <c r="D26">
+        <v>0.683104443778473</v>
+      </c>
+      <c r="E26">
+        <v>0.9464104146673036</v>
+      </c>
+      <c r="F26">
+        <v>1.289716805531327</v>
+      </c>
+      <c r="G26">
+        <v>0.09994839146864848</v>
+      </c>
+      <c r="H26">
+        <v>0.09994839146864848</v>
+      </c>
+      <c r="I26">
+        <v>0.09994839146864848</v>
+      </c>
+      <c r="J26">
+        <v>1.976323055206932</v>
+      </c>
+      <c r="K26">
+        <v>0.244327500059894</v>
+      </c>
+      <c r="L26">
+        <v>0.244327500059894</v>
+      </c>
+      <c r="M26">
+        <v>1.407947286107057</v>
+      </c>
+      <c r="N26">
+        <v>0.09994839146864848</v>
+      </c>
+      <c r="O26">
+        <v>1.976323055206932</v>
+      </c>
+      <c r="P26">
+        <v>1.110325277633413</v>
+      </c>
+      <c r="Q26">
+        <v>1.461366734937118</v>
+      </c>
+      <c r="R26">
+        <v>0.7735329822451581</v>
+      </c>
+      <c r="S26">
+        <v>1.055686989978043</v>
+      </c>
+      <c r="T26">
+        <v>0.7735329822451581</v>
+      </c>
+      <c r="U26">
+        <v>0.8167523403506944</v>
+      </c>
+      <c r="V26">
+        <v>0.6733915505742852</v>
+      </c>
+      <c r="W26">
+        <v>0.9263525830473616</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.126208870142665</v>
+      </c>
+      <c r="D27">
+        <v>1.199641628230355</v>
+      </c>
+      <c r="E27">
+        <v>1.059127154540698</v>
+      </c>
+      <c r="F27">
+        <v>0.9653365473281356</v>
+      </c>
+      <c r="G27">
+        <v>1.154819413131847</v>
+      </c>
+      <c r="H27">
+        <v>1.154819413131847</v>
+      </c>
+      <c r="I27">
+        <v>1.154819413131847</v>
+      </c>
+      <c r="J27">
+        <v>0.6158226443872522</v>
+      </c>
+      <c r="K27">
+        <v>1.487078587347189</v>
+      </c>
+      <c r="L27">
+        <v>1.487078587347189</v>
+      </c>
+      <c r="M27">
+        <v>0.6774639121706539</v>
+      </c>
+      <c r="N27">
+        <v>1.154819413131847</v>
+      </c>
+      <c r="O27">
+        <v>0.6158226443872522</v>
+      </c>
+      <c r="P27">
+        <v>1.051450615867221</v>
+      </c>
+      <c r="Q27">
+        <v>0.8374748994639749</v>
+      </c>
+      <c r="R27">
+        <v>1.085906881622096</v>
+      </c>
+      <c r="S27">
+        <v>1.054009462091713</v>
+      </c>
+      <c r="T27">
+        <v>1.085906881622096</v>
+      </c>
+      <c r="U27">
+        <v>1.079211949851747</v>
+      </c>
+      <c r="V27">
+        <v>1.094333442507767</v>
+      </c>
+      <c r="W27">
+        <v>1.035687344659849</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.7688534204060185</v>
+      </c>
+      <c r="D28">
+        <v>1.060876706103352</v>
+      </c>
+      <c r="E28">
+        <v>0.8679283559147891</v>
+      </c>
+      <c r="F28">
+        <v>1.045064971380019</v>
+      </c>
+      <c r="G28">
+        <v>1.379060273475447</v>
+      </c>
+      <c r="H28">
+        <v>1.379060273475447</v>
+      </c>
+      <c r="I28">
+        <v>1.379060273475447</v>
+      </c>
+      <c r="J28">
+        <v>0.8725296461500199</v>
+      </c>
+      <c r="K28">
+        <v>0.4697179898472294</v>
+      </c>
+      <c r="L28">
+        <v>0.4697179898472294</v>
+      </c>
+      <c r="M28">
+        <v>1.088090306317381</v>
+      </c>
+      <c r="N28">
+        <v>1.379060273475447</v>
+      </c>
+      <c r="O28">
+        <v>0.8725296461500199</v>
+      </c>
+      <c r="P28">
+        <v>0.6711238179986246</v>
+      </c>
+      <c r="Q28">
+        <v>0.8702290010324045</v>
+      </c>
+      <c r="R28">
+        <v>0.9071026364908988</v>
+      </c>
+      <c r="S28">
+        <v>0.7367253306373461</v>
+      </c>
+      <c r="T28">
+        <v>0.9071026364908988</v>
+      </c>
+      <c r="U28">
+        <v>0.8973090663468715</v>
+      </c>
+      <c r="V28">
+        <v>0.9936593077725867</v>
+      </c>
+      <c r="W28">
+        <v>0.944015208699282</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.80830631434609</v>
+      </c>
+      <c r="D29">
+        <v>1.064087394845117</v>
+      </c>
+      <c r="E29">
+        <v>0.9054251794984125</v>
+      </c>
+      <c r="F29">
+        <v>1.053988966034557</v>
+      </c>
+      <c r="G29">
+        <v>1.254913292999348</v>
+      </c>
+      <c r="H29">
+        <v>1.254913292999348</v>
+      </c>
+      <c r="I29">
+        <v>1.254913292999348</v>
+      </c>
+      <c r="J29">
+        <v>0.9158683622681849</v>
+      </c>
+      <c r="K29">
+        <v>0.5932617517690402</v>
+      </c>
+      <c r="L29">
+        <v>0.5932617517690402</v>
+      </c>
+      <c r="M29">
+        <v>1.044291749521878</v>
+      </c>
+      <c r="N29">
+        <v>1.254913292999348</v>
+      </c>
+      <c r="O29">
+        <v>0.9158683622681849</v>
+      </c>
+      <c r="P29">
+        <v>0.7545650570186125</v>
+      </c>
+      <c r="Q29">
+        <v>0.9106467708832987</v>
+      </c>
+      <c r="R29">
+        <v>0.9213478023455243</v>
+      </c>
+      <c r="S29">
+        <v>0.8048517645118792</v>
+      </c>
+      <c r="T29">
+        <v>0.9213478023455243</v>
+      </c>
+      <c r="U29">
+        <v>0.9173671466337463</v>
+      </c>
+      <c r="V29">
+        <v>0.9848763759068666</v>
+      </c>
+      <c r="W29">
+        <v>0.9550178764103284</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.8874801000617758</v>
+      </c>
+      <c r="D30">
+        <v>1.070661171504165</v>
+      </c>
+      <c r="E30">
+        <v>0.9802203103668924</v>
+      </c>
+      <c r="F30">
+        <v>1.071004878792491</v>
+      </c>
+      <c r="G30">
+        <v>1.008827172944511</v>
+      </c>
+      <c r="H30">
+        <v>1.008827172944511</v>
+      </c>
+      <c r="I30">
+        <v>1.008827172944511</v>
+      </c>
+      <c r="J30">
+        <v>1.002275536094071</v>
+      </c>
+      <c r="K30">
+        <v>0.8401318503350216</v>
+      </c>
+      <c r="L30">
+        <v>0.8401318503350216</v>
+      </c>
+      <c r="M30">
+        <v>0.9570984763094539</v>
+      </c>
+      <c r="N30">
+        <v>1.008827172944511</v>
+      </c>
+      <c r="O30">
+        <v>1.002275536094071</v>
+      </c>
+      <c r="P30">
+        <v>0.9212036932145464</v>
+      </c>
+      <c r="Q30">
+        <v>0.9912479232304818</v>
+      </c>
+      <c r="R30">
+        <v>0.9504115197912014</v>
+      </c>
+      <c r="S30">
+        <v>0.9408758989319951</v>
+      </c>
+      <c r="T30">
+        <v>0.9504115197912014</v>
+      </c>
+      <c r="U30">
+        <v>0.9578637174351241</v>
+      </c>
+      <c r="V30">
+        <v>0.9680564085370016</v>
+      </c>
+      <c r="W30">
+        <v>0.9772124370510478</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.8703477159863489</v>
+      </c>
+      <c r="D31">
+        <v>1.082996063748899</v>
+      </c>
+      <c r="E31">
+        <v>0.9886709233068063</v>
+      </c>
+      <c r="F31">
+        <v>1.075684623064066</v>
+      </c>
+      <c r="G31">
+        <v>0.9791711687009572</v>
+      </c>
+      <c r="H31">
+        <v>0.9791711687009572</v>
+      </c>
+      <c r="I31">
+        <v>0.9791711687009572</v>
+      </c>
+      <c r="J31">
+        <v>0.9922729712615428</v>
+      </c>
+      <c r="K31">
+        <v>0.8014692232269311</v>
+      </c>
+      <c r="L31">
+        <v>0.8014692232269311</v>
+      </c>
+      <c r="M31">
+        <v>0.9633693131619252</v>
+      </c>
+      <c r="N31">
+        <v>0.9791711687009572</v>
+      </c>
+      <c r="O31">
+        <v>0.9922729712615428</v>
+      </c>
+      <c r="P31">
+        <v>0.896871097244237</v>
+      </c>
+      <c r="Q31">
+        <v>0.9904719472841745</v>
+      </c>
+      <c r="R31">
+        <v>0.9243044543964771</v>
+      </c>
+      <c r="S31">
+        <v>0.9274710392650934</v>
+      </c>
+      <c r="T31">
+        <v>0.9243044543964771</v>
+      </c>
+      <c r="U31">
+        <v>0.9403960716240594</v>
+      </c>
+      <c r="V31">
+        <v>0.948151091039439</v>
+      </c>
+      <c r="W31">
+        <v>0.9692477503071846</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.7196994528904109</v>
+      </c>
+      <c r="D32">
+        <v>1.082589172328768</v>
+      </c>
+      <c r="E32">
+        <v>0.8295555247945203</v>
+      </c>
+      <c r="F32">
+        <v>1.035949045616438</v>
+      </c>
+      <c r="G32">
+        <v>1.508549973632877</v>
+      </c>
+      <c r="H32">
+        <v>1.508549973632877</v>
+      </c>
+      <c r="I32">
+        <v>1.508549973632877</v>
+      </c>
+      <c r="J32">
+        <v>0.8187743380547948</v>
+      </c>
+      <c r="K32">
+        <v>0.3408706750676713</v>
+      </c>
+      <c r="L32">
+        <v>0.3408706750676713</v>
+      </c>
+      <c r="M32">
+        <v>1.117080897315069</v>
+      </c>
+      <c r="N32">
+        <v>1.508549973632877</v>
+      </c>
+      <c r="O32">
+        <v>0.8187743380547948</v>
+      </c>
+      <c r="P32">
+        <v>0.579822506561233</v>
+      </c>
+      <c r="Q32">
+        <v>0.8241649314246575</v>
+      </c>
+      <c r="R32">
+        <v>0.8893983289184476</v>
+      </c>
+      <c r="S32">
+        <v>0.6630668459723288</v>
+      </c>
+      <c r="T32">
+        <v>0.8893983289184476</v>
+      </c>
+      <c r="U32">
+        <v>0.8744376278874658</v>
+      </c>
+      <c r="V32">
+        <v>1.001260097036548</v>
+      </c>
+      <c r="W32">
+        <v>0.9316336349625686</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.436316494263158</v>
+      </c>
+      <c r="D33">
+        <v>0.981641990526316</v>
+      </c>
+      <c r="E33">
+        <v>0.8766805452631579</v>
+      </c>
+      <c r="F33">
+        <v>1.271781517368421</v>
+      </c>
+      <c r="G33">
+        <v>1.225705933968421</v>
+      </c>
+      <c r="H33">
+        <v>1.225705933968421</v>
+      </c>
+      <c r="I33">
+        <v>1.225705933968421</v>
+      </c>
+      <c r="J33">
+        <v>1.302075806315789</v>
+      </c>
+      <c r="K33">
+        <v>0.05247285255052631</v>
+      </c>
+      <c r="L33">
+        <v>0.05247285255052631</v>
+      </c>
+      <c r="M33">
+        <v>1.150126871578947</v>
+      </c>
+      <c r="N33">
+        <v>1.225705933968421</v>
+      </c>
+      <c r="O33">
+        <v>1.302075806315789</v>
+      </c>
+      <c r="P33">
+        <v>0.6772743294331578</v>
+      </c>
+      <c r="Q33">
+        <v>1.089378175789474</v>
+      </c>
+      <c r="R33">
+        <v>0.8600848642782456</v>
+      </c>
+      <c r="S33">
+        <v>0.7437430680431577</v>
+      </c>
+      <c r="T33">
+        <v>0.8600848642782456</v>
+      </c>
+      <c r="U33">
+        <v>0.8642337845244736</v>
+      </c>
+      <c r="V33">
+        <v>0.9365282144132632</v>
+      </c>
+      <c r="W33">
+        <v>0.9121002514793422</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.5610245528947368</v>
+      </c>
+      <c r="D34">
+        <v>0.9849497036842106</v>
+      </c>
+      <c r="E34">
+        <v>0.6876247257894736</v>
+      </c>
+      <c r="F34">
+        <v>1.336754370526316</v>
+      </c>
+      <c r="G34">
+        <v>1.393779560489474</v>
+      </c>
+      <c r="H34">
+        <v>1.393779560489474</v>
+      </c>
+      <c r="I34">
+        <v>1.393779560489474</v>
+      </c>
+      <c r="J34">
+        <v>1.080590806368421</v>
+      </c>
+      <c r="K34">
+        <v>0.1862143961552631</v>
+      </c>
+      <c r="L34">
+        <v>0.1862143961552631</v>
+      </c>
+      <c r="M34">
+        <v>1.054505948105263</v>
+      </c>
+      <c r="N34">
+        <v>1.393779560489474</v>
+      </c>
+      <c r="O34">
+        <v>1.080590806368421</v>
+      </c>
+      <c r="P34">
+        <v>0.6334026012618421</v>
+      </c>
+      <c r="Q34">
+        <v>0.8841077660789474</v>
+      </c>
+      <c r="R34">
+        <v>0.8868615876710527</v>
+      </c>
+      <c r="S34">
+        <v>0.6514766427710527</v>
+      </c>
+      <c r="T34">
+        <v>0.8868615876710527</v>
+      </c>
+      <c r="U34">
+        <v>0.837052372200658</v>
+      </c>
+      <c r="V34">
+        <v>0.9483978098584211</v>
+      </c>
+      <c r="W34">
+        <v>0.9106805080016449</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.5078783235314903</v>
+      </c>
+      <c r="D35">
+        <v>1.378964038726094</v>
+      </c>
+      <c r="E35">
+        <v>0.9129820740257959</v>
+      </c>
+      <c r="F35">
+        <v>1.344692464690705</v>
+      </c>
+      <c r="G35">
+        <v>0.6890835318725309</v>
+      </c>
+      <c r="H35">
+        <v>0.6890835318725309</v>
+      </c>
+      <c r="I35">
+        <v>0.6890835318725309</v>
+      </c>
+      <c r="J35">
+        <v>0.8044690155992474</v>
+      </c>
+      <c r="K35">
+        <v>0.4237496077148585</v>
+      </c>
+      <c r="L35">
+        <v>0.4237496077148585</v>
+      </c>
+      <c r="M35">
+        <v>0.7362563411081109</v>
+      </c>
+      <c r="N35">
+        <v>0.6890835318725309</v>
+      </c>
+      <c r="O35">
+        <v>0.8044690155992474</v>
+      </c>
+      <c r="P35">
+        <v>0.614109311657053</v>
+      </c>
+      <c r="Q35">
+        <v>0.8587255448125217</v>
+      </c>
+      <c r="R35">
+        <v>0.6391007183955456</v>
+      </c>
+      <c r="S35">
+        <v>0.7137335657799673</v>
+      </c>
+      <c r="T35">
+        <v>0.6391007183955456</v>
+      </c>
+      <c r="U35">
+        <v>0.7075710573031082</v>
+      </c>
+      <c r="V35">
+        <v>0.7038735522169928</v>
+      </c>
+      <c r="W35">
+        <v>0.849759424658604</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000884268736871</v>
+      </c>
+      <c r="D36">
+        <v>1.000210237578318</v>
+      </c>
+      <c r="E36">
+        <v>0.9994224461877745</v>
+      </c>
+      <c r="F36">
+        <v>1.001990753279146</v>
+      </c>
+      <c r="G36">
+        <v>0.9992588261041188</v>
+      </c>
+      <c r="H36">
+        <v>0.9992588261041188</v>
+      </c>
+      <c r="I36">
+        <v>0.9992588261041188</v>
+      </c>
+      <c r="J36">
+        <v>0.9981353631734204</v>
+      </c>
+      <c r="K36">
+        <v>1.002198325930833</v>
+      </c>
+      <c r="L36">
+        <v>1.002198325930833</v>
+      </c>
+      <c r="M36">
+        <v>0.9975379354828979</v>
+      </c>
+      <c r="N36">
+        <v>0.9992588261041188</v>
+      </c>
+      <c r="O36">
+        <v>0.9981353631734204</v>
+      </c>
+      <c r="P36">
+        <v>1.000166844552127</v>
+      </c>
+      <c r="Q36">
+        <v>0.9987789046805975</v>
+      </c>
+      <c r="R36">
+        <v>0.999864171736124</v>
+      </c>
+      <c r="S36">
+        <v>0.9999187117640093</v>
+      </c>
+      <c r="T36">
+        <v>0.999864171736124</v>
+      </c>
+      <c r="U36">
+        <v>0.9997537403490366</v>
+      </c>
+      <c r="V36">
+        <v>0.9996547575000531</v>
+      </c>
+      <c r="W36">
+        <v>0.9999547695591724</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9965388071352881</v>
+      </c>
+      <c r="D37">
+        <v>1.001487231456273</v>
+      </c>
+      <c r="E37">
+        <v>1.000946005549058</v>
+      </c>
+      <c r="F37">
+        <v>0.9976659926894591</v>
+      </c>
+      <c r="G37">
+        <v>1.000253679510076</v>
+      </c>
+      <c r="H37">
+        <v>1.000253679510076</v>
+      </c>
+      <c r="I37">
+        <v>1.000253679510076</v>
+      </c>
+      <c r="J37">
+        <v>1.001837648753831</v>
+      </c>
+      <c r="K37">
+        <v>0.9992657272407295</v>
+      </c>
+      <c r="L37">
+        <v>0.9992657272407295</v>
+      </c>
+      <c r="M37">
+        <v>1.003217031350375</v>
+      </c>
+      <c r="N37">
+        <v>1.000253679510076</v>
+      </c>
+      <c r="O37">
+        <v>1.001837648753831</v>
+      </c>
+      <c r="P37">
+        <v>1.00055168799728</v>
+      </c>
+      <c r="Q37">
+        <v>1.001391827151445</v>
+      </c>
+      <c r="R37">
+        <v>1.000452351834879</v>
+      </c>
+      <c r="S37">
+        <v>1.000683127181206</v>
+      </c>
+      <c r="T37">
+        <v>1.000452351834879</v>
+      </c>
+      <c r="U37">
+        <v>1.000575765263424</v>
+      </c>
+      <c r="V37">
+        <v>1.000511348112754</v>
+      </c>
+      <c r="W37">
+        <v>1.000151515460636</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.000090008602676</v>
+      </c>
+      <c r="D38">
+        <v>1.001104863965695</v>
+      </c>
+      <c r="E38">
+        <v>0.99269072650266</v>
+      </c>
+      <c r="F38">
+        <v>1.011728947147985</v>
+      </c>
+      <c r="G38">
+        <v>0.9990847043601557</v>
+      </c>
+      <c r="H38">
+        <v>0.9990847043601557</v>
+      </c>
+      <c r="I38">
+        <v>0.9990847043601557</v>
+      </c>
+      <c r="J38">
+        <v>0.9847741267352749</v>
+      </c>
+      <c r="K38">
+        <v>0.9967843329357241</v>
+      </c>
+      <c r="L38">
+        <v>0.9967843329357241</v>
+      </c>
+      <c r="M38">
+        <v>0.9992120641584722</v>
+      </c>
+      <c r="N38">
+        <v>0.9990847043601557</v>
+      </c>
+      <c r="O38">
+        <v>0.9847741267352749</v>
+      </c>
+      <c r="P38">
+        <v>0.9907792298354995</v>
+      </c>
+      <c r="Q38">
+        <v>0.9887324266189674</v>
+      </c>
+      <c r="R38">
+        <v>0.9935477213437182</v>
+      </c>
+      <c r="S38">
+        <v>0.9914163953912197</v>
+      </c>
+      <c r="T38">
+        <v>0.9935477213437182</v>
+      </c>
+      <c r="U38">
+        <v>0.9933334726334536</v>
+      </c>
+      <c r="V38">
+        <v>0.994483718978794</v>
+      </c>
+      <c r="W38">
+        <v>0.9981837218010804</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.010410375806888</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.00078474619661</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9891460468304499</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.029926990888284</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.029085727762356</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.029085727762356</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.029085727762356</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9735234609267821</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9950780644770008</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9950780644770008</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9755807529683199</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.029085727762356</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9735234609267821</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9843007627018914</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.981334753878616</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9992290843887129</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.985915857411411</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9992290843887129</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>0.9967083249991472</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>1.003183805551789</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>1.000442020732086</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.8517588439382799</v>
+      </c>
+      <c r="D40">
+        <v>1.063384020310425</v>
+      </c>
+      <c r="E40">
+        <v>0.9399590064455908</v>
+      </c>
+      <c r="F40">
+        <v>1.115477640568907</v>
+      </c>
+      <c r="G40">
+        <v>1.121773016118908</v>
+      </c>
+      <c r="H40">
+        <v>1.121773016118908</v>
+      </c>
+      <c r="I40">
+        <v>1.121773016118908</v>
+      </c>
+      <c r="J40">
+        <v>1.020133141128997</v>
+      </c>
+      <c r="K40">
+        <v>0.8051326476675793</v>
+      </c>
+      <c r="L40">
+        <v>0.8051326476675793</v>
+      </c>
+      <c r="M40">
+        <v>0.9289826895838499</v>
+      </c>
+      <c r="N40">
+        <v>1.121773016118908</v>
+      </c>
+      <c r="O40">
+        <v>1.020133141128997</v>
+      </c>
+      <c r="P40">
+        <v>0.9126328943982882</v>
+      </c>
+      <c r="Q40">
+        <v>0.980046073787294</v>
+      </c>
+      <c r="R40">
+        <v>0.9823462683051615</v>
+      </c>
+      <c r="S40">
+        <v>0.9217415984140557</v>
+      </c>
+      <c r="T40">
+        <v>0.9823462683051615</v>
+      </c>
+      <c r="U40">
+        <v>0.9717494528402688</v>
+      </c>
+      <c r="V40">
+        <v>1.001754165495997</v>
+      </c>
+      <c r="W40">
+        <v>0.9808251257203171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.082194007910803</v>
+      </c>
+      <c r="D41">
+        <v>0.9996373869428737</v>
+      </c>
+      <c r="E41">
+        <v>1.041579312063741</v>
+      </c>
+      <c r="F41">
+        <v>0.9546972733769177</v>
+      </c>
+      <c r="G41">
+        <v>0.9126094277007961</v>
+      </c>
+      <c r="H41">
+        <v>0.9126094277007961</v>
+      </c>
+      <c r="I41">
+        <v>0.9126094277007961</v>
+      </c>
+      <c r="J41">
+        <v>0.9516047559681222</v>
+      </c>
+      <c r="K41">
+        <v>1.166083550786305</v>
+      </c>
+      <c r="L41">
+        <v>1.166083550786305</v>
+      </c>
+      <c r="M41">
+        <v>0.9906052815764675</v>
+      </c>
+      <c r="N41">
+        <v>0.9126094277007961</v>
+      </c>
+      <c r="O41">
+        <v>0.9516047559681222</v>
+      </c>
+      <c r="P41">
+        <v>1.058844153377214</v>
+      </c>
+      <c r="Q41">
+        <v>0.9965920340159318</v>
+      </c>
+      <c r="R41">
+        <v>1.010099244818408</v>
+      </c>
+      <c r="S41">
+        <v>1.053089206272723</v>
+      </c>
+      <c r="T41">
+        <v>1.010099244818408</v>
+      </c>
+      <c r="U41">
+        <v>1.017969261629741</v>
+      </c>
+      <c r="V41">
+        <v>0.9968972948439523</v>
+      </c>
+      <c r="W41">
+        <v>1.012376374540753</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.7951000782759203</v>
+      </c>
+      <c r="D42">
+        <v>1.077863994649411</v>
+      </c>
+      <c r="E42">
+        <v>0.97112295955376</v>
+      </c>
+      <c r="F42">
+        <v>1.207554193666792</v>
+      </c>
+      <c r="G42">
+        <v>0.7387561966643036</v>
+      </c>
+      <c r="H42">
+        <v>0.7387561966643036</v>
+      </c>
+      <c r="I42">
+        <v>0.7387561966643036</v>
+      </c>
+      <c r="J42">
+        <v>1.229196771622585</v>
+      </c>
+      <c r="K42">
+        <v>0.7113819532765023</v>
+      </c>
+      <c r="L42">
+        <v>0.7113819532765023</v>
+      </c>
+      <c r="M42">
+        <v>0.9630521876699834</v>
+      </c>
+      <c r="N42">
+        <v>0.7387561966643036</v>
+      </c>
+      <c r="O42">
+        <v>1.229196771622585</v>
+      </c>
+      <c r="P42">
+        <v>0.9702893624495439</v>
+      </c>
+      <c r="Q42">
+        <v>1.100159865588173</v>
+      </c>
+      <c r="R42">
+        <v>0.8931116405211305</v>
+      </c>
+      <c r="S42">
+        <v>0.9705672281509493</v>
+      </c>
+      <c r="T42">
+        <v>0.8931116405211305</v>
+      </c>
+      <c r="U42">
+        <v>0.9126144702792878</v>
+      </c>
+      <c r="V42">
+        <v>0.877842815556291</v>
+      </c>
+      <c r="W42">
+        <v>0.9617535419224073</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/SA-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/SA-HW10.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,55 +85,52 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
     <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.020481371255482</v>
+        <v>0.9970346581216269</v>
       </c>
       <c r="D3">
-        <v>0.9706869353493264</v>
+        <v>1.002601104782952</v>
       </c>
       <c r="E3">
-        <v>0.991255536480642</v>
+        <v>0.9993433324860577</v>
       </c>
       <c r="F3">
-        <v>1.020481371255482</v>
+        <v>1.001483698478692</v>
       </c>
       <c r="G3">
-        <v>0.9919204901982274</v>
+        <v>1.000146606255431</v>
       </c>
       <c r="H3">
-        <v>1.001770504484922</v>
+        <v>1.000146606255431</v>
       </c>
       <c r="I3">
-        <v>1.020481371255482</v>
+        <v>1.000146606255431</v>
       </c>
       <c r="J3">
-        <v>0.9706869353493264</v>
+        <v>0.9991190920980851</v>
       </c>
       <c r="K3">
-        <v>1.006667279864836</v>
+        <v>0.9958488752456628</v>
       </c>
       <c r="L3">
-        <v>1.001958245795573</v>
+        <v>0.9958488752456628</v>
       </c>
       <c r="M3">
-        <v>0.9878035448605915</v>
+        <v>0.9985468099014432</v>
       </c>
       <c r="N3">
-        <v>1.020481371255482</v>
+        <v>1.000146606255431</v>
       </c>
       <c r="O3">
-        <v>0.991255536480642</v>
+        <v>0.9991190920980851</v>
       </c>
       <c r="P3">
-        <v>0.9809712359149843</v>
+        <v>0.997483983671874</v>
       </c>
       <c r="Q3">
-        <v>0.9915880133394347</v>
+        <v>0.9992312122920715</v>
       </c>
       <c r="R3">
-        <v>0.9941412810284834</v>
+        <v>0.9983715245330597</v>
       </c>
       <c r="S3">
-        <v>0.984620987342732</v>
+        <v>0.9981037666099352</v>
       </c>
       <c r="T3">
-        <v>0.9941412810284834</v>
+        <v>0.9983715245330597</v>
       </c>
       <c r="U3">
-        <v>0.9935860833209194</v>
+        <v>0.9986144765213092</v>
       </c>
       <c r="V3">
-        <v>0.9989651409078318</v>
+        <v>0.9989209024681337</v>
       </c>
       <c r="W3">
-        <v>0.9965679885361999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+        <v>0.9992655221712439</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.039481712045323</v>
+        <v>0.8517588439382799</v>
       </c>
       <c r="D4">
-        <v>0.9459411958895237</v>
+        <v>1.063384020310425</v>
       </c>
       <c r="E4">
-        <v>0.9835731654808404</v>
+        <v>0.9399590064455908</v>
       </c>
       <c r="F4">
-        <v>1.039481712045323</v>
+        <v>1.115477640568907</v>
       </c>
       <c r="G4">
-        <v>0.9852569518642905</v>
+        <v>1.121773016118908</v>
       </c>
       <c r="H4">
-        <v>1.004304202202002</v>
+        <v>1.121773016118908</v>
       </c>
       <c r="I4">
-        <v>1.039481712045323</v>
+        <v>1.121773016118908</v>
       </c>
       <c r="J4">
-        <v>0.9459411958895237</v>
+        <v>1.020133141128997</v>
       </c>
       <c r="K4">
-        <v>1.012129349894452</v>
+        <v>0.8051326476675793</v>
       </c>
       <c r="L4">
-        <v>1.004086679286821</v>
+        <v>0.8051326476675793</v>
       </c>
       <c r="M4">
-        <v>0.9762117737015955</v>
+        <v>0.9289826895838499</v>
       </c>
       <c r="N4">
-        <v>1.039481712045323</v>
+        <v>1.121773016118908</v>
       </c>
       <c r="O4">
-        <v>0.9835731654808404</v>
+        <v>1.020133141128997</v>
       </c>
       <c r="P4">
-        <v>0.964757180685182</v>
+        <v>0.9126328943982882</v>
       </c>
       <c r="Q4">
-        <v>0.9844150586725655</v>
+        <v>0.980046073787294</v>
       </c>
       <c r="R4">
-        <v>0.9896653578052289</v>
+        <v>0.9823462683051615</v>
       </c>
       <c r="S4">
-        <v>0.9715904377448848</v>
+        <v>0.9217415984140557</v>
       </c>
       <c r="T4">
-        <v>0.9896653578052289</v>
+        <v>0.9823462683051615</v>
       </c>
       <c r="U4">
-        <v>0.9885632563199943</v>
+        <v>0.9717494528402688</v>
       </c>
       <c r="V4">
-        <v>0.9987469474650599</v>
+        <v>1.001754165495997</v>
       </c>
       <c r="W4">
-        <v>0.993873128795606</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <v>0.9808251257203171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.085276925172486</v>
+        <v>0.8616585779099439</v>
       </c>
       <c r="D5">
-        <v>0.8946516282389415</v>
+        <v>1.082349973393372</v>
       </c>
       <c r="E5">
-        <v>0.9609525071649285</v>
+        <v>0.9699575335230537</v>
       </c>
       <c r="F5">
-        <v>1.085276925172486</v>
+        <v>1.087822276700288</v>
       </c>
       <c r="G5">
-        <v>0.9676767214019562</v>
+        <v>1.00716922834863</v>
       </c>
       <c r="H5">
-        <v>1.010629090303007</v>
+        <v>1.00716922834863</v>
       </c>
       <c r="I5">
-        <v>1.085276925172486</v>
+        <v>1.00716922834863</v>
       </c>
       <c r="J5">
-        <v>0.8946516282389415</v>
+        <v>0.9909400529488483</v>
       </c>
       <c r="K5">
-        <v>1.023510537357923</v>
+        <v>0.8009174915544769</v>
       </c>
       <c r="L5">
-        <v>1.011829343864778</v>
+        <v>0.8009174915544769</v>
       </c>
       <c r="M5">
-        <v>0.9568517604856231</v>
+        <v>0.9521607082146945</v>
       </c>
       <c r="N5">
-        <v>1.085276925172486</v>
+        <v>1.00716922834863</v>
       </c>
       <c r="O5">
-        <v>0.9609525071649285</v>
+        <v>0.9909400529488483</v>
       </c>
       <c r="P5">
-        <v>0.927802067701935</v>
+        <v>0.8959287722516627</v>
       </c>
       <c r="Q5">
-        <v>0.9643146142834423</v>
+        <v>0.980448793235951</v>
       </c>
       <c r="R5">
-        <v>0.9802936868587855</v>
+        <v>0.9330089242839851</v>
       </c>
       <c r="S5">
-        <v>0.9410936189352753</v>
+        <v>0.920605026008793</v>
       </c>
       <c r="T5">
-        <v>0.9802936868587855</v>
+        <v>0.9330089242839851</v>
       </c>
       <c r="U5">
-        <v>0.9771394454945781</v>
+        <v>0.9422460765937523</v>
       </c>
       <c r="V5">
-        <v>0.9987669414301598</v>
+        <v>0.9552307069447277</v>
       </c>
       <c r="W5">
-        <v>0.9889223142487054</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <v>0.9691219803241634</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.119204081327401</v>
+        <v>0.5078783235314903</v>
       </c>
       <c r="D6">
-        <v>0.8226523040099086</v>
+        <v>1.378964038726094</v>
       </c>
       <c r="E6">
-        <v>0.9232522349261728</v>
+        <v>0.9129820740257959</v>
       </c>
       <c r="F6">
-        <v>1.119204081327401</v>
+        <v>1.344692464690705</v>
       </c>
       <c r="G6">
-        <v>0.9341534426428336</v>
+        <v>0.6890835318725309</v>
       </c>
       <c r="H6">
-        <v>1.01534499189854</v>
+        <v>0.6890835318725309</v>
       </c>
       <c r="I6">
-        <v>1.119204081327401</v>
+        <v>0.6890835318725309</v>
       </c>
       <c r="J6">
-        <v>0.8226523040099086</v>
+        <v>0.8044690155992474</v>
       </c>
       <c r="K6">
-        <v>1.047519252819834</v>
+        <v>0.4237496077148585</v>
       </c>
       <c r="L6">
-        <v>0.9995986271332172</v>
+        <v>0.4237496077148585</v>
       </c>
       <c r="M6">
-        <v>0.931696698667943</v>
+        <v>0.7362563411081109</v>
       </c>
       <c r="N6">
-        <v>1.119204081327401</v>
+        <v>0.6890835318725309</v>
       </c>
       <c r="O6">
-        <v>0.9232522349261728</v>
+        <v>0.8044690155992474</v>
       </c>
       <c r="P6">
-        <v>0.8729522694680407</v>
+        <v>0.614109311657053</v>
       </c>
       <c r="Q6">
-        <v>0.9287028387845032</v>
+        <v>0.8587255448125217</v>
       </c>
       <c r="R6">
-        <v>0.9550362067544942</v>
+        <v>0.6391007183955456</v>
       </c>
       <c r="S6">
-        <v>0.893352660526305</v>
+        <v>0.7137335657799673</v>
       </c>
       <c r="T6">
-        <v>0.9550362067544943</v>
+        <v>0.6391007183955456</v>
       </c>
       <c r="U6">
-        <v>0.9498155157265792</v>
+        <v>0.7075710573031082</v>
       </c>
       <c r="V6">
-        <v>0.9836932288467436</v>
+        <v>0.7038735522169928</v>
       </c>
       <c r="W6">
-        <v>0.9741777041782314</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>0.849759424658604</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9996071731922058</v>
+        <v>0.9872895600799918</v>
       </c>
       <c r="D7">
-        <v>0.9989176873743073</v>
+        <v>1.002793800868001</v>
       </c>
       <c r="E7">
-        <v>0.9994586936355397</v>
+        <v>0.9914925118934795</v>
       </c>
       <c r="F7">
-        <v>0.9996071731922058</v>
+        <v>1.002065120720584</v>
       </c>
       <c r="G7">
-        <v>0.9998273519485338</v>
+        <v>1.029595654090568</v>
       </c>
       <c r="H7">
-        <v>1.000605996354654</v>
+        <v>1.029595654090568</v>
       </c>
       <c r="I7">
-        <v>0.9996071731922058</v>
+        <v>1.029595654090568</v>
       </c>
       <c r="J7">
-        <v>0.9989176873743073</v>
+        <v>0.9898540267451656</v>
       </c>
       <c r="K7">
-        <v>0.9993668025214674</v>
+        <v>0.9683125544788916</v>
       </c>
       <c r="L7">
-        <v>1.001037727721597</v>
+        <v>0.9683125544788916</v>
       </c>
       <c r="M7">
-        <v>0.998859387480651</v>
+        <v>1.004991481674402</v>
       </c>
       <c r="N7">
-        <v>0.9996071731922058</v>
+        <v>1.029595654090568</v>
       </c>
       <c r="O7">
-        <v>0.9994586936355397</v>
+        <v>0.9898540267451656</v>
       </c>
       <c r="P7">
-        <v>0.9991881905049236</v>
+        <v>0.9790832906120286</v>
       </c>
       <c r="Q7">
-        <v>0.9996430227920368</v>
+        <v>0.9906732693193225</v>
       </c>
       <c r="R7">
-        <v>0.9993278514006843</v>
+        <v>0.9959207451048749</v>
       </c>
       <c r="S7">
-        <v>0.9994012443194603</v>
+        <v>0.9832196977058456</v>
       </c>
       <c r="T7">
-        <v>0.9993278514006843</v>
+        <v>0.9959207451048749</v>
       </c>
       <c r="U7">
-        <v>0.9994527265376466</v>
+        <v>0.9948136868020261</v>
       </c>
       <c r="V7">
-        <v>0.9994836158685585</v>
+        <v>1.001770080259734</v>
       </c>
       <c r="W7">
-        <v>0.9997101025286195</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>0.9970493388188854</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000146606255431</v>
+        <v>0.9965388071352881</v>
       </c>
       <c r="D8">
-        <v>0.995848875245664</v>
+        <v>1.001487231456273</v>
       </c>
       <c r="E8">
-        <v>0.9991190920980851</v>
+        <v>1.000946005549058</v>
       </c>
       <c r="F8">
-        <v>1.000146606255431</v>
+        <v>0.9976659926894591</v>
       </c>
       <c r="G8">
-        <v>0.9993433324860573</v>
+        <v>1.000253679510076</v>
       </c>
       <c r="H8">
-        <v>1.001483698478693</v>
+        <v>1.000253679510076</v>
       </c>
       <c r="I8">
-        <v>1.000146606255431</v>
+        <v>1.000253679510076</v>
       </c>
       <c r="J8">
-        <v>0.995848875245664</v>
+        <v>1.001837648753831</v>
       </c>
       <c r="K8">
-        <v>0.9985468099014437</v>
+        <v>0.9992657272407295</v>
       </c>
       <c r="L8">
-        <v>1.002601104782953</v>
+        <v>0.9992657272407295</v>
       </c>
       <c r="M8">
-        <v>0.9970346581216267</v>
+        <v>1.003217031350375</v>
       </c>
       <c r="N8">
-        <v>1.000146606255431</v>
+        <v>1.000253679510076</v>
       </c>
       <c r="O8">
-        <v>0.9991190920980851</v>
+        <v>1.001837648753831</v>
       </c>
       <c r="P8">
-        <v>0.9974839836718745</v>
+        <v>1.00055168799728</v>
       </c>
       <c r="Q8">
-        <v>0.9992312122920712</v>
+        <v>1.001391827151445</v>
       </c>
       <c r="R8">
-        <v>0.9983715245330599</v>
+        <v>1.000452351834879</v>
       </c>
       <c r="S8">
-        <v>0.9981037666099355</v>
+        <v>1.000683127181206</v>
       </c>
       <c r="T8">
-        <v>0.9983715245330599</v>
+        <v>1.000452351834879</v>
       </c>
       <c r="U8">
-        <v>0.9986144765213093</v>
+        <v>1.000575765263424</v>
       </c>
       <c r="V8">
-        <v>0.9989209024681335</v>
+        <v>1.000511348112754</v>
       </c>
       <c r="W8">
-        <v>0.9992655221712441</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>1.000151515460636</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000029374116374</v>
+        <v>0.9762117737015955</v>
       </c>
       <c r="D9">
-        <v>0.9950885905874326</v>
+        <v>1.004086679286821</v>
       </c>
       <c r="E9">
-        <v>0.998490560422026</v>
+        <v>0.9852569518642905</v>
       </c>
       <c r="F9">
-        <v>1.000029374116374</v>
+        <v>1.004304202202002</v>
       </c>
       <c r="G9">
-        <v>0.9993239128274384</v>
+        <v>1.039481712045323</v>
       </c>
       <c r="H9">
-        <v>1.002078071486484</v>
+        <v>1.039481712045323</v>
       </c>
       <c r="I9">
-        <v>1.000029374116374</v>
+        <v>1.039481712045323</v>
       </c>
       <c r="J9">
-        <v>0.9950885905874326</v>
+        <v>0.9835731654808404</v>
       </c>
       <c r="K9">
-        <v>0.9973045130064412</v>
+        <v>0.9459411958895237</v>
       </c>
       <c r="L9">
-        <v>1.004682550500775</v>
+        <v>0.9459411958895237</v>
       </c>
       <c r="M9">
-        <v>0.9955911518579821</v>
+        <v>1.012129349894452</v>
       </c>
       <c r="N9">
-        <v>1.000029374116374</v>
+        <v>1.039481712045323</v>
       </c>
       <c r="O9">
-        <v>0.998490560422026</v>
+        <v>0.9835731654808404</v>
       </c>
       <c r="P9">
-        <v>0.9967895755047294</v>
+        <v>0.964757180685182</v>
       </c>
       <c r="Q9">
-        <v>0.9989072366247322</v>
+        <v>0.9844150586725655</v>
       </c>
       <c r="R9">
-        <v>0.9978695083752775</v>
+        <v>0.9896653578052289</v>
       </c>
       <c r="S9">
-        <v>0.9976343546122991</v>
+        <v>0.9715904377448848</v>
       </c>
       <c r="T9">
-        <v>0.9978695083752774</v>
+        <v>0.9896653578052289</v>
       </c>
       <c r="U9">
-        <v>0.9982331094883177</v>
+        <v>0.9885632563199943</v>
       </c>
       <c r="V9">
-        <v>0.9985923624139289</v>
+        <v>0.9987469474650599</v>
       </c>
       <c r="W9">
-        <v>0.9990735906006191</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>0.993873128795606</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.998925491571431</v>
+        <v>0.4997076018098052</v>
       </c>
       <c r="D10">
-        <v>0.9893611458068259</v>
+        <v>1.388271883793507</v>
       </c>
       <c r="E10">
-        <v>0.9959608235326651</v>
+        <v>0.9183244832185233</v>
       </c>
       <c r="F10">
-        <v>0.998925491571431</v>
+        <v>1.346634258283066</v>
       </c>
       <c r="G10">
-        <v>0.9985756407280207</v>
+        <v>0.6788853167362303</v>
       </c>
       <c r="H10">
-        <v>1.004835334776959</v>
+        <v>0.6788853167362303</v>
       </c>
       <c r="I10">
-        <v>0.998925491571431</v>
+        <v>0.6788853167362303</v>
       </c>
       <c r="J10">
-        <v>0.9893611458068259</v>
+        <v>0.7947546501821317</v>
       </c>
       <c r="K10">
-        <v>0.9943334248431432</v>
+        <v>0.4034084581922302</v>
       </c>
       <c r="L10">
-        <v>1.009509173543154</v>
+        <v>0.4034084581922302</v>
       </c>
       <c r="M10">
-        <v>0.9908596635928061</v>
+        <v>0.7366351770368206</v>
       </c>
       <c r="N10">
-        <v>0.998925491571431</v>
+        <v>0.6788853167362303</v>
       </c>
       <c r="O10">
-        <v>0.9959608235326651</v>
+        <v>0.7947546501821317</v>
       </c>
       <c r="P10">
-        <v>0.9926609846697455</v>
+        <v>0.5990815541871809</v>
       </c>
       <c r="Q10">
-        <v>0.997268232130343</v>
+        <v>0.8565395667003275</v>
       </c>
       <c r="R10">
-        <v>0.9947491536369739</v>
+        <v>0.6256828083701974</v>
       </c>
       <c r="S10">
-        <v>0.9946325366891706</v>
+        <v>0.7054958638642951</v>
       </c>
       <c r="T10">
-        <v>0.9947491536369739</v>
+        <v>0.6256828083701974</v>
       </c>
       <c r="U10">
-        <v>0.9957057754097356</v>
+        <v>0.6988432270822789</v>
       </c>
       <c r="V10">
-        <v>0.9963497186420746</v>
+        <v>0.6948516450130692</v>
       </c>
       <c r="W10">
-        <v>0.9977950872993757</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+        <v>0.8458277286565392</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.002414040706886</v>
+        <v>0.9291251859951412</v>
       </c>
       <c r="D11">
-        <v>0.9801532350455295</v>
+        <v>1.077245649343046</v>
       </c>
       <c r="E11">
-        <v>0.9923039820888037</v>
+        <v>0.9889900242541831</v>
       </c>
       <c r="F11">
-        <v>1.002414040706886</v>
+        <v>1.103048546339144</v>
       </c>
       <c r="G11">
-        <v>0.997061356069826</v>
+        <v>0.9518236976823181</v>
       </c>
       <c r="H11">
-        <v>1.006758502835687</v>
+        <v>0.9518236976823181</v>
       </c>
       <c r="I11">
-        <v>1.002414040706886</v>
+        <v>0.9518236976823181</v>
       </c>
       <c r="J11">
-        <v>0.9801532350455295</v>
+        <v>1.012088944983497</v>
       </c>
       <c r="K11">
-        <v>0.9909757470973372</v>
+        <v>0.9570621675747396</v>
       </c>
       <c r="L11">
-        <v>1.01587242702753</v>
+        <v>0.9570621675747396</v>
       </c>
       <c r="M11">
-        <v>0.9850913296183565</v>
+        <v>0.9008141409332754</v>
       </c>
       <c r="N11">
-        <v>1.002414040706886</v>
+        <v>0.9518236976823181</v>
       </c>
       <c r="O11">
-        <v>0.9923039820888037</v>
+        <v>1.012088944983497</v>
       </c>
       <c r="P11">
-        <v>0.9862286085671665</v>
+        <v>0.9845755562791181</v>
       </c>
       <c r="Q11">
-        <v>0.9946826690793149</v>
+        <v>1.00053948461884</v>
       </c>
       <c r="R11">
-        <v>0.9916237526137396</v>
+        <v>0.9736582700801848</v>
       </c>
       <c r="S11">
-        <v>0.9898395244013863</v>
+        <v>0.9860470456041398</v>
       </c>
       <c r="T11">
-        <v>0.9916237526137396</v>
+        <v>0.9736582700801848</v>
       </c>
       <c r="U11">
-        <v>0.9929831534777612</v>
+        <v>0.9774912086236844</v>
       </c>
       <c r="V11">
-        <v>0.9948693309235861</v>
+        <v>0.9723577064354112</v>
       </c>
       <c r="W11">
-        <v>0.9963288275612445</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+        <v>0.9900247946381681</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.116990804664011</v>
+        <v>0.8531764907578956</v>
       </c>
       <c r="D12">
-        <v>1.526267584329737</v>
+        <v>1.092026461073684</v>
       </c>
       <c r="E12">
-        <v>0.6904590665431409</v>
+        <v>0.9801807238105261</v>
       </c>
       <c r="F12">
-        <v>1.116990804664011</v>
+        <v>1.088435167568421</v>
       </c>
       <c r="G12">
-        <v>1.035393312944749</v>
+        <v>0.9636229743053657</v>
       </c>
       <c r="H12">
-        <v>0.8421911193373977</v>
+        <v>0.9636229743053657</v>
       </c>
       <c r="I12">
-        <v>1.116990804664011</v>
+        <v>0.9636229743053657</v>
       </c>
       <c r="J12">
-        <v>1.526267584329737</v>
+        <v>0.9688389514473683</v>
       </c>
       <c r="K12">
-        <v>0.8507554068194179</v>
+        <v>0.7838774836560001</v>
       </c>
       <c r="L12">
-        <v>1.086102743082858</v>
+        <v>0.7838774836560001</v>
       </c>
       <c r="M12">
-        <v>1.242818300640022</v>
+        <v>0.9582893362421041</v>
       </c>
       <c r="N12">
-        <v>1.116990804664011</v>
+        <v>0.9636229743053657</v>
       </c>
       <c r="O12">
-        <v>0.6904590665431409</v>
+        <v>0.9688389514473683</v>
       </c>
       <c r="P12">
-        <v>1.108363325436439</v>
+        <v>0.8763582175516842</v>
       </c>
       <c r="Q12">
-        <v>0.8629261897439447</v>
+        <v>0.9745098376289472</v>
       </c>
       <c r="R12">
-        <v>1.11123915184563</v>
+        <v>0.9054464698029113</v>
       </c>
       <c r="S12">
-        <v>1.084039987939209</v>
+        <v>0.9109657196379648</v>
       </c>
       <c r="T12">
-        <v>1.111239151845629</v>
+        <v>0.9054464698029113</v>
       </c>
       <c r="U12">
-        <v>1.092277692120409</v>
+        <v>0.924130033304815</v>
       </c>
       <c r="V12">
-        <v>1.09722031462913</v>
+        <v>0.932028621504925</v>
       </c>
       <c r="W12">
-        <v>1.048872292295167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+        <v>0.9610559486076706</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.003569769547607</v>
+        <v>1.084802360206074</v>
       </c>
       <c r="D13">
-        <v>0.8074113510347648</v>
+        <v>0.9679369641928526</v>
       </c>
       <c r="E13">
-        <v>1.053270246613401</v>
+        <v>1.045716550664537</v>
       </c>
       <c r="F13">
-        <v>1.003569769547607</v>
+        <v>0.9378020797330487</v>
       </c>
       <c r="G13">
-        <v>1.010380707912029</v>
+        <v>0.9444415930157244</v>
       </c>
       <c r="H13">
-        <v>0.9351409646023666</v>
+        <v>0.9444415930157244</v>
       </c>
       <c r="I13">
-        <v>1.003569769547607</v>
+        <v>0.9444415930157244</v>
       </c>
       <c r="J13">
-        <v>0.8074113510347648</v>
+        <v>0.9453598009131896</v>
       </c>
       <c r="K13">
-        <v>1.217295016323791</v>
+        <v>1.07154081820489</v>
       </c>
       <c r="L13">
-        <v>0.848008324323558</v>
+        <v>1.07154081820489</v>
       </c>
       <c r="M13">
-        <v>1.010484817529409</v>
+        <v>1.04353551595399</v>
       </c>
       <c r="N13">
-        <v>1.003569769547607</v>
+        <v>0.9444415930157244</v>
       </c>
       <c r="O13">
-        <v>1.053270246613401</v>
+        <v>0.9453598009131896</v>
       </c>
       <c r="P13">
-        <v>0.930340798824083</v>
+        <v>1.00845030955904</v>
       </c>
       <c r="Q13">
-        <v>1.031825477262715</v>
+        <v>0.9955381757888635</v>
       </c>
       <c r="R13">
-        <v>0.9547504557319243</v>
+        <v>0.9871140707112679</v>
       </c>
       <c r="S13">
-        <v>0.957020768520065</v>
+        <v>1.020872389927539</v>
       </c>
       <c r="T13">
-        <v>0.9547504557319243</v>
+        <v>0.987114070711268</v>
       </c>
       <c r="U13">
-        <v>0.9686580187769505</v>
+        <v>1.001764690699585</v>
       </c>
       <c r="V13">
-        <v>0.9756403689310817</v>
+        <v>0.9903000711628132</v>
       </c>
       <c r="W13">
-        <v>0.9856951497358659</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+        <v>1.005141960360538</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.09994839146864856</v>
+        <v>0.1250664500000001</v>
       </c>
       <c r="D14">
-        <v>0.2443275000598941</v>
+        <v>1.690899200000001</v>
       </c>
       <c r="E14">
-        <v>1.976323055206932</v>
+        <v>0.8444181999999999</v>
       </c>
       <c r="F14">
-        <v>0.09994839146864856</v>
+        <v>1.618994999999999</v>
       </c>
       <c r="G14">
-        <v>0.9464104146673036</v>
+        <v>0.3721459699999993</v>
       </c>
       <c r="H14">
-        <v>1.289716805531327</v>
+        <v>0.3721459699999993</v>
       </c>
       <c r="I14">
-        <v>0.09994839146864856</v>
+        <v>0.3721459699999993</v>
       </c>
       <c r="J14">
-        <v>0.2443275000598941</v>
+        <v>0.60377207</v>
       </c>
       <c r="K14">
-        <v>1.407947286107057</v>
+        <v>0.002395270000000003</v>
       </c>
       <c r="L14">
-        <v>0.6831044437784731</v>
+        <v>0.002395270000000003</v>
       </c>
       <c r="M14">
-        <v>0.7630427675592578</v>
+        <v>0.5142619599999995</v>
       </c>
       <c r="N14">
-        <v>0.09994839146864856</v>
+        <v>0.3721459699999993</v>
       </c>
       <c r="O14">
-        <v>1.976323055206932</v>
+        <v>0.60377207</v>
       </c>
       <c r="P14">
-        <v>1.110325277633413</v>
+        <v>0.30308367</v>
       </c>
       <c r="Q14">
-        <v>1.461366734937118</v>
+        <v>0.724095135</v>
       </c>
       <c r="R14">
-        <v>0.7735329822451581</v>
+        <v>0.3261044366666664</v>
       </c>
       <c r="S14">
-        <v>1.055686989978043</v>
+        <v>0.4835285133333333</v>
       </c>
       <c r="T14">
-        <v>0.7735329822451581</v>
+        <v>0.3261044366666664</v>
       </c>
       <c r="U14">
-        <v>0.8167523403506944</v>
+        <v>0.4556828774999998</v>
       </c>
       <c r="V14">
-        <v>0.6733915505742852</v>
+        <v>0.4389754959999997</v>
       </c>
       <c r="W14">
-        <v>0.9263525830473616</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>0.7214942649999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.154819413131847</v>
+        <v>0.062230451</v>
       </c>
       <c r="D15">
-        <v>1.487078587347189</v>
+        <v>2.826607699999999</v>
       </c>
       <c r="E15">
-        <v>0.6158226443872522</v>
+        <v>0.7729728300000001</v>
       </c>
       <c r="F15">
-        <v>1.154819413131847</v>
+        <v>0.99995383</v>
       </c>
       <c r="G15">
-        <v>1.059127154540698</v>
+        <v>1.913908</v>
       </c>
       <c r="H15">
-        <v>0.9653365473281352</v>
+        <v>1.913908</v>
       </c>
       <c r="I15">
-        <v>1.154819413131847</v>
+        <v>1.913908</v>
       </c>
       <c r="J15">
-        <v>1.487078587347189</v>
+        <v>0.09556448200000001</v>
       </c>
       <c r="K15">
-        <v>0.6774639121706539</v>
+        <v>-0.0012267103</v>
       </c>
       <c r="L15">
-        <v>1.199641628230355</v>
+        <v>-0.0012267103</v>
       </c>
       <c r="M15">
-        <v>1.126208870142665</v>
+        <v>0.08389542799999999</v>
       </c>
       <c r="N15">
-        <v>1.154819413131847</v>
+        <v>1.913908</v>
       </c>
       <c r="O15">
-        <v>0.6158226443872522</v>
+        <v>0.09556448200000001</v>
       </c>
       <c r="P15">
-        <v>1.051450615867221</v>
+        <v>0.04716888585</v>
       </c>
       <c r="Q15">
-        <v>0.8374748994639749</v>
+        <v>0.434268656</v>
       </c>
       <c r="R15">
-        <v>1.085906881622096</v>
+        <v>0.6694152572333333</v>
       </c>
       <c r="S15">
-        <v>1.054009462091713</v>
+        <v>0.2891035339</v>
       </c>
       <c r="T15">
-        <v>1.085906881622096</v>
+        <v>0.6694152572333333</v>
       </c>
       <c r="U15">
-        <v>1.079211949851747</v>
+        <v>0.695304650425</v>
       </c>
       <c r="V15">
-        <v>1.094333442507767</v>
+        <v>0.9390253203400001</v>
       </c>
       <c r="W15">
-        <v>1.035687344659849</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>0.8442382513375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9992588261041182</v>
+        <v>0.0289053</v>
       </c>
       <c r="D16">
-        <v>1.002198325930833</v>
+        <v>1.4482004</v>
       </c>
       <c r="E16">
-        <v>0.9981353631734204</v>
+        <v>0.37231391</v>
       </c>
       <c r="F16">
-        <v>0.9992588261041182</v>
+        <v>2.3464701</v>
       </c>
       <c r="G16">
-        <v>0.9994224461877745</v>
+        <v>1.0627484</v>
       </c>
       <c r="H16">
-        <v>1.001990753279147</v>
+        <v>1.0627484</v>
       </c>
       <c r="I16">
-        <v>0.9992588261041182</v>
+        <v>1.0627484</v>
       </c>
       <c r="J16">
-        <v>1.002198325930833</v>
+        <v>0.57031013</v>
       </c>
       <c r="K16">
-        <v>0.9975379354828977</v>
+        <v>-0.0026079641</v>
       </c>
       <c r="L16">
-        <v>1.000210237578318</v>
+        <v>-0.0026079641</v>
       </c>
       <c r="M16">
-        <v>1.00088426873687</v>
+        <v>0.18297177</v>
       </c>
       <c r="N16">
-        <v>0.9992588261041182</v>
+        <v>1.0627484</v>
       </c>
       <c r="O16">
-        <v>0.9981353631734204</v>
+        <v>0.57031013</v>
       </c>
       <c r="P16">
-        <v>1.000166844552127</v>
+        <v>0.28385108295</v>
       </c>
       <c r="Q16">
-        <v>0.9987789046805975</v>
+        <v>0.47131202</v>
       </c>
       <c r="R16">
-        <v>0.9998641717361237</v>
+        <v>0.5434835219666666</v>
       </c>
       <c r="S16">
-        <v>0.9999187117640093</v>
+        <v>0.3133386919666667</v>
       </c>
       <c r="T16">
-        <v>0.999864171736124</v>
+        <v>0.5434835219666666</v>
       </c>
       <c r="U16">
-        <v>0.9997537403490366</v>
+        <v>0.500691118975</v>
       </c>
       <c r="V16">
-        <v>0.9996547575000531</v>
+        <v>0.6131025751799999</v>
       </c>
       <c r="W16">
-        <v>0.9999547695591724</v>
+        <v>0.7511640057375</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000253679510076</v>
+        <v>0.90363594</v>
       </c>
       <c r="D17">
-        <v>0.9992657272407298</v>
+        <v>0.7938472600000001</v>
       </c>
       <c r="E17">
-        <v>1.001837648753831</v>
+        <v>0.9695692299999998</v>
       </c>
       <c r="F17">
-        <v>1.000253679510076</v>
+        <v>1.0837992</v>
       </c>
       <c r="G17">
-        <v>1.000946005549058</v>
+        <v>1.881306</v>
       </c>
       <c r="H17">
-        <v>0.9976659926894589</v>
+        <v>1.881306</v>
       </c>
       <c r="I17">
-        <v>1.000253679510076</v>
+        <v>1.881306</v>
       </c>
       <c r="J17">
-        <v>0.9992657272407298</v>
+        <v>0.16949639</v>
       </c>
       <c r="K17">
-        <v>1.003217031350375</v>
+        <v>0.18124095</v>
       </c>
       <c r="L17">
-        <v>1.001487231456272</v>
+        <v>0.18124095</v>
       </c>
       <c r="M17">
-        <v>0.9965388071352881</v>
+        <v>1.1129315</v>
       </c>
       <c r="N17">
-        <v>1.000253679510076</v>
+        <v>1.881306</v>
       </c>
       <c r="O17">
-        <v>1.001837648753831</v>
+        <v>0.16949639</v>
       </c>
       <c r="P17">
-        <v>1.00055168799728</v>
+        <v>0.17536867</v>
       </c>
       <c r="Q17">
-        <v>1.001391827151445</v>
+        <v>0.5695328099999999</v>
       </c>
       <c r="R17">
-        <v>1.000452351834879</v>
+        <v>0.7440144466666666</v>
       </c>
       <c r="S17">
-        <v>1.000683127181206</v>
+        <v>0.4401021899999999</v>
       </c>
       <c r="T17">
-        <v>1.000452351834879</v>
+        <v>0.7440144466666666</v>
       </c>
       <c r="U17">
-        <v>1.000575765263424</v>
+        <v>0.8004031424999999</v>
       </c>
       <c r="V17">
-        <v>1.000511348112754</v>
+        <v>1.016583714</v>
       </c>
       <c r="W17">
-        <v>1.000151515460636</v>
+        <v>0.8869783087499999</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9990847043601551</v>
+        <v>0.7196994528904109</v>
       </c>
       <c r="D18">
-        <v>0.9967843329357243</v>
+        <v>1.082589172328768</v>
       </c>
       <c r="E18">
-        <v>0.9847741267352748</v>
+        <v>0.8295555247945203</v>
       </c>
       <c r="F18">
-        <v>0.9990847043601551</v>
+        <v>1.035949045616438</v>
       </c>
       <c r="G18">
-        <v>0.9926907265026598</v>
+        <v>1.508549973632877</v>
       </c>
       <c r="H18">
-        <v>1.011728947147985</v>
+        <v>1.508549973632877</v>
       </c>
       <c r="I18">
-        <v>0.9990847043601551</v>
+        <v>1.508549973632877</v>
       </c>
       <c r="J18">
-        <v>0.9967843329357243</v>
+        <v>0.8187743380547948</v>
       </c>
       <c r="K18">
-        <v>0.9992120641584725</v>
+        <v>0.3408706750676713</v>
       </c>
       <c r="L18">
-        <v>1.001104863965695</v>
+        <v>0.3408706750676713</v>
       </c>
       <c r="M18">
-        <v>1.000090008602676</v>
+        <v>1.117080897315069</v>
       </c>
       <c r="N18">
-        <v>0.9990847043601551</v>
+        <v>1.508549973632877</v>
       </c>
       <c r="O18">
-        <v>0.9847741267352748</v>
+        <v>0.8187743380547948</v>
       </c>
       <c r="P18">
-        <v>0.9907792298354996</v>
+        <v>0.579822506561233</v>
       </c>
       <c r="Q18">
-        <v>0.9887324266189672</v>
+        <v>0.8241649314246575</v>
       </c>
       <c r="R18">
-        <v>0.993547721343718</v>
+        <v>0.8893983289184476</v>
       </c>
       <c r="S18">
-        <v>0.9914163953912197</v>
+        <v>0.6630668459723288</v>
       </c>
       <c r="T18">
-        <v>0.993547721343718</v>
+        <v>0.8893983289184476</v>
       </c>
       <c r="U18">
-        <v>0.9933334726334535</v>
+        <v>0.8744376278874658</v>
       </c>
       <c r="V18">
-        <v>0.9944837189787938</v>
+        <v>1.001260097036548</v>
       </c>
       <c r="W18">
-        <v>0.9981837218010803</v>
+        <v>0.9316336349625686</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.029085727762356</v>
+        <v>0.436316494263158</v>
       </c>
       <c r="D19">
-        <v>0.9950780644770008</v>
+        <v>0.981641990526316</v>
       </c>
       <c r="E19">
-        <v>0.9735234609267821</v>
+        <v>0.8766805452631579</v>
       </c>
       <c r="F19">
-        <v>1.029085727762356</v>
+        <v>1.271781517368421</v>
       </c>
       <c r="G19">
-        <v>0.9891460468304499</v>
+        <v>1.225705933968421</v>
       </c>
       <c r="H19">
-        <v>1.029926990888284</v>
+        <v>1.225705933968421</v>
       </c>
       <c r="I19">
-        <v>1.029085727762356</v>
+        <v>1.225705933968421</v>
       </c>
       <c r="J19">
-        <v>0.9950780644770008</v>
+        <v>1.302075806315789</v>
       </c>
       <c r="K19">
-        <v>0.9755807529683199</v>
+        <v>0.05247285255052631</v>
       </c>
       <c r="L19">
-        <v>1.00078474619661</v>
+        <v>0.05247285255052631</v>
       </c>
       <c r="M19">
-        <v>1.010410375806888</v>
+        <v>1.150126871578947</v>
       </c>
       <c r="N19">
-        <v>1.029085727762356</v>
+        <v>1.225705933968421</v>
       </c>
       <c r="O19">
-        <v>0.9735234609267821</v>
+        <v>1.302075806315789</v>
       </c>
       <c r="P19">
-        <v>0.9843007627018914</v>
+        <v>0.6772743294331578</v>
       </c>
       <c r="Q19">
-        <v>0.981334753878616</v>
+        <v>1.089378175789474</v>
       </c>
       <c r="R19">
-        <v>0.9992290843887129</v>
+        <v>0.8600848642782456</v>
       </c>
       <c r="S19">
-        <v>0.985915857411411</v>
+        <v>0.7437430680431577</v>
       </c>
       <c r="T19">
-        <v>0.9992290843887129</v>
+        <v>0.8600848642782456</v>
       </c>
       <c r="U19">
-        <v>0.9967083249991472</v>
+        <v>0.8642337845244736</v>
       </c>
       <c r="V19">
-        <v>1.003183805551789</v>
+        <v>0.9365282144132632</v>
       </c>
       <c r="W19">
-        <v>1.000442020732086</v>
+        <v>0.9121002514793422</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.5610245528947368</v>
+      </c>
+      <c r="D20">
+        <v>0.9849497036842106</v>
+      </c>
+      <c r="E20">
+        <v>0.6876247257894736</v>
+      </c>
+      <c r="F20">
+        <v>1.336754370526316</v>
+      </c>
+      <c r="G20">
+        <v>1.393779560489474</v>
+      </c>
+      <c r="H20">
+        <v>1.393779560489474</v>
+      </c>
+      <c r="I20">
+        <v>1.393779560489474</v>
+      </c>
+      <c r="J20">
+        <v>1.080590806368421</v>
+      </c>
+      <c r="K20">
+        <v>0.1862143961552631</v>
+      </c>
+      <c r="L20">
+        <v>0.1862143961552631</v>
+      </c>
+      <c r="M20">
+        <v>1.054505948105263</v>
+      </c>
+      <c r="N20">
+        <v>1.393779560489474</v>
+      </c>
+      <c r="O20">
+        <v>1.080590806368421</v>
+      </c>
+      <c r="P20">
+        <v>0.6334026012618421</v>
+      </c>
+      <c r="Q20">
+        <v>0.8841077660789474</v>
+      </c>
+      <c r="R20">
+        <v>0.8868615876710527</v>
+      </c>
+      <c r="S20">
+        <v>0.6514766427710527</v>
+      </c>
+      <c r="T20">
+        <v>0.8868615876710527</v>
+      </c>
+      <c r="U20">
+        <v>0.837052372200658</v>
+      </c>
+      <c r="V20">
+        <v>0.9483978098584211</v>
+      </c>
+      <c r="W20">
+        <v>0.9106805080016449</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.7630427675592577</v>
+      </c>
+      <c r="D21">
+        <v>0.683104443778473</v>
+      </c>
+      <c r="E21">
+        <v>0.9464104146673036</v>
+      </c>
+      <c r="F21">
+        <v>1.289716805531327</v>
+      </c>
+      <c r="G21">
+        <v>0.09994839146864848</v>
+      </c>
+      <c r="H21">
+        <v>0.09994839146864848</v>
+      </c>
+      <c r="I21">
+        <v>0.09994839146864848</v>
+      </c>
+      <c r="J21">
+        <v>1.976323055206932</v>
+      </c>
+      <c r="K21">
+        <v>0.244327500059894</v>
+      </c>
+      <c r="L21">
+        <v>0.244327500059894</v>
+      </c>
+      <c r="M21">
+        <v>1.407947286107057</v>
+      </c>
+      <c r="N21">
+        <v>0.09994839146864848</v>
+      </c>
+      <c r="O21">
+        <v>1.976323055206932</v>
+      </c>
+      <c r="P21">
+        <v>1.110325277633413</v>
+      </c>
+      <c r="Q21">
+        <v>1.461366734937118</v>
+      </c>
+      <c r="R21">
+        <v>0.7735329822451581</v>
+      </c>
+      <c r="S21">
+        <v>1.055686989978043</v>
+      </c>
+      <c r="T21">
+        <v>0.7735329822451581</v>
+      </c>
+      <c r="U21">
+        <v>0.8167523403506944</v>
+      </c>
+      <c r="V21">
+        <v>0.6733915505742852</v>
+      </c>
+      <c r="W21">
+        <v>0.9263525830473616</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.126208870142665</v>
+      </c>
+      <c r="D22">
+        <v>1.199641628230355</v>
+      </c>
+      <c r="E22">
+        <v>1.059127154540698</v>
+      </c>
+      <c r="F22">
+        <v>0.9653365473281356</v>
+      </c>
+      <c r="G22">
+        <v>1.154819413131847</v>
+      </c>
+      <c r="H22">
+        <v>1.154819413131847</v>
+      </c>
+      <c r="I22">
+        <v>1.154819413131847</v>
+      </c>
+      <c r="J22">
+        <v>0.6158226443872522</v>
+      </c>
+      <c r="K22">
+        <v>1.487078587347189</v>
+      </c>
+      <c r="L22">
+        <v>1.487078587347189</v>
+      </c>
+      <c r="M22">
+        <v>0.6774639121706539</v>
+      </c>
+      <c r="N22">
+        <v>1.154819413131847</v>
+      </c>
+      <c r="O22">
+        <v>0.6158226443872522</v>
+      </c>
+      <c r="P22">
+        <v>1.051450615867221</v>
+      </c>
+      <c r="Q22">
+        <v>0.8374748994639749</v>
+      </c>
+      <c r="R22">
+        <v>1.085906881622096</v>
+      </c>
+      <c r="S22">
+        <v>1.054009462091713</v>
+      </c>
+      <c r="T22">
+        <v>1.085906881622096</v>
+      </c>
+      <c r="U22">
+        <v>1.079211949851747</v>
+      </c>
+      <c r="V22">
+        <v>1.094333442507767</v>
+      </c>
+      <c r="W22">
+        <v>1.035687344659849</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.242818300640022</v>
+      </c>
+      <c r="D23">
+        <v>1.086102743082858</v>
+      </c>
+      <c r="E23">
+        <v>1.035393312944749</v>
+      </c>
+      <c r="F23">
+        <v>0.8421911193373977</v>
+      </c>
+      <c r="G23">
+        <v>1.11699080466401</v>
+      </c>
+      <c r="H23">
+        <v>1.11699080466401</v>
+      </c>
+      <c r="I23">
+        <v>1.11699080466401</v>
+      </c>
+      <c r="J23">
+        <v>0.6904590665431408</v>
+      </c>
+      <c r="K23">
+        <v>1.526267584329738</v>
+      </c>
+      <c r="L23">
+        <v>1.526267584329738</v>
+      </c>
+      <c r="M23">
+        <v>0.8507554068194179</v>
+      </c>
+      <c r="N23">
+        <v>1.11699080466401</v>
+      </c>
+      <c r="O23">
+        <v>0.6904590665431408</v>
+      </c>
+      <c r="P23">
+        <v>1.108363325436439</v>
+      </c>
+      <c r="Q23">
+        <v>0.8629261897439446</v>
+      </c>
+      <c r="R23">
+        <v>1.111239151845629</v>
+      </c>
+      <c r="S23">
+        <v>1.084039987939209</v>
+      </c>
+      <c r="T23">
+        <v>1.111239151845629</v>
+      </c>
+      <c r="U23">
+        <v>1.092277692120409</v>
+      </c>
+      <c r="V23">
+        <v>1.09722031462913</v>
+      </c>
+      <c r="W23">
+        <v>1.048872292295167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.010484817529409</v>
+      </c>
+      <c r="D24">
+        <v>0.8480083243235578</v>
+      </c>
+      <c r="E24">
+        <v>1.010380707912029</v>
+      </c>
+      <c r="F24">
+        <v>0.9351409646023666</v>
+      </c>
+      <c r="G24">
+        <v>1.003569769547607</v>
+      </c>
+      <c r="H24">
+        <v>1.003569769547607</v>
+      </c>
+      <c r="I24">
+        <v>1.003569769547607</v>
+      </c>
+      <c r="J24">
+        <v>1.053270246613401</v>
+      </c>
+      <c r="K24">
+        <v>0.8074113510347647</v>
+      </c>
+      <c r="L24">
+        <v>0.8074113510347647</v>
+      </c>
+      <c r="M24">
+        <v>1.217295016323791</v>
+      </c>
+      <c r="N24">
+        <v>1.003569769547607</v>
+      </c>
+      <c r="O24">
+        <v>1.053270246613401</v>
+      </c>
+      <c r="P24">
+        <v>0.9303407988240829</v>
+      </c>
+      <c r="Q24">
+        <v>1.031825477262715</v>
+      </c>
+      <c r="R24">
+        <v>0.9547504557319243</v>
+      </c>
+      <c r="S24">
+        <v>0.9570207685200649</v>
+      </c>
+      <c r="T24">
+        <v>0.9547504557319243</v>
+      </c>
+      <c r="U24">
+        <v>0.9686580187769505</v>
+      </c>
+      <c r="V24">
+        <v>0.9756403689310819</v>
+      </c>
+      <c r="W24">
+        <v>0.9856951497358659</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.041136374355129</v>
+      </c>
+      <c r="D25">
+        <v>1.210556466762628</v>
+      </c>
+      <c r="E25">
+        <v>0.9768003691381658</v>
+      </c>
+      <c r="F25">
+        <v>0.786329835412645</v>
+      </c>
+      <c r="G25">
+        <v>1.578475872977647</v>
+      </c>
+      <c r="H25">
+        <v>1.578475872977647</v>
+      </c>
+      <c r="I25">
+        <v>1.578475872977647</v>
+      </c>
+      <c r="J25">
+        <v>0.5341849361534837</v>
+      </c>
+      <c r="K25">
+        <v>1.440449686404931</v>
+      </c>
+      <c r="L25">
+        <v>1.440449686404931</v>
+      </c>
+      <c r="M25">
+        <v>0.8389755295940976</v>
+      </c>
+      <c r="N25">
+        <v>1.578475872977647</v>
+      </c>
+      <c r="O25">
+        <v>0.5341849361534837</v>
+      </c>
+      <c r="P25">
+        <v>0.9873173112792071</v>
+      </c>
+      <c r="Q25">
+        <v>0.7554926526458248</v>
+      </c>
+      <c r="R25">
+        <v>1.184370165178687</v>
+      </c>
+      <c r="S25">
+        <v>0.98381166389886</v>
+      </c>
+      <c r="T25">
+        <v>1.184370165178687</v>
+      </c>
+      <c r="U25">
+        <v>1.132477716168557</v>
+      </c>
+      <c r="V25">
+        <v>1.221677347530375</v>
+      </c>
+      <c r="W25">
+        <v>1.050863633849841</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.015387802006874</v>
+      </c>
+      <c r="D26">
+        <v>0.8880454304002154</v>
+      </c>
+      <c r="E26">
+        <v>1.046710292947735</v>
+      </c>
+      <c r="F26">
+        <v>1.059605845691872</v>
+      </c>
+      <c r="G26">
+        <v>0.7102682169571874</v>
+      </c>
+      <c r="H26">
+        <v>0.7102682169571874</v>
+      </c>
+      <c r="I26">
+        <v>0.7102682169571874</v>
+      </c>
+      <c r="J26">
+        <v>1.150125617032131</v>
+      </c>
+      <c r="K26">
+        <v>0.8745762512811038</v>
+      </c>
+      <c r="L26">
+        <v>0.8745762512811038</v>
+      </c>
+      <c r="M26">
+        <v>1.081311529761104</v>
+      </c>
+      <c r="N26">
+        <v>0.7102682169571874</v>
+      </c>
+      <c r="O26">
+        <v>1.150125617032131</v>
+      </c>
+      <c r="P26">
+        <v>1.012350934156617</v>
+      </c>
+      <c r="Q26">
+        <v>1.098417954989933</v>
+      </c>
+      <c r="R26">
+        <v>0.9116566950901408</v>
+      </c>
+      <c r="S26">
+        <v>1.023804053753657</v>
+      </c>
+      <c r="T26">
+        <v>0.9116566950901408</v>
+      </c>
+      <c r="U26">
+        <v>0.9454200945545392</v>
+      </c>
+      <c r="V26">
+        <v>0.8983897190350689</v>
+      </c>
+      <c r="W26">
+        <v>0.9782538732597778</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9601991765706627</v>
+      </c>
+      <c r="D27">
+        <v>0.923391638927975</v>
+      </c>
+      <c r="E27">
+        <v>0.8810148527434475</v>
+      </c>
+      <c r="F27">
+        <v>1.0300893289662</v>
+      </c>
+      <c r="G27">
+        <v>1.16721969902503</v>
+      </c>
+      <c r="H27">
+        <v>1.16721969902503</v>
+      </c>
+      <c r="I27">
+        <v>1.16721969902503</v>
+      </c>
+      <c r="J27">
+        <v>0.9248947266698714</v>
+      </c>
+      <c r="K27">
+        <v>1.139533613708962</v>
+      </c>
+      <c r="L27">
+        <v>1.139533613708962</v>
+      </c>
+      <c r="M27">
+        <v>1.028329068319012</v>
+      </c>
+      <c r="N27">
+        <v>1.16721969902503</v>
+      </c>
+      <c r="O27">
+        <v>0.9248947266698714</v>
+      </c>
+      <c r="P27">
+        <v>1.032214170189417</v>
+      </c>
+      <c r="Q27">
+        <v>0.9029547897066594</v>
+      </c>
+      <c r="R27">
+        <v>1.077216013134621</v>
+      </c>
+      <c r="S27">
+        <v>0.9818143977074271</v>
+      </c>
+      <c r="T27">
+        <v>1.077216013134621</v>
+      </c>
+      <c r="U27">
+        <v>1.028165723036828</v>
+      </c>
+      <c r="V27">
+        <v>1.055976518234468</v>
+      </c>
+      <c r="W27">
+        <v>1.006834013116395</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.113589766783272</v>
+      </c>
+      <c r="D28">
+        <v>0.7952330968881779</v>
+      </c>
+      <c r="E28">
+        <v>1.033441328903443</v>
+      </c>
+      <c r="F28">
+        <v>1.212271154964766</v>
+      </c>
+      <c r="G28">
+        <v>1.196543162745848</v>
+      </c>
+      <c r="H28">
+        <v>1.196543162745848</v>
+      </c>
+      <c r="I28">
+        <v>1.196543162745848</v>
+      </c>
+      <c r="J28">
+        <v>0.9136697109278663</v>
+      </c>
+      <c r="K28">
+        <v>0.7707884210560237</v>
+      </c>
+      <c r="L28">
+        <v>0.7707884210560237</v>
+      </c>
+      <c r="M28">
+        <v>0.9317898461780962</v>
+      </c>
+      <c r="N28">
+        <v>1.196543162745848</v>
+      </c>
+      <c r="O28">
+        <v>0.9136697109278663</v>
+      </c>
+      <c r="P28">
+        <v>0.842229065991945</v>
+      </c>
+      <c r="Q28">
+        <v>0.9735555199156545</v>
+      </c>
+      <c r="R28">
+        <v>0.9603337649099126</v>
+      </c>
+      <c r="S28">
+        <v>0.9059664869624443</v>
+      </c>
+      <c r="T28">
+        <v>0.9603337649099126</v>
+      </c>
+      <c r="U28">
+        <v>0.9786106559082952</v>
+      </c>
+      <c r="V28">
+        <v>1.022197157275806</v>
+      </c>
+      <c r="W28">
+        <v>0.9959158110559365</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.434933761042172</v>
+      </c>
+      <c r="D29">
+        <v>0.7185817355205814</v>
+      </c>
+      <c r="E29">
+        <v>1.272992228463027</v>
+      </c>
+      <c r="F29">
+        <v>1.223818482429671</v>
+      </c>
+      <c r="G29">
+        <v>1.085414146119072</v>
+      </c>
+      <c r="H29">
+        <v>1.085414146119072</v>
+      </c>
+      <c r="I29">
+        <v>1.085414146119072</v>
+      </c>
+      <c r="J29">
+        <v>0.5368864095795753</v>
+      </c>
+      <c r="K29">
+        <v>0.5613535121170528</v>
+      </c>
+      <c r="L29">
+        <v>0.5613535121170528</v>
+      </c>
+      <c r="M29">
+        <v>0.8995686629137188</v>
+      </c>
+      <c r="N29">
+        <v>1.085414146119072</v>
+      </c>
+      <c r="O29">
+        <v>0.5368864095795753</v>
+      </c>
+      <c r="P29">
+        <v>0.549119960848314</v>
+      </c>
+      <c r="Q29">
+        <v>0.9049393190213011</v>
+      </c>
+      <c r="R29">
+        <v>0.7278846892719001</v>
+      </c>
+      <c r="S29">
+        <v>0.7904107167198849</v>
+      </c>
+      <c r="T29">
+        <v>0.7278846892719001</v>
+      </c>
+      <c r="U29">
+        <v>0.8641615740696817</v>
+      </c>
+      <c r="V29">
+        <v>0.9084120884795599</v>
+      </c>
+      <c r="W29">
+        <v>0.9666936172731089</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/SA-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/SA-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8517588439382799</v>
+        <v>0.8913938261148956</v>
       </c>
       <c r="D4">
-        <v>1.063384020310425</v>
+        <v>1.064403574456597</v>
       </c>
       <c r="E4">
-        <v>0.9399590064455908</v>
+        <v>0.9805561914844311</v>
       </c>
       <c r="F4">
-        <v>1.115477640568907</v>
+        <v>1.073846154679323</v>
       </c>
       <c r="G4">
-        <v>1.121773016118908</v>
+        <v>0.9909301033071435</v>
       </c>
       <c r="H4">
-        <v>1.121773016118908</v>
+        <v>0.9909301033071435</v>
       </c>
       <c r="I4">
-        <v>1.121773016118908</v>
+        <v>0.9909301033071435</v>
       </c>
       <c r="J4">
-        <v>1.020133141128997</v>
+        <v>1.008163220043487</v>
       </c>
       <c r="K4">
-        <v>0.8051326476675793</v>
+        <v>0.8452496542632355</v>
       </c>
       <c r="L4">
-        <v>0.8051326476675793</v>
+        <v>0.8452496542632355</v>
       </c>
       <c r="M4">
-        <v>0.9289826895838499</v>
+        <v>0.9608016424108297</v>
       </c>
       <c r="N4">
-        <v>1.121773016118908</v>
+        <v>0.9909301033071435</v>
       </c>
       <c r="O4">
-        <v>1.020133141128997</v>
+        <v>1.008163220043487</v>
       </c>
       <c r="P4">
-        <v>0.9126328943982882</v>
+        <v>0.9267064371533613</v>
       </c>
       <c r="Q4">
-        <v>0.980046073787294</v>
+        <v>0.994359705763959</v>
       </c>
       <c r="R4">
-        <v>0.9823462683051615</v>
+        <v>0.9481143258712886</v>
       </c>
       <c r="S4">
-        <v>0.9217415984140557</v>
+        <v>0.9446563552637178</v>
       </c>
       <c r="T4">
-        <v>0.9823462683051615</v>
+        <v>0.9481143258712886</v>
       </c>
       <c r="U4">
-        <v>0.9717494528402688</v>
+        <v>0.9562247922745742</v>
       </c>
       <c r="V4">
-        <v>1.001754165495997</v>
+        <v>0.963165854481088</v>
       </c>
       <c r="W4">
-        <v>0.9808251257203171</v>
+        <v>0.9769180458449929</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8616585779099439</v>
+        <v>0.6063303622464423</v>
       </c>
       <c r="D5">
-        <v>1.082349973393372</v>
+        <v>0.8890131037890022</v>
       </c>
       <c r="E5">
-        <v>0.9699575335230537</v>
+        <v>0.6743465203917202</v>
       </c>
       <c r="F5">
-        <v>1.087822276700288</v>
+        <v>1.328028182804382</v>
       </c>
       <c r="G5">
-        <v>1.00716922834863</v>
+        <v>1.449636481447839</v>
       </c>
       <c r="H5">
-        <v>1.00716922834863</v>
+        <v>1.449636481447839</v>
       </c>
       <c r="I5">
-        <v>1.00716922834863</v>
+        <v>1.449636481447839</v>
       </c>
       <c r="J5">
-        <v>0.9909400529488483</v>
+        <v>1.146176879462884</v>
       </c>
       <c r="K5">
-        <v>0.8009174915544769</v>
+        <v>0.2053338392415246</v>
       </c>
       <c r="L5">
-        <v>0.8009174915544769</v>
+        <v>0.2053338392415246</v>
       </c>
       <c r="M5">
-        <v>0.9521607082146945</v>
+        <v>1.11490885669172</v>
       </c>
       <c r="N5">
-        <v>1.00716922834863</v>
+        <v>1.449636481447839</v>
       </c>
       <c r="O5">
-        <v>0.9909400529488483</v>
+        <v>1.146176879462884</v>
       </c>
       <c r="P5">
-        <v>0.8959287722516627</v>
+        <v>0.6757553593522042</v>
       </c>
       <c r="Q5">
-        <v>0.980448793235951</v>
+        <v>0.9102616999273019</v>
       </c>
       <c r="R5">
-        <v>0.9330089242839851</v>
+        <v>0.9337157333840823</v>
       </c>
       <c r="S5">
-        <v>0.920605026008793</v>
+        <v>0.6752857463653762</v>
       </c>
       <c r="T5">
-        <v>0.9330089242839851</v>
+        <v>0.9337157333840823</v>
       </c>
       <c r="U5">
-        <v>0.9422460765937523</v>
+        <v>0.8688734301359918</v>
       </c>
       <c r="V5">
-        <v>0.9552307069447277</v>
+        <v>0.9850260403983612</v>
       </c>
       <c r="W5">
-        <v>0.9691219803241634</v>
+        <v>0.9267217782594392</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.5078783235314903</v>
+        <v>0.8517588439382799</v>
       </c>
       <c r="D6">
-        <v>1.378964038726094</v>
+        <v>1.063384020310425</v>
       </c>
       <c r="E6">
-        <v>0.9129820740257959</v>
+        <v>0.9399590064455908</v>
       </c>
       <c r="F6">
-        <v>1.344692464690705</v>
+        <v>1.115477640568907</v>
       </c>
       <c r="G6">
-        <v>0.6890835318725309</v>
+        <v>1.121773016118908</v>
       </c>
       <c r="H6">
-        <v>0.6890835318725309</v>
+        <v>1.121773016118908</v>
       </c>
       <c r="I6">
-        <v>0.6890835318725309</v>
+        <v>1.121773016118908</v>
       </c>
       <c r="J6">
-        <v>0.8044690155992474</v>
+        <v>1.020133141128997</v>
       </c>
       <c r="K6">
-        <v>0.4237496077148585</v>
+        <v>0.8051326476675793</v>
       </c>
       <c r="L6">
-        <v>0.4237496077148585</v>
+        <v>0.8051326476675793</v>
       </c>
       <c r="M6">
-        <v>0.7362563411081109</v>
+        <v>0.9289826895838499</v>
       </c>
       <c r="N6">
-        <v>0.6890835318725309</v>
+        <v>1.121773016118908</v>
       </c>
       <c r="O6">
-        <v>0.8044690155992474</v>
+        <v>1.020133141128997</v>
       </c>
       <c r="P6">
-        <v>0.614109311657053</v>
+        <v>0.9126328943982882</v>
       </c>
       <c r="Q6">
-        <v>0.8587255448125217</v>
+        <v>0.980046073787294</v>
       </c>
       <c r="R6">
-        <v>0.6391007183955456</v>
+        <v>0.9823462683051615</v>
       </c>
       <c r="S6">
-        <v>0.7137335657799673</v>
+        <v>0.9217415984140557</v>
       </c>
       <c r="T6">
-        <v>0.6391007183955456</v>
+        <v>0.9823462683051615</v>
       </c>
       <c r="U6">
-        <v>0.7075710573031082</v>
+        <v>0.9717494528402688</v>
       </c>
       <c r="V6">
-        <v>0.7038735522169928</v>
+        <v>1.001754165495997</v>
       </c>
       <c r="W6">
-        <v>0.849759424658604</v>
+        <v>0.9808251257203171</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9872895600799918</v>
+        <v>0.8616585779099439</v>
       </c>
       <c r="D7">
-        <v>1.002793800868001</v>
+        <v>1.082349973393372</v>
       </c>
       <c r="E7">
-        <v>0.9914925118934795</v>
+        <v>0.9699575335230537</v>
       </c>
       <c r="F7">
-        <v>1.002065120720584</v>
+        <v>1.087822276700288</v>
       </c>
       <c r="G7">
-        <v>1.029595654090568</v>
+        <v>1.00716922834863</v>
       </c>
       <c r="H7">
-        <v>1.029595654090568</v>
+        <v>1.00716922834863</v>
       </c>
       <c r="I7">
-        <v>1.029595654090568</v>
+        <v>1.00716922834863</v>
       </c>
       <c r="J7">
-        <v>0.9898540267451656</v>
+        <v>0.9909400529488483</v>
       </c>
       <c r="K7">
-        <v>0.9683125544788916</v>
+        <v>0.8009174915544769</v>
       </c>
       <c r="L7">
-        <v>0.9683125544788916</v>
+        <v>0.8009174915544769</v>
       </c>
       <c r="M7">
-        <v>1.004991481674402</v>
+        <v>0.9521607082146945</v>
       </c>
       <c r="N7">
-        <v>1.029595654090568</v>
+        <v>1.00716922834863</v>
       </c>
       <c r="O7">
-        <v>0.9898540267451656</v>
+        <v>0.9909400529488483</v>
       </c>
       <c r="P7">
-        <v>0.9790832906120286</v>
+        <v>0.8959287722516627</v>
       </c>
       <c r="Q7">
-        <v>0.9906732693193225</v>
+        <v>0.980448793235951</v>
       </c>
       <c r="R7">
-        <v>0.9959207451048749</v>
+        <v>0.9330089242839851</v>
       </c>
       <c r="S7">
-        <v>0.9832196977058456</v>
+        <v>0.920605026008793</v>
       </c>
       <c r="T7">
-        <v>0.9959207451048749</v>
+        <v>0.9330089242839851</v>
       </c>
       <c r="U7">
-        <v>0.9948136868020261</v>
+        <v>0.9422460765937523</v>
       </c>
       <c r="V7">
-        <v>1.001770080259734</v>
+        <v>0.9552307069447277</v>
       </c>
       <c r="W7">
-        <v>0.9970493388188854</v>
+        <v>0.9691219803241634</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9965388071352881</v>
+        <v>0.5078783235314903</v>
       </c>
       <c r="D8">
-        <v>1.001487231456273</v>
+        <v>1.378964038726094</v>
       </c>
       <c r="E8">
-        <v>1.000946005549058</v>
+        <v>0.9129820740257959</v>
       </c>
       <c r="F8">
-        <v>0.9976659926894591</v>
+        <v>1.344692464690705</v>
       </c>
       <c r="G8">
-        <v>1.000253679510076</v>
+        <v>0.6890835318725309</v>
       </c>
       <c r="H8">
-        <v>1.000253679510076</v>
+        <v>0.6890835318725309</v>
       </c>
       <c r="I8">
-        <v>1.000253679510076</v>
+        <v>0.6890835318725309</v>
       </c>
       <c r="J8">
-        <v>1.001837648753831</v>
+        <v>0.8044690155992474</v>
       </c>
       <c r="K8">
-        <v>0.9992657272407295</v>
+        <v>0.4237496077148585</v>
       </c>
       <c r="L8">
-        <v>0.9992657272407295</v>
+        <v>0.4237496077148585</v>
       </c>
       <c r="M8">
-        <v>1.003217031350375</v>
+        <v>0.7362563411081109</v>
       </c>
       <c r="N8">
-        <v>1.000253679510076</v>
+        <v>0.6890835318725309</v>
       </c>
       <c r="O8">
-        <v>1.001837648753831</v>
+        <v>0.8044690155992474</v>
       </c>
       <c r="P8">
-        <v>1.00055168799728</v>
+        <v>0.614109311657053</v>
       </c>
       <c r="Q8">
-        <v>1.001391827151445</v>
+        <v>0.8587255448125217</v>
       </c>
       <c r="R8">
-        <v>1.000452351834879</v>
+        <v>0.6391007183955456</v>
       </c>
       <c r="S8">
-        <v>1.000683127181206</v>
+        <v>0.7137335657799673</v>
       </c>
       <c r="T8">
-        <v>1.000452351834879</v>
+        <v>0.6391007183955456</v>
       </c>
       <c r="U8">
-        <v>1.000575765263424</v>
+        <v>0.7075710573031082</v>
       </c>
       <c r="V8">
-        <v>1.000511348112754</v>
+        <v>0.7038735522169928</v>
       </c>
       <c r="W8">
-        <v>1.000151515460636</v>
+        <v>0.849759424658604</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9762117737015955</v>
+        <v>0.9872895600799918</v>
       </c>
       <c r="D9">
-        <v>1.004086679286821</v>
+        <v>1.002793800868001</v>
       </c>
       <c r="E9">
-        <v>0.9852569518642905</v>
+        <v>0.9914925118934795</v>
       </c>
       <c r="F9">
-        <v>1.004304202202002</v>
+        <v>1.002065120720584</v>
       </c>
       <c r="G9">
-        <v>1.039481712045323</v>
+        <v>1.029595654090568</v>
       </c>
       <c r="H9">
-        <v>1.039481712045323</v>
+        <v>1.029595654090568</v>
       </c>
       <c r="I9">
-        <v>1.039481712045323</v>
+        <v>1.029595654090568</v>
       </c>
       <c r="J9">
-        <v>0.9835731654808404</v>
+        <v>0.9898540267451656</v>
       </c>
       <c r="K9">
-        <v>0.9459411958895237</v>
+        <v>0.9683125544788916</v>
       </c>
       <c r="L9">
-        <v>0.9459411958895237</v>
+        <v>0.9683125544788916</v>
       </c>
       <c r="M9">
-        <v>1.012129349894452</v>
+        <v>1.004991481674402</v>
       </c>
       <c r="N9">
-        <v>1.039481712045323</v>
+        <v>1.029595654090568</v>
       </c>
       <c r="O9">
-        <v>0.9835731654808404</v>
+        <v>0.9898540267451656</v>
       </c>
       <c r="P9">
-        <v>0.964757180685182</v>
+        <v>0.9790832906120286</v>
       </c>
       <c r="Q9">
-        <v>0.9844150586725655</v>
+        <v>0.9906732693193225</v>
       </c>
       <c r="R9">
-        <v>0.9896653578052289</v>
+        <v>0.9959207451048749</v>
       </c>
       <c r="S9">
-        <v>0.9715904377448848</v>
+        <v>0.9832196977058456</v>
       </c>
       <c r="T9">
-        <v>0.9896653578052289</v>
+        <v>0.9959207451048749</v>
       </c>
       <c r="U9">
-        <v>0.9885632563199943</v>
+        <v>0.9948136868020261</v>
       </c>
       <c r="V9">
-        <v>0.9987469474650599</v>
+        <v>1.001770080259734</v>
       </c>
       <c r="W9">
-        <v>0.993873128795606</v>
+        <v>0.9970493388188854</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.4997076018098052</v>
+        <v>0.9965388071352881</v>
       </c>
       <c r="D10">
-        <v>1.388271883793507</v>
+        <v>1.001487231456273</v>
       </c>
       <c r="E10">
-        <v>0.9183244832185233</v>
+        <v>1.000946005549058</v>
       </c>
       <c r="F10">
-        <v>1.346634258283066</v>
+        <v>0.9976659926894591</v>
       </c>
       <c r="G10">
-        <v>0.6788853167362303</v>
+        <v>1.000253679510076</v>
       </c>
       <c r="H10">
-        <v>0.6788853167362303</v>
+        <v>1.000253679510076</v>
       </c>
       <c r="I10">
-        <v>0.6788853167362303</v>
+        <v>1.000253679510076</v>
       </c>
       <c r="J10">
-        <v>0.7947546501821317</v>
+        <v>1.001837648753831</v>
       </c>
       <c r="K10">
-        <v>0.4034084581922302</v>
+        <v>0.9992657272407295</v>
       </c>
       <c r="L10">
-        <v>0.4034084581922302</v>
+        <v>0.9992657272407295</v>
       </c>
       <c r="M10">
-        <v>0.7366351770368206</v>
+        <v>1.003217031350375</v>
       </c>
       <c r="N10">
-        <v>0.6788853167362303</v>
+        <v>1.000253679510076</v>
       </c>
       <c r="O10">
-        <v>0.7947546501821317</v>
+        <v>1.001837648753831</v>
       </c>
       <c r="P10">
-        <v>0.5990815541871809</v>
+        <v>1.00055168799728</v>
       </c>
       <c r="Q10">
-        <v>0.8565395667003275</v>
+        <v>1.001391827151445</v>
       </c>
       <c r="R10">
-        <v>0.6256828083701974</v>
+        <v>1.000452351834879</v>
       </c>
       <c r="S10">
-        <v>0.7054958638642951</v>
+        <v>1.000683127181206</v>
       </c>
       <c r="T10">
-        <v>0.6256828083701974</v>
+        <v>1.000452351834879</v>
       </c>
       <c r="U10">
-        <v>0.6988432270822789</v>
+        <v>1.000575765263424</v>
       </c>
       <c r="V10">
-        <v>0.6948516450130692</v>
+        <v>1.000511348112754</v>
       </c>
       <c r="W10">
-        <v>0.8458277286565392</v>
+        <v>1.000151515460636</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9291251859951412</v>
+        <v>0.9762117737015955</v>
       </c>
       <c r="D11">
-        <v>1.077245649343046</v>
+        <v>1.004086679286821</v>
       </c>
       <c r="E11">
-        <v>0.9889900242541831</v>
+        <v>0.9852569518642905</v>
       </c>
       <c r="F11">
-        <v>1.103048546339144</v>
+        <v>1.004304202202002</v>
       </c>
       <c r="G11">
-        <v>0.9518236976823181</v>
+        <v>1.039481712045323</v>
       </c>
       <c r="H11">
-        <v>0.9518236976823181</v>
+        <v>1.039481712045323</v>
       </c>
       <c r="I11">
-        <v>0.9518236976823181</v>
+        <v>1.039481712045323</v>
       </c>
       <c r="J11">
-        <v>1.012088944983497</v>
+        <v>0.9835731654808404</v>
       </c>
       <c r="K11">
-        <v>0.9570621675747396</v>
+        <v>0.9459411958895237</v>
       </c>
       <c r="L11">
-        <v>0.9570621675747396</v>
+        <v>0.9459411958895237</v>
       </c>
       <c r="M11">
-        <v>0.9008141409332754</v>
+        <v>1.012129349894452</v>
       </c>
       <c r="N11">
-        <v>0.9518236976823181</v>
+        <v>1.039481712045323</v>
       </c>
       <c r="O11">
-        <v>1.012088944983497</v>
+        <v>0.9835731654808404</v>
       </c>
       <c r="P11">
-        <v>0.9845755562791181</v>
+        <v>0.964757180685182</v>
       </c>
       <c r="Q11">
-        <v>1.00053948461884</v>
+        <v>0.9844150586725655</v>
       </c>
       <c r="R11">
-        <v>0.9736582700801848</v>
+        <v>0.9896653578052289</v>
       </c>
       <c r="S11">
-        <v>0.9860470456041398</v>
+        <v>0.9715904377448848</v>
       </c>
       <c r="T11">
-        <v>0.9736582700801848</v>
+        <v>0.9896653578052289</v>
       </c>
       <c r="U11">
-        <v>0.9774912086236844</v>
+        <v>0.9885632563199943</v>
       </c>
       <c r="V11">
-        <v>0.9723577064354112</v>
+        <v>0.9987469474650599</v>
       </c>
       <c r="W11">
-        <v>0.9900247946381681</v>
+        <v>0.993873128795606</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8531764907578956</v>
+        <v>0.4997076018098052</v>
       </c>
       <c r="D12">
-        <v>1.092026461073684</v>
+        <v>1.388271883793507</v>
       </c>
       <c r="E12">
-        <v>0.9801807238105261</v>
+        <v>0.9183244832185233</v>
       </c>
       <c r="F12">
-        <v>1.088435167568421</v>
+        <v>1.346634258283066</v>
       </c>
       <c r="G12">
-        <v>0.9636229743053657</v>
+        <v>0.6788853167362303</v>
       </c>
       <c r="H12">
-        <v>0.9636229743053657</v>
+        <v>0.6788853167362303</v>
       </c>
       <c r="I12">
-        <v>0.9636229743053657</v>
+        <v>0.6788853167362303</v>
       </c>
       <c r="J12">
-        <v>0.9688389514473683</v>
+        <v>0.7947546501821317</v>
       </c>
       <c r="K12">
-        <v>0.7838774836560001</v>
+        <v>0.4034084581922302</v>
       </c>
       <c r="L12">
-        <v>0.7838774836560001</v>
+        <v>0.4034084581922302</v>
       </c>
       <c r="M12">
-        <v>0.9582893362421041</v>
+        <v>0.7366351770368206</v>
       </c>
       <c r="N12">
-        <v>0.9636229743053657</v>
+        <v>0.6788853167362303</v>
       </c>
       <c r="O12">
-        <v>0.9688389514473683</v>
+        <v>0.7947546501821317</v>
       </c>
       <c r="P12">
-        <v>0.8763582175516842</v>
+        <v>0.5990815541871809</v>
       </c>
       <c r="Q12">
-        <v>0.9745098376289472</v>
+        <v>0.8565395667003275</v>
       </c>
       <c r="R12">
-        <v>0.9054464698029113</v>
+        <v>0.6256828083701974</v>
       </c>
       <c r="S12">
-        <v>0.9109657196379648</v>
+        <v>0.7054958638642951</v>
       </c>
       <c r="T12">
-        <v>0.9054464698029113</v>
+        <v>0.6256828083701974</v>
       </c>
       <c r="U12">
-        <v>0.924130033304815</v>
+        <v>0.6988432270822789</v>
       </c>
       <c r="V12">
-        <v>0.932028621504925</v>
+        <v>0.6948516450130692</v>
       </c>
       <c r="W12">
-        <v>0.9610559486076706</v>
+        <v>0.8458277286565392</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.084802360206074</v>
+        <v>0.9291251859951412</v>
       </c>
       <c r="D13">
-        <v>0.9679369641928526</v>
+        <v>1.077245649343046</v>
       </c>
       <c r="E13">
-        <v>1.045716550664537</v>
+        <v>0.9889900242541831</v>
       </c>
       <c r="F13">
-        <v>0.9378020797330487</v>
+        <v>1.103048546339144</v>
       </c>
       <c r="G13">
-        <v>0.9444415930157244</v>
+        <v>0.9518236976823181</v>
       </c>
       <c r="H13">
-        <v>0.9444415930157244</v>
+        <v>0.9518236976823181</v>
       </c>
       <c r="I13">
-        <v>0.9444415930157244</v>
+        <v>0.9518236976823181</v>
       </c>
       <c r="J13">
-        <v>0.9453598009131896</v>
+        <v>1.012088944983497</v>
       </c>
       <c r="K13">
-        <v>1.07154081820489</v>
+        <v>0.9570621675747396</v>
       </c>
       <c r="L13">
-        <v>1.07154081820489</v>
+        <v>0.9570621675747396</v>
       </c>
       <c r="M13">
-        <v>1.04353551595399</v>
+        <v>0.9008141409332754</v>
       </c>
       <c r="N13">
-        <v>0.9444415930157244</v>
+        <v>0.9518236976823181</v>
       </c>
       <c r="O13">
-        <v>0.9453598009131896</v>
+        <v>1.012088944983497</v>
       </c>
       <c r="P13">
-        <v>1.00845030955904</v>
+        <v>0.9845755562791181</v>
       </c>
       <c r="Q13">
-        <v>0.9955381757888635</v>
+        <v>1.00053948461884</v>
       </c>
       <c r="R13">
-        <v>0.9871140707112679</v>
+        <v>0.9736582700801848</v>
       </c>
       <c r="S13">
-        <v>1.020872389927539</v>
+        <v>0.9860470456041398</v>
       </c>
       <c r="T13">
-        <v>0.987114070711268</v>
+        <v>0.9736582700801848</v>
       </c>
       <c r="U13">
-        <v>1.001764690699585</v>
+        <v>0.9774912086236844</v>
       </c>
       <c r="V13">
-        <v>0.9903000711628132</v>
+        <v>0.9723577064354112</v>
       </c>
       <c r="W13">
-        <v>1.005141960360538</v>
+        <v>0.9900247946381681</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.1250664500000001</v>
+        <v>0.8531764907578956</v>
       </c>
       <c r="D14">
-        <v>1.690899200000001</v>
+        <v>1.092026461073684</v>
       </c>
       <c r="E14">
-        <v>0.8444181999999999</v>
+        <v>0.9801807238105261</v>
       </c>
       <c r="F14">
-        <v>1.618994999999999</v>
+        <v>1.088435167568421</v>
       </c>
       <c r="G14">
-        <v>0.3721459699999993</v>
+        <v>0.9636229743053657</v>
       </c>
       <c r="H14">
-        <v>0.3721459699999993</v>
+        <v>0.9636229743053657</v>
       </c>
       <c r="I14">
-        <v>0.3721459699999993</v>
+        <v>0.9636229743053657</v>
       </c>
       <c r="J14">
-        <v>0.60377207</v>
+        <v>0.9688389514473683</v>
       </c>
       <c r="K14">
-        <v>0.002395270000000003</v>
+        <v>0.7838774836560001</v>
       </c>
       <c r="L14">
-        <v>0.002395270000000003</v>
+        <v>0.7838774836560001</v>
       </c>
       <c r="M14">
-        <v>0.5142619599999995</v>
+        <v>0.9582893362421041</v>
       </c>
       <c r="N14">
-        <v>0.3721459699999993</v>
+        <v>0.9636229743053657</v>
       </c>
       <c r="O14">
-        <v>0.60377207</v>
+        <v>0.9688389514473683</v>
       </c>
       <c r="P14">
-        <v>0.30308367</v>
+        <v>0.8763582175516842</v>
       </c>
       <c r="Q14">
-        <v>0.724095135</v>
+        <v>0.9745098376289472</v>
       </c>
       <c r="R14">
-        <v>0.3261044366666664</v>
+        <v>0.9054464698029113</v>
       </c>
       <c r="S14">
-        <v>0.4835285133333333</v>
+        <v>0.9109657196379648</v>
       </c>
       <c r="T14">
-        <v>0.3261044366666664</v>
+        <v>0.9054464698029113</v>
       </c>
       <c r="U14">
-        <v>0.4556828774999998</v>
+        <v>0.924130033304815</v>
       </c>
       <c r="V14">
-        <v>0.4389754959999997</v>
+        <v>0.932028621504925</v>
       </c>
       <c r="W14">
-        <v>0.7214942649999998</v>
+        <v>0.9610559486076706</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.062230451</v>
+        <v>1.084802360206074</v>
       </c>
       <c r="D15">
-        <v>2.826607699999999</v>
+        <v>0.9679369641928526</v>
       </c>
       <c r="E15">
-        <v>0.7729728300000001</v>
+        <v>1.045716550664537</v>
       </c>
       <c r="F15">
-        <v>0.99995383</v>
+        <v>0.9378020797330487</v>
       </c>
       <c r="G15">
-        <v>1.913908</v>
+        <v>0.9444415930157244</v>
       </c>
       <c r="H15">
-        <v>1.913908</v>
+        <v>0.9444415930157244</v>
       </c>
       <c r="I15">
-        <v>1.913908</v>
+        <v>0.9444415930157244</v>
       </c>
       <c r="J15">
-        <v>0.09556448200000001</v>
+        <v>0.9453598009131896</v>
       </c>
       <c r="K15">
-        <v>-0.0012267103</v>
+        <v>1.07154081820489</v>
       </c>
       <c r="L15">
-        <v>-0.0012267103</v>
+        <v>1.07154081820489</v>
       </c>
       <c r="M15">
-        <v>0.08389542799999999</v>
+        <v>1.04353551595399</v>
       </c>
       <c r="N15">
-        <v>1.913908</v>
+        <v>0.9444415930157244</v>
       </c>
       <c r="O15">
-        <v>0.09556448200000001</v>
+        <v>0.9453598009131896</v>
       </c>
       <c r="P15">
-        <v>0.04716888585</v>
+        <v>1.00845030955904</v>
       </c>
       <c r="Q15">
-        <v>0.434268656</v>
+        <v>0.9955381757888635</v>
       </c>
       <c r="R15">
-        <v>0.6694152572333333</v>
+        <v>0.9871140707112679</v>
       </c>
       <c r="S15">
-        <v>0.2891035339</v>
+        <v>1.020872389927539</v>
       </c>
       <c r="T15">
-        <v>0.6694152572333333</v>
+        <v>0.987114070711268</v>
       </c>
       <c r="U15">
-        <v>0.695304650425</v>
+        <v>1.001764690699585</v>
       </c>
       <c r="V15">
-        <v>0.9390253203400001</v>
+        <v>0.9903000711628132</v>
       </c>
       <c r="W15">
-        <v>0.8442382513375</v>
+        <v>1.005141960360538</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.0289053</v>
+        <v>0.1250664500000001</v>
       </c>
       <c r="D16">
-        <v>1.4482004</v>
+        <v>1.690899200000001</v>
       </c>
       <c r="E16">
-        <v>0.37231391</v>
+        <v>0.8444181999999999</v>
       </c>
       <c r="F16">
-        <v>2.3464701</v>
+        <v>1.618994999999999</v>
       </c>
       <c r="G16">
-        <v>1.0627484</v>
+        <v>0.3721459699999993</v>
       </c>
       <c r="H16">
-        <v>1.0627484</v>
+        <v>0.3721459699999993</v>
       </c>
       <c r="I16">
-        <v>1.0627484</v>
+        <v>0.3721459699999993</v>
       </c>
       <c r="J16">
-        <v>0.57031013</v>
+        <v>0.60377207</v>
       </c>
       <c r="K16">
-        <v>-0.0026079641</v>
+        <v>0.002395270000000003</v>
       </c>
       <c r="L16">
-        <v>-0.0026079641</v>
+        <v>0.002395270000000003</v>
       </c>
       <c r="M16">
-        <v>0.18297177</v>
+        <v>0.5142619599999995</v>
       </c>
       <c r="N16">
-        <v>1.0627484</v>
+        <v>0.3721459699999993</v>
       </c>
       <c r="O16">
-        <v>0.57031013</v>
+        <v>0.60377207</v>
       </c>
       <c r="P16">
-        <v>0.28385108295</v>
+        <v>0.30308367</v>
       </c>
       <c r="Q16">
-        <v>0.47131202</v>
+        <v>0.724095135</v>
       </c>
       <c r="R16">
-        <v>0.5434835219666666</v>
+        <v>0.3261044366666664</v>
       </c>
       <c r="S16">
-        <v>0.3133386919666667</v>
+        <v>0.4835285133333333</v>
       </c>
       <c r="T16">
-        <v>0.5434835219666666</v>
+        <v>0.3261044366666664</v>
       </c>
       <c r="U16">
-        <v>0.500691118975</v>
+        <v>0.4556828774999998</v>
       </c>
       <c r="V16">
-        <v>0.6131025751799999</v>
+        <v>0.4389754959999997</v>
       </c>
       <c r="W16">
-        <v>0.7511640057375</v>
+        <v>0.7214942649999998</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.90363594</v>
+        <v>0.062230451</v>
       </c>
       <c r="D17">
-        <v>0.7938472600000001</v>
+        <v>2.826607699999999</v>
       </c>
       <c r="E17">
-        <v>0.9695692299999998</v>
+        <v>0.7729728300000001</v>
       </c>
       <c r="F17">
-        <v>1.0837992</v>
+        <v>0.99995383</v>
       </c>
       <c r="G17">
-        <v>1.881306</v>
+        <v>1.913908</v>
       </c>
       <c r="H17">
-        <v>1.881306</v>
+        <v>1.913908</v>
       </c>
       <c r="I17">
-        <v>1.881306</v>
+        <v>1.913908</v>
       </c>
       <c r="J17">
-        <v>0.16949639</v>
+        <v>0.09556448200000001</v>
       </c>
       <c r="K17">
-        <v>0.18124095</v>
+        <v>-0.0012267103</v>
       </c>
       <c r="L17">
-        <v>0.18124095</v>
+        <v>-0.0012267103</v>
       </c>
       <c r="M17">
-        <v>1.1129315</v>
+        <v>0.08389542799999999</v>
       </c>
       <c r="N17">
-        <v>1.881306</v>
+        <v>1.913908</v>
       </c>
       <c r="O17">
-        <v>0.16949639</v>
+        <v>0.09556448200000001</v>
       </c>
       <c r="P17">
-        <v>0.17536867</v>
+        <v>0.04716888585</v>
       </c>
       <c r="Q17">
-        <v>0.5695328099999999</v>
+        <v>0.434268656</v>
       </c>
       <c r="R17">
-        <v>0.7440144466666666</v>
+        <v>0.6694152572333333</v>
       </c>
       <c r="S17">
-        <v>0.4401021899999999</v>
+        <v>0.2891035339</v>
       </c>
       <c r="T17">
-        <v>0.7440144466666666</v>
+        <v>0.6694152572333333</v>
       </c>
       <c r="U17">
-        <v>0.8004031424999999</v>
+        <v>0.695304650425</v>
       </c>
       <c r="V17">
-        <v>1.016583714</v>
+        <v>0.9390253203400001</v>
       </c>
       <c r="W17">
-        <v>0.8869783087499999</v>
+        <v>0.8442382513375</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.7196994528904109</v>
+        <v>0.0289053</v>
       </c>
       <c r="D18">
-        <v>1.082589172328768</v>
+        <v>1.4482004</v>
       </c>
       <c r="E18">
-        <v>0.8295555247945203</v>
+        <v>0.37231391</v>
       </c>
       <c r="F18">
-        <v>1.035949045616438</v>
+        <v>2.3464701</v>
       </c>
       <c r="G18">
-        <v>1.508549973632877</v>
+        <v>1.0627484</v>
       </c>
       <c r="H18">
-        <v>1.508549973632877</v>
+        <v>1.0627484</v>
       </c>
       <c r="I18">
-        <v>1.508549973632877</v>
+        <v>1.0627484</v>
       </c>
       <c r="J18">
-        <v>0.8187743380547948</v>
+        <v>0.57031013</v>
       </c>
       <c r="K18">
-        <v>0.3408706750676713</v>
+        <v>-0.0026079641</v>
       </c>
       <c r="L18">
-        <v>0.3408706750676713</v>
+        <v>-0.0026079641</v>
       </c>
       <c r="M18">
-        <v>1.117080897315069</v>
+        <v>0.18297177</v>
       </c>
       <c r="N18">
-        <v>1.508549973632877</v>
+        <v>1.0627484</v>
       </c>
       <c r="O18">
-        <v>0.8187743380547948</v>
+        <v>0.57031013</v>
       </c>
       <c r="P18">
-        <v>0.579822506561233</v>
+        <v>0.28385108295</v>
       </c>
       <c r="Q18">
-        <v>0.8241649314246575</v>
+        <v>0.47131202</v>
       </c>
       <c r="R18">
-        <v>0.8893983289184476</v>
+        <v>0.5434835219666666</v>
       </c>
       <c r="S18">
-        <v>0.6630668459723288</v>
+        <v>0.3133386919666667</v>
       </c>
       <c r="T18">
-        <v>0.8893983289184476</v>
+        <v>0.5434835219666666</v>
       </c>
       <c r="U18">
-        <v>0.8744376278874658</v>
+        <v>0.500691118975</v>
       </c>
       <c r="V18">
-        <v>1.001260097036548</v>
+        <v>0.6131025751799999</v>
       </c>
       <c r="W18">
-        <v>0.9316336349625686</v>
+        <v>0.7511640057375</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.436316494263158</v>
+        <v>0.90363594</v>
       </c>
       <c r="D19">
-        <v>0.981641990526316</v>
+        <v>0.7938472600000001</v>
       </c>
       <c r="E19">
-        <v>0.8766805452631579</v>
+        <v>0.9695692299999998</v>
       </c>
       <c r="F19">
-        <v>1.271781517368421</v>
+        <v>1.0837992</v>
       </c>
       <c r="G19">
-        <v>1.225705933968421</v>
+        <v>1.881306</v>
       </c>
       <c r="H19">
-        <v>1.225705933968421</v>
+        <v>1.881306</v>
       </c>
       <c r="I19">
-        <v>1.225705933968421</v>
+        <v>1.881306</v>
       </c>
       <c r="J19">
-        <v>1.302075806315789</v>
+        <v>0.16949639</v>
       </c>
       <c r="K19">
-        <v>0.05247285255052631</v>
+        <v>0.18124095</v>
       </c>
       <c r="L19">
-        <v>0.05247285255052631</v>
+        <v>0.18124095</v>
       </c>
       <c r="M19">
-        <v>1.150126871578947</v>
+        <v>1.1129315</v>
       </c>
       <c r="N19">
-        <v>1.225705933968421</v>
+        <v>1.881306</v>
       </c>
       <c r="O19">
-        <v>1.302075806315789</v>
+        <v>0.16949639</v>
       </c>
       <c r="P19">
-        <v>0.6772743294331578</v>
+        <v>0.17536867</v>
       </c>
       <c r="Q19">
-        <v>1.089378175789474</v>
+        <v>0.5695328099999999</v>
       </c>
       <c r="R19">
-        <v>0.8600848642782456</v>
+        <v>0.7440144466666666</v>
       </c>
       <c r="S19">
-        <v>0.7437430680431577</v>
+        <v>0.4401021899999999</v>
       </c>
       <c r="T19">
-        <v>0.8600848642782456</v>
+        <v>0.7440144466666666</v>
       </c>
       <c r="U19">
-        <v>0.8642337845244736</v>
+        <v>0.8004031424999999</v>
       </c>
       <c r="V19">
-        <v>0.9365282144132632</v>
+        <v>1.016583714</v>
       </c>
       <c r="W19">
-        <v>0.9121002514793422</v>
+        <v>0.8869783087499999</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.5610245528947368</v>
+        <v>0.7196994528904109</v>
       </c>
       <c r="D20">
-        <v>0.9849497036842106</v>
+        <v>1.082589172328768</v>
       </c>
       <c r="E20">
-        <v>0.6876247257894736</v>
+        <v>0.8295555247945203</v>
       </c>
       <c r="F20">
-        <v>1.336754370526316</v>
+        <v>1.035949045616438</v>
       </c>
       <c r="G20">
-        <v>1.393779560489474</v>
+        <v>1.508549973632877</v>
       </c>
       <c r="H20">
-        <v>1.393779560489474</v>
+        <v>1.508549973632877</v>
       </c>
       <c r="I20">
-        <v>1.393779560489474</v>
+        <v>1.508549973632877</v>
       </c>
       <c r="J20">
-        <v>1.080590806368421</v>
+        <v>0.8187743380547948</v>
       </c>
       <c r="K20">
-        <v>0.1862143961552631</v>
+        <v>0.3408706750676713</v>
       </c>
       <c r="L20">
-        <v>0.1862143961552631</v>
+        <v>0.3408706750676713</v>
       </c>
       <c r="M20">
-        <v>1.054505948105263</v>
+        <v>1.117080897315069</v>
       </c>
       <c r="N20">
-        <v>1.393779560489474</v>
+        <v>1.508549973632877</v>
       </c>
       <c r="O20">
-        <v>1.080590806368421</v>
+        <v>0.8187743380547948</v>
       </c>
       <c r="P20">
-        <v>0.6334026012618421</v>
+        <v>0.579822506561233</v>
       </c>
       <c r="Q20">
-        <v>0.8841077660789474</v>
+        <v>0.8241649314246575</v>
       </c>
       <c r="R20">
-        <v>0.8868615876710527</v>
+        <v>0.8893983289184476</v>
       </c>
       <c r="S20">
-        <v>0.6514766427710527</v>
+        <v>0.6630668459723288</v>
       </c>
       <c r="T20">
-        <v>0.8868615876710527</v>
+        <v>0.8893983289184476</v>
       </c>
       <c r="U20">
-        <v>0.837052372200658</v>
+        <v>0.8744376278874658</v>
       </c>
       <c r="V20">
-        <v>0.9483978098584211</v>
+        <v>1.001260097036548</v>
       </c>
       <c r="W20">
-        <v>0.9106805080016449</v>
+        <v>0.9316336349625686</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.7630427675592577</v>
+        <v>0.436316494263158</v>
       </c>
       <c r="D21">
-        <v>0.683104443778473</v>
+        <v>0.981641990526316</v>
       </c>
       <c r="E21">
-        <v>0.9464104146673036</v>
+        <v>0.8766805452631579</v>
       </c>
       <c r="F21">
-        <v>1.289716805531327</v>
+        <v>1.271781517368421</v>
       </c>
       <c r="G21">
-        <v>0.09994839146864848</v>
+        <v>1.225705933968421</v>
       </c>
       <c r="H21">
-        <v>0.09994839146864848</v>
+        <v>1.225705933968421</v>
       </c>
       <c r="I21">
-        <v>0.09994839146864848</v>
+        <v>1.225705933968421</v>
       </c>
       <c r="J21">
-        <v>1.976323055206932</v>
+        <v>1.302075806315789</v>
       </c>
       <c r="K21">
-        <v>0.244327500059894</v>
+        <v>0.05247285255052631</v>
       </c>
       <c r="L21">
-        <v>0.244327500059894</v>
+        <v>0.05247285255052631</v>
       </c>
       <c r="M21">
-        <v>1.407947286107057</v>
+        <v>1.150126871578947</v>
       </c>
       <c r="N21">
-        <v>0.09994839146864848</v>
+        <v>1.225705933968421</v>
       </c>
       <c r="O21">
-        <v>1.976323055206932</v>
+        <v>1.302075806315789</v>
       </c>
       <c r="P21">
-        <v>1.110325277633413</v>
+        <v>0.6772743294331578</v>
       </c>
       <c r="Q21">
-        <v>1.461366734937118</v>
+        <v>1.089378175789474</v>
       </c>
       <c r="R21">
-        <v>0.7735329822451581</v>
+        <v>0.8600848642782456</v>
       </c>
       <c r="S21">
-        <v>1.055686989978043</v>
+        <v>0.7437430680431577</v>
       </c>
       <c r="T21">
-        <v>0.7735329822451581</v>
+        <v>0.8600848642782456</v>
       </c>
       <c r="U21">
-        <v>0.8167523403506944</v>
+        <v>0.8642337845244736</v>
       </c>
       <c r="V21">
-        <v>0.6733915505742852</v>
+        <v>0.9365282144132632</v>
       </c>
       <c r="W21">
-        <v>0.9263525830473616</v>
+        <v>0.9121002514793422</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.126208870142665</v>
+        <v>0.5610245528947368</v>
       </c>
       <c r="D22">
-        <v>1.199641628230355</v>
+        <v>0.9849497036842106</v>
       </c>
       <c r="E22">
-        <v>1.059127154540698</v>
+        <v>0.6876247257894736</v>
       </c>
       <c r="F22">
-        <v>0.9653365473281356</v>
+        <v>1.336754370526316</v>
       </c>
       <c r="G22">
-        <v>1.154819413131847</v>
+        <v>1.393779560489474</v>
       </c>
       <c r="H22">
-        <v>1.154819413131847</v>
+        <v>1.393779560489474</v>
       </c>
       <c r="I22">
-        <v>1.154819413131847</v>
+        <v>1.393779560489474</v>
       </c>
       <c r="J22">
-        <v>0.6158226443872522</v>
+        <v>1.080590806368421</v>
       </c>
       <c r="K22">
-        <v>1.487078587347189</v>
+        <v>0.1862143961552631</v>
       </c>
       <c r="L22">
-        <v>1.487078587347189</v>
+        <v>0.1862143961552631</v>
       </c>
       <c r="M22">
-        <v>0.6774639121706539</v>
+        <v>1.054505948105263</v>
       </c>
       <c r="N22">
-        <v>1.154819413131847</v>
+        <v>1.393779560489474</v>
       </c>
       <c r="O22">
-        <v>0.6158226443872522</v>
+        <v>1.080590806368421</v>
       </c>
       <c r="P22">
-        <v>1.051450615867221</v>
+        <v>0.6334026012618421</v>
       </c>
       <c r="Q22">
-        <v>0.8374748994639749</v>
+        <v>0.8841077660789474</v>
       </c>
       <c r="R22">
-        <v>1.085906881622096</v>
+        <v>0.8868615876710527</v>
       </c>
       <c r="S22">
-        <v>1.054009462091713</v>
+        <v>0.6514766427710527</v>
       </c>
       <c r="T22">
-        <v>1.085906881622096</v>
+        <v>0.8868615876710527</v>
       </c>
       <c r="U22">
-        <v>1.079211949851747</v>
+        <v>0.837052372200658</v>
       </c>
       <c r="V22">
-        <v>1.094333442507767</v>
+        <v>0.9483978098584211</v>
       </c>
       <c r="W22">
-        <v>1.035687344659849</v>
+        <v>0.9106805080016449</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.242818300640022</v>
+        <v>0.7630427675592577</v>
       </c>
       <c r="D23">
-        <v>1.086102743082858</v>
+        <v>0.683104443778473</v>
       </c>
       <c r="E23">
-        <v>1.035393312944749</v>
+        <v>0.9464104146673036</v>
       </c>
       <c r="F23">
-        <v>0.8421911193373977</v>
+        <v>1.289716805531327</v>
       </c>
       <c r="G23">
-        <v>1.11699080466401</v>
+        <v>0.09994839146864848</v>
       </c>
       <c r="H23">
-        <v>1.11699080466401</v>
+        <v>0.09994839146864848</v>
       </c>
       <c r="I23">
-        <v>1.11699080466401</v>
+        <v>0.09994839146864848</v>
       </c>
       <c r="J23">
-        <v>0.6904590665431408</v>
+        <v>1.976323055206932</v>
       </c>
       <c r="K23">
-        <v>1.526267584329738</v>
+        <v>0.244327500059894</v>
       </c>
       <c r="L23">
-        <v>1.526267584329738</v>
+        <v>0.244327500059894</v>
       </c>
       <c r="M23">
-        <v>0.8507554068194179</v>
+        <v>1.407947286107057</v>
       </c>
       <c r="N23">
-        <v>1.11699080466401</v>
+        <v>0.09994839146864848</v>
       </c>
       <c r="O23">
-        <v>0.6904590665431408</v>
+        <v>1.976323055206932</v>
       </c>
       <c r="P23">
-        <v>1.108363325436439</v>
+        <v>1.110325277633413</v>
       </c>
       <c r="Q23">
-        <v>0.8629261897439446</v>
+        <v>1.461366734937118</v>
       </c>
       <c r="R23">
-        <v>1.111239151845629</v>
+        <v>0.7735329822451581</v>
       </c>
       <c r="S23">
-        <v>1.084039987939209</v>
+        <v>1.055686989978043</v>
       </c>
       <c r="T23">
-        <v>1.111239151845629</v>
+        <v>0.7735329822451581</v>
       </c>
       <c r="U23">
-        <v>1.092277692120409</v>
+        <v>0.8167523403506944</v>
       </c>
       <c r="V23">
-        <v>1.09722031462913</v>
+        <v>0.6733915505742852</v>
       </c>
       <c r="W23">
-        <v>1.048872292295167</v>
+        <v>0.9263525830473616</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.010484817529409</v>
+        <v>1.126208870142665</v>
       </c>
       <c r="D24">
-        <v>0.8480083243235578</v>
+        <v>1.199641628230355</v>
       </c>
       <c r="E24">
-        <v>1.010380707912029</v>
+        <v>1.059127154540698</v>
       </c>
       <c r="F24">
-        <v>0.9351409646023666</v>
+        <v>0.9653365473281356</v>
       </c>
       <c r="G24">
-        <v>1.003569769547607</v>
+        <v>1.154819413131847</v>
       </c>
       <c r="H24">
-        <v>1.003569769547607</v>
+        <v>1.154819413131847</v>
       </c>
       <c r="I24">
-        <v>1.003569769547607</v>
+        <v>1.154819413131847</v>
       </c>
       <c r="J24">
-        <v>1.053270246613401</v>
+        <v>0.6158226443872522</v>
       </c>
       <c r="K24">
-        <v>0.8074113510347647</v>
+        <v>1.487078587347189</v>
       </c>
       <c r="L24">
-        <v>0.8074113510347647</v>
+        <v>1.487078587347189</v>
       </c>
       <c r="M24">
-        <v>1.217295016323791</v>
+        <v>0.6774639121706539</v>
       </c>
       <c r="N24">
-        <v>1.003569769547607</v>
+        <v>1.154819413131847</v>
       </c>
       <c r="O24">
-        <v>1.053270246613401</v>
+        <v>0.6158226443872522</v>
       </c>
       <c r="P24">
-        <v>0.9303407988240829</v>
+        <v>1.051450615867221</v>
       </c>
       <c r="Q24">
-        <v>1.031825477262715</v>
+        <v>0.8374748994639749</v>
       </c>
       <c r="R24">
-        <v>0.9547504557319243</v>
+        <v>1.085906881622096</v>
       </c>
       <c r="S24">
-        <v>0.9570207685200649</v>
+        <v>1.054009462091713</v>
       </c>
       <c r="T24">
-        <v>0.9547504557319243</v>
+        <v>1.085906881622096</v>
       </c>
       <c r="U24">
-        <v>0.9686580187769505</v>
+        <v>1.079211949851747</v>
       </c>
       <c r="V24">
-        <v>0.9756403689310819</v>
+        <v>1.094333442507767</v>
       </c>
       <c r="W24">
-        <v>0.9856951497358659</v>
+        <v>1.035687344659849</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.041136374355129</v>
+        <v>1.242818300640022</v>
       </c>
       <c r="D25">
-        <v>1.210556466762628</v>
+        <v>1.086102743082858</v>
       </c>
       <c r="E25">
-        <v>0.9768003691381658</v>
+        <v>1.035393312944749</v>
       </c>
       <c r="F25">
-        <v>0.786329835412645</v>
+        <v>0.8421911193373977</v>
       </c>
       <c r="G25">
-        <v>1.578475872977647</v>
+        <v>1.11699080466401</v>
       </c>
       <c r="H25">
-        <v>1.578475872977647</v>
+        <v>1.11699080466401</v>
       </c>
       <c r="I25">
-        <v>1.578475872977647</v>
+        <v>1.11699080466401</v>
       </c>
       <c r="J25">
-        <v>0.5341849361534837</v>
+        <v>0.6904590665431408</v>
       </c>
       <c r="K25">
-        <v>1.440449686404931</v>
+        <v>1.526267584329738</v>
       </c>
       <c r="L25">
-        <v>1.440449686404931</v>
+        <v>1.526267584329738</v>
       </c>
       <c r="M25">
-        <v>0.8389755295940976</v>
+        <v>0.8507554068194179</v>
       </c>
       <c r="N25">
-        <v>1.578475872977647</v>
+        <v>1.11699080466401</v>
       </c>
       <c r="O25">
-        <v>0.5341849361534837</v>
+        <v>0.6904590665431408</v>
       </c>
       <c r="P25">
-        <v>0.9873173112792071</v>
+        <v>1.108363325436439</v>
       </c>
       <c r="Q25">
-        <v>0.7554926526458248</v>
+        <v>0.8629261897439446</v>
       </c>
       <c r="R25">
-        <v>1.184370165178687</v>
+        <v>1.111239151845629</v>
       </c>
       <c r="S25">
-        <v>0.98381166389886</v>
+        <v>1.084039987939209</v>
       </c>
       <c r="T25">
-        <v>1.184370165178687</v>
+        <v>1.111239151845629</v>
       </c>
       <c r="U25">
-        <v>1.132477716168557</v>
+        <v>1.092277692120409</v>
       </c>
       <c r="V25">
-        <v>1.221677347530375</v>
+        <v>1.09722031462913</v>
       </c>
       <c r="W25">
-        <v>1.050863633849841</v>
+        <v>1.048872292295167</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.015387802006874</v>
+        <v>1.010484817529409</v>
       </c>
       <c r="D26">
-        <v>0.8880454304002154</v>
+        <v>0.8480083243235578</v>
       </c>
       <c r="E26">
-        <v>1.046710292947735</v>
+        <v>1.010380707912029</v>
       </c>
       <c r="F26">
-        <v>1.059605845691872</v>
+        <v>0.9351409646023666</v>
       </c>
       <c r="G26">
-        <v>0.7102682169571874</v>
+        <v>1.003569769547607</v>
       </c>
       <c r="H26">
-        <v>0.7102682169571874</v>
+        <v>1.003569769547607</v>
       </c>
       <c r="I26">
-        <v>0.7102682169571874</v>
+        <v>1.003569769547607</v>
       </c>
       <c r="J26">
-        <v>1.150125617032131</v>
+        <v>1.053270246613401</v>
       </c>
       <c r="K26">
-        <v>0.8745762512811038</v>
+        <v>0.8074113510347647</v>
       </c>
       <c r="L26">
-        <v>0.8745762512811038</v>
+        <v>0.8074113510347647</v>
       </c>
       <c r="M26">
-        <v>1.081311529761104</v>
+        <v>1.217295016323791</v>
       </c>
       <c r="N26">
-        <v>0.7102682169571874</v>
+        <v>1.003569769547607</v>
       </c>
       <c r="O26">
-        <v>1.150125617032131</v>
+        <v>1.053270246613401</v>
       </c>
       <c r="P26">
-        <v>1.012350934156617</v>
+        <v>0.9303407988240829</v>
       </c>
       <c r="Q26">
-        <v>1.098417954989933</v>
+        <v>1.031825477262715</v>
       </c>
       <c r="R26">
-        <v>0.9116566950901408</v>
+        <v>0.9547504557319243</v>
       </c>
       <c r="S26">
-        <v>1.023804053753657</v>
+        <v>0.9570207685200649</v>
       </c>
       <c r="T26">
-        <v>0.9116566950901408</v>
+        <v>0.9547504557319243</v>
       </c>
       <c r="U26">
-        <v>0.9454200945545392</v>
+        <v>0.9686580187769505</v>
       </c>
       <c r="V26">
-        <v>0.8983897190350689</v>
+        <v>0.9756403689310819</v>
       </c>
       <c r="W26">
-        <v>0.9782538732597778</v>
+        <v>0.9856951497358659</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9601991765706627</v>
+        <v>1.041136374355129</v>
       </c>
       <c r="D27">
-        <v>0.923391638927975</v>
+        <v>1.210556466762628</v>
       </c>
       <c r="E27">
-        <v>0.8810148527434475</v>
+        <v>0.9768003691381658</v>
       </c>
       <c r="F27">
-        <v>1.0300893289662</v>
+        <v>0.786329835412645</v>
       </c>
       <c r="G27">
-        <v>1.16721969902503</v>
+        <v>1.578475872977647</v>
       </c>
       <c r="H27">
-        <v>1.16721969902503</v>
+        <v>1.578475872977647</v>
       </c>
       <c r="I27">
-        <v>1.16721969902503</v>
+        <v>1.578475872977647</v>
       </c>
       <c r="J27">
-        <v>0.9248947266698714</v>
+        <v>0.5341849361534837</v>
       </c>
       <c r="K27">
-        <v>1.139533613708962</v>
+        <v>1.440449686404931</v>
       </c>
       <c r="L27">
-        <v>1.139533613708962</v>
+        <v>1.440449686404931</v>
       </c>
       <c r="M27">
-        <v>1.028329068319012</v>
+        <v>0.8389755295940976</v>
       </c>
       <c r="N27">
-        <v>1.16721969902503</v>
+        <v>1.578475872977647</v>
       </c>
       <c r="O27">
-        <v>0.9248947266698714</v>
+        <v>0.5341849361534837</v>
       </c>
       <c r="P27">
-        <v>1.032214170189417</v>
+        <v>0.9873173112792071</v>
       </c>
       <c r="Q27">
-        <v>0.9029547897066594</v>
+        <v>0.7554926526458248</v>
       </c>
       <c r="R27">
-        <v>1.077216013134621</v>
+        <v>1.184370165178687</v>
       </c>
       <c r="S27">
-        <v>0.9818143977074271</v>
+        <v>0.98381166389886</v>
       </c>
       <c r="T27">
-        <v>1.077216013134621</v>
+        <v>1.184370165178687</v>
       </c>
       <c r="U27">
-        <v>1.028165723036828</v>
+        <v>1.132477716168557</v>
       </c>
       <c r="V27">
-        <v>1.055976518234468</v>
+        <v>1.221677347530375</v>
       </c>
       <c r="W27">
-        <v>1.006834013116395</v>
+        <v>1.050863633849841</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.113589766783272</v>
+        <v>1.015387802006874</v>
       </c>
       <c r="D28">
-        <v>0.7952330968881779</v>
+        <v>0.8880454304002154</v>
       </c>
       <c r="E28">
-        <v>1.033441328903443</v>
+        <v>1.046710292947735</v>
       </c>
       <c r="F28">
-        <v>1.212271154964766</v>
+        <v>1.059605845691872</v>
       </c>
       <c r="G28">
-        <v>1.196543162745848</v>
+        <v>0.7102682169571874</v>
       </c>
       <c r="H28">
-        <v>1.196543162745848</v>
+        <v>0.7102682169571874</v>
       </c>
       <c r="I28">
-        <v>1.196543162745848</v>
+        <v>0.7102682169571874</v>
       </c>
       <c r="J28">
-        <v>0.9136697109278663</v>
+        <v>1.150125617032131</v>
       </c>
       <c r="K28">
-        <v>0.7707884210560237</v>
+        <v>0.8745762512811038</v>
       </c>
       <c r="L28">
-        <v>0.7707884210560237</v>
+        <v>0.8745762512811038</v>
       </c>
       <c r="M28">
-        <v>0.9317898461780962</v>
+        <v>1.081311529761104</v>
       </c>
       <c r="N28">
-        <v>1.196543162745848</v>
+        <v>0.7102682169571874</v>
       </c>
       <c r="O28">
-        <v>0.9136697109278663</v>
+        <v>1.150125617032131</v>
       </c>
       <c r="P28">
-        <v>0.842229065991945</v>
+        <v>1.012350934156617</v>
       </c>
       <c r="Q28">
-        <v>0.9735555199156545</v>
+        <v>1.098417954989933</v>
       </c>
       <c r="R28">
-        <v>0.9603337649099126</v>
+        <v>0.9116566950901408</v>
       </c>
       <c r="S28">
-        <v>0.9059664869624443</v>
+        <v>1.023804053753657</v>
       </c>
       <c r="T28">
-        <v>0.9603337649099126</v>
+        <v>0.9116566950901408</v>
       </c>
       <c r="U28">
-        <v>0.9786106559082952</v>
+        <v>0.9454200945545392</v>
       </c>
       <c r="V28">
-        <v>1.022197157275806</v>
+        <v>0.8983897190350689</v>
       </c>
       <c r="W28">
-        <v>0.9959158110559365</v>
+        <v>0.9782538732597778</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9601991765706627</v>
+      </c>
+      <c r="D29">
+        <v>0.923391638927975</v>
+      </c>
+      <c r="E29">
+        <v>0.8810148527434475</v>
+      </c>
+      <c r="F29">
+        <v>1.0300893289662</v>
+      </c>
+      <c r="G29">
+        <v>1.16721969902503</v>
+      </c>
+      <c r="H29">
+        <v>1.16721969902503</v>
+      </c>
+      <c r="I29">
+        <v>1.16721969902503</v>
+      </c>
+      <c r="J29">
+        <v>0.9248947266698714</v>
+      </c>
+      <c r="K29">
+        <v>1.139533613708962</v>
+      </c>
+      <c r="L29">
+        <v>1.139533613708962</v>
+      </c>
+      <c r="M29">
+        <v>1.028329068319012</v>
+      </c>
+      <c r="N29">
+        <v>1.16721969902503</v>
+      </c>
+      <c r="O29">
+        <v>0.9248947266698714</v>
+      </c>
+      <c r="P29">
+        <v>1.032214170189417</v>
+      </c>
+      <c r="Q29">
+        <v>0.9029547897066594</v>
+      </c>
+      <c r="R29">
+        <v>1.077216013134621</v>
+      </c>
+      <c r="S29">
+        <v>0.9818143977074271</v>
+      </c>
+      <c r="T29">
+        <v>1.077216013134621</v>
+      </c>
+      <c r="U29">
+        <v>1.028165723036828</v>
+      </c>
+      <c r="V29">
+        <v>1.055976518234468</v>
+      </c>
+      <c r="W29">
+        <v>1.006834013116395</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.113589766783272</v>
+      </c>
+      <c r="D30">
+        <v>0.7952330968881779</v>
+      </c>
+      <c r="E30">
+        <v>1.033441328903443</v>
+      </c>
+      <c r="F30">
+        <v>1.212271154964766</v>
+      </c>
+      <c r="G30">
+        <v>1.196543162745848</v>
+      </c>
+      <c r="H30">
+        <v>1.196543162745848</v>
+      </c>
+      <c r="I30">
+        <v>1.196543162745848</v>
+      </c>
+      <c r="J30">
+        <v>0.9136697109278663</v>
+      </c>
+      <c r="K30">
+        <v>0.7707884210560237</v>
+      </c>
+      <c r="L30">
+        <v>0.7707884210560237</v>
+      </c>
+      <c r="M30">
+        <v>0.9317898461780962</v>
+      </c>
+      <c r="N30">
+        <v>1.196543162745848</v>
+      </c>
+      <c r="O30">
+        <v>0.9136697109278663</v>
+      </c>
+      <c r="P30">
+        <v>0.842229065991945</v>
+      </c>
+      <c r="Q30">
+        <v>0.9735555199156545</v>
+      </c>
+      <c r="R30">
+        <v>0.9603337649099126</v>
+      </c>
+      <c r="S30">
+        <v>0.9059664869624443</v>
+      </c>
+      <c r="T30">
+        <v>0.9603337649099126</v>
+      </c>
+      <c r="U30">
+        <v>0.9786106559082952</v>
+      </c>
+      <c r="V30">
+        <v>1.022197157275806</v>
+      </c>
+      <c r="W30">
+        <v>0.9959158110559365</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.434933761042172</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.7185817355205814</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.272992228463027</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.223818482429671</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.085414146119072</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.085414146119072</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.085414146119072</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.5368864095795753</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.5613535121170528</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.5613535121170528</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.8995686629137188</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.085414146119072</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.5368864095795753</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.549119960848314</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9049393190213011</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.7278846892719001</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.7904107167198849</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.7278846892719001</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>0.8641615740696817</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>0.9084120884795599</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>0.9666936172731089</v>
       </c>
     </row>
